--- a/Worksheet_Processing/OnCall_Tallies_Example_edited.xlsx
+++ b/Worksheet_Processing/OnCall_Tallies_Example_edited.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cameron\git\CS2043-Team-6-Project\Worksheet_Processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E65282-36E5-476F-9F92-3AA9263ABE5F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05EF37A5-0216-4EBD-A0E0-CF1CA262B812}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7670" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7670" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="99">
   <si>
     <t>St. John Paul II C.S.S.</t>
   </si>
@@ -868,7 +868,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1110,6 +1110,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1177,7 +1181,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="48">
+  <dxfs count="42">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1315,66 +1319,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1964,27 +1908,27 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="100"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
-      <c r="U1" s="101"/>
-      <c r="V1" s="101"/>
-      <c r="W1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
+      <c r="U1" s="103"/>
+      <c r="V1" s="103"/>
+      <c r="W1" s="104"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="3"/>
       <c r="AC1" s="5"/>
@@ -2003,27 +1947,27 @@
       <c r="B2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="104"/>
-      <c r="P2" s="104"/>
-      <c r="Q2" s="104"/>
-      <c r="R2" s="104"/>
-      <c r="S2" s="104"/>
-      <c r="T2" s="104"/>
-      <c r="U2" s="104"/>
-      <c r="V2" s="104"/>
-      <c r="W2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="106"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="106"/>
+      <c r="Q2" s="106"/>
+      <c r="R2" s="106"/>
+      <c r="S2" s="106"/>
+      <c r="T2" s="106"/>
+      <c r="U2" s="106"/>
+      <c r="V2" s="106"/>
+      <c r="W2" s="107"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="3" t="s">
         <v>1</v>
@@ -2041,34 +1985,34 @@
       <c r="AM2" s="6"/>
     </row>
     <row r="3" spans="1:39" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="108" t="s">
+      <c r="C3" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109"/>
-      <c r="N3" s="109"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="109"/>
-      <c r="Q3" s="109"/>
-      <c r="R3" s="109"/>
-      <c r="S3" s="109"/>
-      <c r="T3" s="109"/>
-      <c r="U3" s="109"/>
-      <c r="V3" s="109"/>
-      <c r="W3" s="110"/>
-      <c r="X3" s="114"/>
-      <c r="Y3" s="116" t="s">
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="111"/>
+      <c r="O3" s="111"/>
+      <c r="P3" s="111"/>
+      <c r="Q3" s="111"/>
+      <c r="R3" s="111"/>
+      <c r="S3" s="111"/>
+      <c r="T3" s="111"/>
+      <c r="U3" s="111"/>
+      <c r="V3" s="111"/>
+      <c r="W3" s="112"/>
+      <c r="X3" s="116"/>
+      <c r="Y3" s="118" t="s">
         <v>3</v>
       </c>
       <c r="AA3" t="s">
@@ -2087,37 +2031,37 @@
       <c r="AM3" s="6"/>
     </row>
     <row r="4" spans="1:39" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="107"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
-      <c r="H4" s="112"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="112"/>
-      <c r="K4" s="112"/>
-      <c r="L4" s="112"/>
-      <c r="M4" s="112"/>
-      <c r="N4" s="112"/>
-      <c r="O4" s="112"/>
-      <c r="P4" s="112"/>
-      <c r="Q4" s="112"/>
-      <c r="R4" s="112"/>
-      <c r="S4" s="112"/>
-      <c r="T4" s="112"/>
-      <c r="U4" s="112"/>
-      <c r="V4" s="112"/>
-      <c r="W4" s="113"/>
-      <c r="X4" s="115"/>
-      <c r="Y4" s="117"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="114"/>
+      <c r="M4" s="114"/>
+      <c r="N4" s="114"/>
+      <c r="O4" s="114"/>
+      <c r="P4" s="114"/>
+      <c r="Q4" s="114"/>
+      <c r="R4" s="114"/>
+      <c r="S4" s="114"/>
+      <c r="T4" s="114"/>
+      <c r="U4" s="114"/>
+      <c r="V4" s="114"/>
+      <c r="W4" s="115"/>
+      <c r="X4" s="117"/>
+      <c r="Y4" s="119"/>
       <c r="AA4" t="s">
         <v>74</v>
       </c>
       <c r="AC4" s="8"/>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="B5" s="107"/>
+      <c r="B5" s="109"/>
       <c r="C5" s="10" t="s">
         <v>4</v>
       </c>
@@ -2188,7 +2132,7 @@
       </c>
     </row>
     <row r="6" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="107"/>
+      <c r="B6" s="109"/>
       <c r="C6" s="14">
         <v>1</v>
       </c>
@@ -3421,29 +3365,29 @@
       <c r="B59" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="C59" s="97"/>
-      <c r="D59" s="98"/>
-      <c r="E59" s="98"/>
-      <c r="F59" s="98"/>
-      <c r="G59" s="98"/>
-      <c r="H59" s="98"/>
-      <c r="I59" s="98"/>
-      <c r="J59" s="98"/>
-      <c r="K59" s="98"/>
-      <c r="L59" s="98"/>
-      <c r="M59" s="98"/>
-      <c r="N59" s="98"/>
-      <c r="O59" s="98"/>
-      <c r="P59" s="98"/>
-      <c r="Q59" s="98"/>
-      <c r="R59" s="98"/>
-      <c r="S59" s="98"/>
-      <c r="T59" s="98"/>
-      <c r="U59" s="98"/>
-      <c r="V59" s="98"/>
-      <c r="W59" s="98"/>
-      <c r="X59" s="98"/>
-      <c r="Y59" s="99"/>
+      <c r="C59" s="99"/>
+      <c r="D59" s="100"/>
+      <c r="E59" s="100"/>
+      <c r="F59" s="100"/>
+      <c r="G59" s="100"/>
+      <c r="H59" s="100"/>
+      <c r="I59" s="100"/>
+      <c r="J59" s="100"/>
+      <c r="K59" s="100"/>
+      <c r="L59" s="100"/>
+      <c r="M59" s="100"/>
+      <c r="N59" s="100"/>
+      <c r="O59" s="100"/>
+      <c r="P59" s="100"/>
+      <c r="Q59" s="100"/>
+      <c r="R59" s="100"/>
+      <c r="S59" s="100"/>
+      <c r="T59" s="100"/>
+      <c r="U59" s="100"/>
+      <c r="V59" s="100"/>
+      <c r="W59" s="100"/>
+      <c r="X59" s="100"/>
+      <c r="Y59" s="101"/>
       <c r="Z59" s="56"/>
       <c r="AA59" s="57"/>
       <c r="AB59" s="46"/>
@@ -3958,29 +3902,29 @@
       <c r="B85" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C85" s="97"/>
-      <c r="D85" s="98"/>
-      <c r="E85" s="98"/>
-      <c r="F85" s="98"/>
-      <c r="G85" s="98"/>
-      <c r="H85" s="98"/>
-      <c r="I85" s="98"/>
-      <c r="J85" s="98"/>
-      <c r="K85" s="98"/>
-      <c r="L85" s="98"/>
-      <c r="M85" s="98"/>
-      <c r="N85" s="98"/>
-      <c r="O85" s="98"/>
-      <c r="P85" s="98"/>
-      <c r="Q85" s="98"/>
-      <c r="R85" s="98"/>
-      <c r="S85" s="98"/>
-      <c r="T85" s="98"/>
-      <c r="U85" s="98"/>
-      <c r="V85" s="98"/>
-      <c r="W85" s="98"/>
-      <c r="X85" s="98"/>
-      <c r="Y85" s="99"/>
+      <c r="C85" s="99"/>
+      <c r="D85" s="100"/>
+      <c r="E85" s="100"/>
+      <c r="F85" s="100"/>
+      <c r="G85" s="100"/>
+      <c r="H85" s="100"/>
+      <c r="I85" s="100"/>
+      <c r="J85" s="100"/>
+      <c r="K85" s="100"/>
+      <c r="L85" s="100"/>
+      <c r="M85" s="100"/>
+      <c r="N85" s="100"/>
+      <c r="O85" s="100"/>
+      <c r="P85" s="100"/>
+      <c r="Q85" s="100"/>
+      <c r="R85" s="100"/>
+      <c r="S85" s="100"/>
+      <c r="T85" s="100"/>
+      <c r="U85" s="100"/>
+      <c r="V85" s="100"/>
+      <c r="W85" s="100"/>
+      <c r="X85" s="100"/>
+      <c r="Y85" s="101"/>
       <c r="Z85" s="56"/>
       <c r="AA85" s="57"/>
       <c r="AB85" s="46"/>
@@ -7205,88 +7149,88 @@
     <mergeCell ref="C59:Y59"/>
   </mergeCells>
   <conditionalFormatting sqref="X28">
-    <cfRule type="cellIs" dxfId="47" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="18" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X8:X30">
-    <cfRule type="cellIs" dxfId="46" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="40" priority="17" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X34:X56">
-    <cfRule type="cellIs" dxfId="45" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="16" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X60:X82">
-    <cfRule type="cellIs" dxfId="44" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="15" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X86:X108">
-    <cfRule type="cellIs" dxfId="43" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="14" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD8:AD27">
-    <cfRule type="cellIs" dxfId="42" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD34:AD56">
-    <cfRule type="cellIs" dxfId="41" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD60:AD81">
-    <cfRule type="cellIs" dxfId="39" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD86:AD105">
-    <cfRule type="cellIs" dxfId="38" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD82">
-    <cfRule type="cellIs" dxfId="37" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD57">
-    <cfRule type="cellIs" dxfId="36" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X57">
-    <cfRule type="cellIs" dxfId="34" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="5" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA28">
-    <cfRule type="cellIs" dxfId="33" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="4" operator="lessThan">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA58">
-    <cfRule type="cellIs" dxfId="32" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="3" operator="lessThan">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA83">
-    <cfRule type="cellIs" dxfId="31" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="2" operator="lessThan">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA106">
-    <cfRule type="cellIs" dxfId="30" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="lessThan">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7299,7 +7243,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D676B553-7D54-4746-95D0-B471DC64B93B}">
   <dimension ref="A1:AC113"/>
   <sheetViews>
-    <sheetView topLeftCell="F10" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <selection activeCell="W18" sqref="W18"/>
     </sheetView>
   </sheetViews>
@@ -7309,27 +7253,27 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="100"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
-      <c r="U1" s="101"/>
-      <c r="V1" s="101"/>
-      <c r="W1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
+      <c r="U1" s="103"/>
+      <c r="V1" s="103"/>
+      <c r="W1" s="104"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="3"/>
       <c r="AB1" s="4"/>
@@ -7339,27 +7283,27 @@
       <c r="B2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="104"/>
-      <c r="P2" s="104"/>
-      <c r="Q2" s="104"/>
-      <c r="R2" s="104"/>
-      <c r="S2" s="104"/>
-      <c r="T2" s="104"/>
-      <c r="U2" s="104"/>
-      <c r="V2" s="104"/>
-      <c r="W2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="106"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="106"/>
+      <c r="Q2" s="106"/>
+      <c r="R2" s="106"/>
+      <c r="S2" s="106"/>
+      <c r="T2" s="106"/>
+      <c r="U2" s="106"/>
+      <c r="V2" s="106"/>
+      <c r="W2" s="107"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="3" t="s">
         <v>1</v>
@@ -7368,34 +7312,34 @@
       <c r="AC2" s="5"/>
     </row>
     <row r="3" spans="1:29" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="108" t="s">
+      <c r="C3" s="110" t="s">
         <v>96</v>
       </c>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109"/>
-      <c r="N3" s="109"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="109"/>
-      <c r="Q3" s="109"/>
-      <c r="R3" s="109"/>
-      <c r="S3" s="109"/>
-      <c r="T3" s="109"/>
-      <c r="U3" s="109"/>
-      <c r="V3" s="109"/>
-      <c r="W3" s="110"/>
-      <c r="X3" s="114"/>
-      <c r="Y3" s="116" t="s">
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="111"/>
+      <c r="O3" s="111"/>
+      <c r="P3" s="111"/>
+      <c r="Q3" s="111"/>
+      <c r="R3" s="111"/>
+      <c r="S3" s="111"/>
+      <c r="T3" s="111"/>
+      <c r="U3" s="111"/>
+      <c r="V3" s="111"/>
+      <c r="W3" s="112"/>
+      <c r="X3" s="116"/>
+      <c r="Y3" s="118" t="s">
         <v>3</v>
       </c>
       <c r="AA3" t="s">
@@ -7405,30 +7349,30 @@
       <c r="AC3" s="5"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="B4" s="107"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
-      <c r="H4" s="112"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="112"/>
-      <c r="K4" s="112"/>
-      <c r="L4" s="112"/>
-      <c r="M4" s="112"/>
-      <c r="N4" s="112"/>
-      <c r="O4" s="112"/>
-      <c r="P4" s="112"/>
-      <c r="Q4" s="112"/>
-      <c r="R4" s="112"/>
-      <c r="S4" s="112"/>
-      <c r="T4" s="112"/>
-      <c r="U4" s="112"/>
-      <c r="V4" s="112"/>
-      <c r="W4" s="113"/>
-      <c r="X4" s="115"/>
-      <c r="Y4" s="117"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="114"/>
+      <c r="M4" s="114"/>
+      <c r="N4" s="114"/>
+      <c r="O4" s="114"/>
+      <c r="P4" s="114"/>
+      <c r="Q4" s="114"/>
+      <c r="R4" s="114"/>
+      <c r="S4" s="114"/>
+      <c r="T4" s="114"/>
+      <c r="U4" s="114"/>
+      <c r="V4" s="114"/>
+      <c r="W4" s="115"/>
+      <c r="X4" s="117"/>
+      <c r="Y4" s="119"/>
       <c r="AA4" t="s">
         <v>74</v>
       </c>
@@ -7436,7 +7380,7 @@
       <c r="AC4" s="8"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="B5" s="107"/>
+      <c r="B5" s="109"/>
       <c r="C5" s="10" t="s">
         <v>5</v>
       </c>
@@ -7509,7 +7453,7 @@
       <c r="AC5" s="13"/>
     </row>
     <row r="6" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="107"/>
+      <c r="B6" s="109"/>
       <c r="C6" s="14">
         <v>1</v>
       </c>
@@ -9661,29 +9605,29 @@
       <c r="B59" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="C59" s="97"/>
-      <c r="D59" s="98"/>
-      <c r="E59" s="98"/>
-      <c r="F59" s="98"/>
-      <c r="G59" s="98"/>
-      <c r="H59" s="98"/>
-      <c r="I59" s="98"/>
-      <c r="J59" s="98"/>
-      <c r="K59" s="98"/>
-      <c r="L59" s="98"/>
-      <c r="M59" s="98"/>
-      <c r="N59" s="98"/>
-      <c r="O59" s="98"/>
-      <c r="P59" s="98"/>
-      <c r="Q59" s="98"/>
-      <c r="R59" s="98"/>
-      <c r="S59" s="98"/>
-      <c r="T59" s="98"/>
-      <c r="U59" s="98"/>
-      <c r="V59" s="98"/>
-      <c r="W59" s="98"/>
-      <c r="X59" s="98"/>
-      <c r="Y59" s="99"/>
+      <c r="C59" s="99"/>
+      <c r="D59" s="100"/>
+      <c r="E59" s="100"/>
+      <c r="F59" s="100"/>
+      <c r="G59" s="100"/>
+      <c r="H59" s="100"/>
+      <c r="I59" s="100"/>
+      <c r="J59" s="100"/>
+      <c r="K59" s="100"/>
+      <c r="L59" s="100"/>
+      <c r="M59" s="100"/>
+      <c r="N59" s="100"/>
+      <c r="O59" s="100"/>
+      <c r="P59" s="100"/>
+      <c r="Q59" s="100"/>
+      <c r="R59" s="100"/>
+      <c r="S59" s="100"/>
+      <c r="T59" s="100"/>
+      <c r="U59" s="100"/>
+      <c r="V59" s="100"/>
+      <c r="W59" s="100"/>
+      <c r="X59" s="100"/>
+      <c r="Y59" s="101"/>
       <c r="Z59" s="56"/>
       <c r="AA59" s="57"/>
       <c r="AB59" s="46"/>
@@ -10672,29 +10616,29 @@
       <c r="B85" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C85" s="97"/>
-      <c r="D85" s="98"/>
-      <c r="E85" s="98"/>
-      <c r="F85" s="98"/>
-      <c r="G85" s="98"/>
-      <c r="H85" s="98"/>
-      <c r="I85" s="98"/>
-      <c r="J85" s="98"/>
-      <c r="K85" s="98"/>
-      <c r="L85" s="98"/>
-      <c r="M85" s="98"/>
-      <c r="N85" s="98"/>
-      <c r="O85" s="98"/>
-      <c r="P85" s="98"/>
-      <c r="Q85" s="98"/>
-      <c r="R85" s="98"/>
-      <c r="S85" s="98"/>
-      <c r="T85" s="98"/>
-      <c r="U85" s="98"/>
-      <c r="V85" s="98"/>
-      <c r="W85" s="98"/>
-      <c r="X85" s="98"/>
-      <c r="Y85" s="99"/>
+      <c r="C85" s="99"/>
+      <c r="D85" s="100"/>
+      <c r="E85" s="100"/>
+      <c r="F85" s="100"/>
+      <c r="G85" s="100"/>
+      <c r="H85" s="100"/>
+      <c r="I85" s="100"/>
+      <c r="J85" s="100"/>
+      <c r="K85" s="100"/>
+      <c r="L85" s="100"/>
+      <c r="M85" s="100"/>
+      <c r="N85" s="100"/>
+      <c r="O85" s="100"/>
+      <c r="P85" s="100"/>
+      <c r="Q85" s="100"/>
+      <c r="R85" s="100"/>
+      <c r="S85" s="100"/>
+      <c r="T85" s="100"/>
+      <c r="U85" s="100"/>
+      <c r="V85" s="100"/>
+      <c r="W85" s="100"/>
+      <c r="X85" s="100"/>
+      <c r="Y85" s="101"/>
       <c r="Z85" s="56"/>
       <c r="AA85" s="57"/>
       <c r="AB85" s="46"/>
@@ -11837,52 +11781,52 @@
     <mergeCell ref="C59:Y59"/>
   </mergeCells>
   <conditionalFormatting sqref="X28">
-    <cfRule type="cellIs" dxfId="29" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="10" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X8:X30">
-    <cfRule type="cellIs" dxfId="28" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="9" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X34:X56">
-    <cfRule type="cellIs" dxfId="27" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="8" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X60:X82">
-    <cfRule type="cellIs" dxfId="26" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="7" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X86:X108">
-    <cfRule type="cellIs" dxfId="25" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="6" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X57">
-    <cfRule type="cellIs" dxfId="24" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA28">
-    <cfRule type="cellIs" dxfId="23" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="lessThan">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA58">
-    <cfRule type="cellIs" dxfId="22" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="lessThan">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA83">
-    <cfRule type="cellIs" dxfId="21" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="lessThan">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA106">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="lessThan">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11894,8 +11838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3730DA0E-43CD-42B7-AA5D-D3012F77CD1C}">
   <dimension ref="A1:AC113"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="H49" workbookViewId="0">
+      <selection activeCell="T64" sqref="T64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11904,27 +11848,27 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="100"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
-      <c r="U1" s="101"/>
-      <c r="V1" s="101"/>
-      <c r="W1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
+      <c r="U1" s="103"/>
+      <c r="V1" s="103"/>
+      <c r="W1" s="104"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="3"/>
       <c r="AB1" s="4"/>
@@ -11934,27 +11878,27 @@
       <c r="B2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="104"/>
-      <c r="P2" s="104"/>
-      <c r="Q2" s="104"/>
-      <c r="R2" s="104"/>
-      <c r="S2" s="104"/>
-      <c r="T2" s="104"/>
-      <c r="U2" s="104"/>
-      <c r="V2" s="104"/>
-      <c r="W2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="106"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="106"/>
+      <c r="Q2" s="106"/>
+      <c r="R2" s="106"/>
+      <c r="S2" s="106"/>
+      <c r="T2" s="106"/>
+      <c r="U2" s="106"/>
+      <c r="V2" s="106"/>
+      <c r="W2" s="107"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="3" t="s">
         <v>1</v>
@@ -11963,34 +11907,34 @@
       <c r="AC2" s="5"/>
     </row>
     <row r="3" spans="1:29" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="108" t="s">
+      <c r="C3" s="110" t="s">
         <v>97</v>
       </c>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109"/>
-      <c r="N3" s="109"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="109"/>
-      <c r="Q3" s="109"/>
-      <c r="R3" s="109"/>
-      <c r="S3" s="109"/>
-      <c r="T3" s="109"/>
-      <c r="U3" s="109"/>
-      <c r="V3" s="109"/>
-      <c r="W3" s="110"/>
-      <c r="X3" s="114"/>
-      <c r="Y3" s="116" t="s">
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="111"/>
+      <c r="O3" s="111"/>
+      <c r="P3" s="111"/>
+      <c r="Q3" s="111"/>
+      <c r="R3" s="111"/>
+      <c r="S3" s="111"/>
+      <c r="T3" s="111"/>
+      <c r="U3" s="111"/>
+      <c r="V3" s="111"/>
+      <c r="W3" s="112"/>
+      <c r="X3" s="116"/>
+      <c r="Y3" s="118" t="s">
         <v>3</v>
       </c>
       <c r="AA3" t="s">
@@ -12000,30 +11944,30 @@
       <c r="AC3" s="5"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="B4" s="107"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
-      <c r="H4" s="112"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="112"/>
-      <c r="K4" s="112"/>
-      <c r="L4" s="112"/>
-      <c r="M4" s="112"/>
-      <c r="N4" s="112"/>
-      <c r="O4" s="112"/>
-      <c r="P4" s="112"/>
-      <c r="Q4" s="112"/>
-      <c r="R4" s="112"/>
-      <c r="S4" s="112"/>
-      <c r="T4" s="112"/>
-      <c r="U4" s="112"/>
-      <c r="V4" s="112"/>
-      <c r="W4" s="113"/>
-      <c r="X4" s="115"/>
-      <c r="Y4" s="117"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="114"/>
+      <c r="M4" s="114"/>
+      <c r="N4" s="114"/>
+      <c r="O4" s="114"/>
+      <c r="P4" s="114"/>
+      <c r="Q4" s="114"/>
+      <c r="R4" s="114"/>
+      <c r="S4" s="114"/>
+      <c r="T4" s="114"/>
+      <c r="U4" s="114"/>
+      <c r="V4" s="114"/>
+      <c r="W4" s="115"/>
+      <c r="X4" s="117"/>
+      <c r="Y4" s="119"/>
       <c r="AA4" t="s">
         <v>74</v>
       </c>
@@ -12031,7 +11975,7 @@
       <c r="AC4" s="8"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="B5" s="107"/>
+      <c r="B5" s="109"/>
       <c r="C5" s="11" t="s">
         <v>6</v>
       </c>
@@ -12093,9 +12037,11 @@
         <v>5</v>
       </c>
       <c r="W5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="X5" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="X5" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="Y5" s="3"/>
       <c r="AA5">
         <v>4</v>
@@ -12104,7 +12050,7 @@
       <c r="AC5" s="13"/>
     </row>
     <row r="6" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="107"/>
+      <c r="B6" s="109"/>
       <c r="C6" s="14">
         <v>1</v>
       </c>
@@ -12168,7 +12114,9 @@
       <c r="W6" s="17">
         <v>29</v>
       </c>
-      <c r="X6" s="20"/>
+      <c r="X6" s="17">
+        <v>30</v>
+      </c>
       <c r="Y6" s="21"/>
       <c r="AA6" s="22"/>
       <c r="AB6" s="4"/>
@@ -12199,7 +12147,7 @@
       <c r="U7" s="28"/>
       <c r="V7" s="28"/>
       <c r="W7" s="28"/>
-      <c r="X7" s="29"/>
+      <c r="X7" s="28"/>
       <c r="Y7" s="30"/>
       <c r="AB7" s="31"/>
       <c r="AC7" s="32"/>
@@ -12240,7 +12188,7 @@
       <c r="U8" s="36"/>
       <c r="V8" s="36"/>
       <c r="W8" s="35"/>
-      <c r="X8" s="37"/>
+      <c r="X8" s="35"/>
       <c r="Y8" s="38">
         <f>SUM(C8:W8)</f>
         <v>4</v>
@@ -12285,7 +12233,7 @@
       </c>
       <c r="V9" s="36"/>
       <c r="W9" s="35"/>
-      <c r="X9" s="37"/>
+      <c r="X9" s="35"/>
       <c r="Y9" s="38">
         <f t="shared" ref="Y9:Y27" si="0">SUM(C9:W9)</f>
         <v>4</v>
@@ -12326,7 +12274,7 @@
       <c r="U10" s="36"/>
       <c r="V10" s="36"/>
       <c r="W10" s="35"/>
-      <c r="X10" s="37"/>
+      <c r="X10" s="35"/>
       <c r="Y10" s="38">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -12371,7 +12319,7 @@
       <c r="U11" s="36"/>
       <c r="V11" s="36"/>
       <c r="W11" s="35"/>
-      <c r="X11" s="37"/>
+      <c r="X11" s="35"/>
       <c r="Y11" s="38">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -12414,7 +12362,7 @@
       </c>
       <c r="V12" s="36"/>
       <c r="W12" s="35"/>
-      <c r="X12" s="37"/>
+      <c r="X12" s="35"/>
       <c r="Y12" s="38">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -12457,7 +12405,7 @@
       </c>
       <c r="V13" s="36"/>
       <c r="W13" s="35"/>
-      <c r="X13" s="37"/>
+      <c r="X13" s="35"/>
       <c r="Y13" s="38">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -12498,7 +12446,7 @@
       <c r="U14" s="36"/>
       <c r="V14" s="36"/>
       <c r="W14" s="35"/>
-      <c r="X14" s="37"/>
+      <c r="X14" s="35"/>
       <c r="Y14" s="38">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -12541,7 +12489,7 @@
         <v>1</v>
       </c>
       <c r="W15" s="35"/>
-      <c r="X15" s="37"/>
+      <c r="X15" s="35"/>
       <c r="Y15" s="38">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -12584,7 +12532,7 @@
       <c r="W16" s="35">
         <v>1</v>
       </c>
-      <c r="X16" s="37"/>
+      <c r="X16" s="35"/>
       <c r="Y16" s="38">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -12625,7 +12573,7 @@
       <c r="U17" s="36"/>
       <c r="V17" s="36"/>
       <c r="W17" s="35"/>
-      <c r="X17" s="37"/>
+      <c r="X17" s="35"/>
       <c r="Y17" s="38">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -12668,7 +12616,7 @@
       <c r="W18" s="35">
         <v>1</v>
       </c>
-      <c r="X18" s="37"/>
+      <c r="X18" s="35"/>
       <c r="Y18" s="38">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -12709,7 +12657,7 @@
       <c r="U19" s="36"/>
       <c r="V19" s="36"/>
       <c r="W19" s="35"/>
-      <c r="X19" s="37"/>
+      <c r="X19" s="35"/>
       <c r="Y19" s="38">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -12752,7 +12700,7 @@
       <c r="W20" s="35">
         <v>1</v>
       </c>
-      <c r="X20" s="37"/>
+      <c r="X20" s="35"/>
       <c r="Y20" s="38">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -12795,7 +12743,7 @@
       <c r="W21" s="35">
         <v>1</v>
       </c>
-      <c r="X21" s="37"/>
+      <c r="X21" s="35"/>
       <c r="Y21" s="38">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -12838,7 +12786,7 @@
       <c r="W22" s="35">
         <v>1</v>
       </c>
-      <c r="X22" s="37"/>
+      <c r="X22" s="35"/>
       <c r="Y22" s="38">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -12881,7 +12829,7 @@
       <c r="U23" s="36"/>
       <c r="V23" s="36"/>
       <c r="W23" s="35"/>
-      <c r="X23" s="37"/>
+      <c r="X23" s="35"/>
       <c r="Y23" s="38">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -12924,7 +12872,7 @@
       <c r="U24" s="36"/>
       <c r="V24" s="36"/>
       <c r="W24" s="35"/>
-      <c r="X24" s="37"/>
+      <c r="X24" s="35"/>
       <c r="Y24" s="38">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -12967,7 +12915,7 @@
       <c r="W25" s="35">
         <v>1</v>
       </c>
-      <c r="X25" s="37"/>
+      <c r="X25" s="35"/>
       <c r="Y25" s="38">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -13010,7 +12958,7 @@
       <c r="W26" s="35">
         <v>1</v>
       </c>
-      <c r="X26" s="37"/>
+      <c r="X26" s="35"/>
       <c r="Y26" s="38">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -13053,7 +13001,7 @@
       <c r="U27" s="36"/>
       <c r="V27" s="36"/>
       <c r="W27" s="35"/>
-      <c r="X27" s="37"/>
+      <c r="X27" s="35"/>
       <c r="Y27" s="38">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -13088,7 +13036,7 @@
       <c r="U28" s="36"/>
       <c r="V28" s="36"/>
       <c r="W28" s="35"/>
-      <c r="X28" s="37"/>
+      <c r="X28" s="35"/>
       <c r="Y28" s="38"/>
       <c r="AA28" s="45"/>
       <c r="AB28" s="46"/>
@@ -13120,7 +13068,7 @@
       <c r="U29" s="36"/>
       <c r="V29" s="36"/>
       <c r="W29" s="35"/>
-      <c r="X29" s="37"/>
+      <c r="X29" s="35"/>
       <c r="Y29" s="38"/>
       <c r="AB29" s="4"/>
       <c r="AC29" s="50"/>
@@ -13151,7 +13099,7 @@
       <c r="U30" s="36"/>
       <c r="V30" s="36"/>
       <c r="W30" s="35"/>
-      <c r="X30" s="37"/>
+      <c r="X30" s="35"/>
       <c r="Y30" s="38"/>
       <c r="AA30" s="39"/>
       <c r="AB30" s="46"/>
@@ -13183,7 +13131,7 @@
       <c r="U31" s="36"/>
       <c r="V31" s="36"/>
       <c r="W31" s="35"/>
-      <c r="X31" s="37"/>
+      <c r="X31" s="35"/>
       <c r="Y31" s="38"/>
       <c r="AB31" s="4"/>
       <c r="AC31" s="13"/>
@@ -13214,7 +13162,7 @@
       <c r="U32" s="36"/>
       <c r="V32" s="36"/>
       <c r="W32" s="35"/>
-      <c r="X32" s="37"/>
+      <c r="X32" s="35"/>
       <c r="Y32" s="38"/>
       <c r="AA32" s="39"/>
       <c r="AB32" s="46"/>
@@ -13245,7 +13193,7 @@
       <c r="U33" s="93"/>
       <c r="V33" s="93"/>
       <c r="W33" s="93"/>
-      <c r="X33" s="54"/>
+      <c r="X33" s="97"/>
       <c r="Y33" s="55"/>
       <c r="Z33" s="56"/>
       <c r="AA33" s="57"/>
@@ -13284,7 +13232,7 @@
       <c r="U34" s="36"/>
       <c r="V34" s="36"/>
       <c r="W34" s="35"/>
-      <c r="X34" s="37"/>
+      <c r="X34" s="35"/>
       <c r="Y34" s="38">
         <f t="shared" ref="Y34:Y57" si="1">SUM(C34:W34)</f>
         <v>2</v>
@@ -13325,7 +13273,7 @@
       <c r="U35" s="36"/>
       <c r="V35" s="36"/>
       <c r="W35" s="35"/>
-      <c r="X35" s="37"/>
+      <c r="X35" s="35"/>
       <c r="Y35" s="38">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -13366,7 +13314,7 @@
       <c r="U36" s="36"/>
       <c r="V36" s="36"/>
       <c r="W36" s="35"/>
-      <c r="X36" s="37"/>
+      <c r="X36" s="35"/>
       <c r="Y36" s="38">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -13407,7 +13355,7 @@
       <c r="U37" s="36"/>
       <c r="V37" s="36"/>
       <c r="W37" s="35"/>
-      <c r="X37" s="37"/>
+      <c r="X37" s="35"/>
       <c r="Y37" s="38">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -13448,7 +13396,7 @@
       <c r="U38" s="36"/>
       <c r="V38" s="36"/>
       <c r="W38" s="35"/>
-      <c r="X38" s="37"/>
+      <c r="X38" s="35"/>
       <c r="Y38" s="38">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -13489,7 +13437,7 @@
       <c r="U39" s="36"/>
       <c r="V39" s="36"/>
       <c r="W39" s="35"/>
-      <c r="X39" s="37"/>
+      <c r="X39" s="35"/>
       <c r="Y39" s="38">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -13530,7 +13478,7 @@
       <c r="U40" s="36"/>
       <c r="V40" s="36"/>
       <c r="W40" s="35"/>
-      <c r="X40" s="37"/>
+      <c r="X40" s="35"/>
       <c r="Y40" s="38">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -13569,7 +13517,7 @@
       <c r="U41" s="36"/>
       <c r="V41" s="36"/>
       <c r="W41" s="35"/>
-      <c r="X41" s="37"/>
+      <c r="X41" s="35"/>
       <c r="Y41" s="38">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -13610,7 +13558,7 @@
       <c r="U42" s="36"/>
       <c r="V42" s="36"/>
       <c r="W42" s="35"/>
-      <c r="X42" s="37"/>
+      <c r="X42" s="35"/>
       <c r="Y42" s="38">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -13651,7 +13599,7 @@
       </c>
       <c r="V43" s="36"/>
       <c r="W43" s="35"/>
-      <c r="X43" s="37"/>
+      <c r="X43" s="35"/>
       <c r="Y43" s="38">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -13692,7 +13640,7 @@
       <c r="U44" s="36"/>
       <c r="V44" s="36"/>
       <c r="W44" s="35"/>
-      <c r="X44" s="37"/>
+      <c r="X44" s="35"/>
       <c r="Y44" s="38">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -13733,7 +13681,7 @@
       </c>
       <c r="V45" s="36"/>
       <c r="W45" s="35"/>
-      <c r="X45" s="37"/>
+      <c r="X45" s="35"/>
       <c r="Y45" s="38">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -13772,7 +13720,7 @@
       <c r="U46" s="36"/>
       <c r="V46" s="36"/>
       <c r="W46" s="35"/>
-      <c r="X46" s="37"/>
+      <c r="X46" s="35"/>
       <c r="Y46" s="38">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -13813,7 +13761,7 @@
       <c r="U47" s="36"/>
       <c r="V47" s="36"/>
       <c r="W47" s="35"/>
-      <c r="X47" s="37"/>
+      <c r="X47" s="35"/>
       <c r="Y47" s="38">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -13854,7 +13802,7 @@
       <c r="U48" s="36"/>
       <c r="V48" s="36"/>
       <c r="W48" s="35"/>
-      <c r="X48" s="37"/>
+      <c r="X48" s="35"/>
       <c r="Y48" s="38">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -13895,7 +13843,7 @@
       <c r="W49" s="35">
         <v>1</v>
       </c>
-      <c r="X49" s="37"/>
+      <c r="X49" s="35"/>
       <c r="Y49" s="38">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -13936,7 +13884,7 @@
       <c r="W50" s="35">
         <v>1</v>
       </c>
-      <c r="X50" s="37"/>
+      <c r="X50" s="35"/>
       <c r="Y50" s="38">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -13977,7 +13925,7 @@
       <c r="W51" s="35">
         <v>1</v>
       </c>
-      <c r="X51" s="37"/>
+      <c r="X51" s="35"/>
       <c r="Y51" s="38">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -14018,7 +13966,7 @@
       <c r="W52" s="35">
         <v>1</v>
       </c>
-      <c r="X52" s="37"/>
+      <c r="X52" s="35"/>
       <c r="Y52" s="38">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -14059,7 +14007,7 @@
       <c r="W53" s="35">
         <v>1</v>
       </c>
-      <c r="X53" s="37"/>
+      <c r="X53" s="35"/>
       <c r="Y53" s="38">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -14098,7 +14046,7 @@
       <c r="U54" s="36"/>
       <c r="V54" s="36"/>
       <c r="W54" s="35"/>
-      <c r="X54" s="37"/>
+      <c r="X54" s="35"/>
       <c r="Y54" s="38">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -14137,7 +14085,7 @@
       <c r="U55" s="36"/>
       <c r="V55" s="36"/>
       <c r="W55" s="35"/>
-      <c r="X55" s="37"/>
+      <c r="X55" s="35"/>
       <c r="Y55" s="38">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -14176,7 +14124,7 @@
       <c r="U56" s="36"/>
       <c r="V56" s="36"/>
       <c r="W56" s="35"/>
-      <c r="X56" s="37"/>
+      <c r="X56" s="35"/>
       <c r="Y56" s="38">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -14215,7 +14163,7 @@
       <c r="U57" s="36"/>
       <c r="V57" s="36"/>
       <c r="W57" s="35"/>
-      <c r="X57" s="37"/>
+      <c r="X57" s="35"/>
       <c r="Y57" s="38">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -14250,7 +14198,7 @@
       <c r="U58" s="36"/>
       <c r="V58" s="36"/>
       <c r="W58" s="35"/>
-      <c r="X58" s="37"/>
+      <c r="X58" s="35"/>
       <c r="Y58" s="38"/>
       <c r="AA58" s="45"/>
       <c r="AB58" s="46"/>
@@ -14260,29 +14208,29 @@
       <c r="B59" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="C59" s="97"/>
-      <c r="D59" s="98"/>
-      <c r="E59" s="98"/>
-      <c r="F59" s="98"/>
-      <c r="G59" s="98"/>
-      <c r="H59" s="98"/>
-      <c r="I59" s="98"/>
-      <c r="J59" s="98"/>
-      <c r="K59" s="98"/>
-      <c r="L59" s="98"/>
-      <c r="M59" s="98"/>
-      <c r="N59" s="98"/>
-      <c r="O59" s="98"/>
-      <c r="P59" s="98"/>
-      <c r="Q59" s="98"/>
-      <c r="R59" s="98"/>
-      <c r="S59" s="98"/>
-      <c r="T59" s="98"/>
-      <c r="U59" s="98"/>
-      <c r="V59" s="98"/>
-      <c r="W59" s="98"/>
-      <c r="X59" s="98"/>
-      <c r="Y59" s="99"/>
+      <c r="C59" s="98"/>
+      <c r="D59" s="54"/>
+      <c r="E59" s="54"/>
+      <c r="F59" s="54"/>
+      <c r="G59" s="54"/>
+      <c r="H59" s="54"/>
+      <c r="I59" s="54"/>
+      <c r="J59" s="54"/>
+      <c r="K59" s="54"/>
+      <c r="L59" s="54"/>
+      <c r="M59" s="54"/>
+      <c r="N59" s="54"/>
+      <c r="O59" s="54"/>
+      <c r="P59" s="54"/>
+      <c r="Q59" s="54"/>
+      <c r="R59" s="54"/>
+      <c r="S59" s="54"/>
+      <c r="T59" s="54"/>
+      <c r="U59" s="54"/>
+      <c r="V59" s="54"/>
+      <c r="W59" s="54"/>
+      <c r="X59" s="54"/>
+      <c r="Y59" s="55"/>
       <c r="Z59" s="56"/>
       <c r="AA59" s="57"/>
       <c r="AB59" s="46"/>
@@ -14320,7 +14268,7 @@
         <v>1</v>
       </c>
       <c r="W60" s="35"/>
-      <c r="X60" s="37"/>
+      <c r="X60" s="35"/>
       <c r="Y60" s="38">
         <f t="shared" ref="Y60:Y82" si="2">SUM(C60:W60)</f>
         <v>2</v>
@@ -14361,7 +14309,7 @@
         <v>1</v>
       </c>
       <c r="W61" s="35"/>
-      <c r="X61" s="37"/>
+      <c r="X61" s="35"/>
       <c r="Y61" s="38">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -14402,7 +14350,7 @@
       <c r="W62" s="35">
         <v>1</v>
       </c>
-      <c r="X62" s="37"/>
+      <c r="X62" s="35"/>
       <c r="Y62" s="38">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -14443,7 +14391,7 @@
       <c r="W63" s="35">
         <v>1</v>
       </c>
-      <c r="X63" s="37"/>
+      <c r="X63" s="35"/>
       <c r="Y63" s="38">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -14478,16 +14426,18 @@
       <c r="Q64" s="36"/>
       <c r="R64" s="35"/>
       <c r="S64" s="36"/>
-      <c r="T64" s="36"/>
+      <c r="T64" s="36">
+        <v>1</v>
+      </c>
       <c r="U64" s="36"/>
       <c r="V64" s="36">
         <v>1</v>
       </c>
       <c r="W64" s="35"/>
-      <c r="X64" s="37"/>
+      <c r="X64" s="35"/>
       <c r="Y64" s="38">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA64" s="39"/>
       <c r="AB64" s="31"/>
@@ -14523,7 +14473,7 @@
       <c r="U65" s="36"/>
       <c r="V65" s="36"/>
       <c r="W65" s="35"/>
-      <c r="X65" s="37"/>
+      <c r="X65" s="35"/>
       <c r="Y65" s="38">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -14562,7 +14512,7 @@
       <c r="U66" s="36"/>
       <c r="V66" s="36"/>
       <c r="W66" s="35"/>
-      <c r="X66" s="37"/>
+      <c r="X66" s="35"/>
       <c r="Y66" s="38">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -14601,7 +14551,7 @@
       </c>
       <c r="V67" s="36"/>
       <c r="W67" s="35"/>
-      <c r="X67" s="37"/>
+      <c r="X67" s="35"/>
       <c r="Y67" s="38">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -14640,7 +14590,7 @@
       <c r="U68" s="36"/>
       <c r="V68" s="36"/>
       <c r="W68" s="35"/>
-      <c r="X68" s="37"/>
+      <c r="X68" s="35"/>
       <c r="Y68" s="38">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -14679,7 +14629,7 @@
       <c r="U69" s="36"/>
       <c r="V69" s="36"/>
       <c r="W69" s="35"/>
-      <c r="X69" s="37"/>
+      <c r="X69" s="35"/>
       <c r="Y69" s="38">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -14718,7 +14668,7 @@
       <c r="U70" s="36"/>
       <c r="V70" s="36"/>
       <c r="W70" s="35"/>
-      <c r="X70" s="37"/>
+      <c r="X70" s="35"/>
       <c r="Y70" s="38">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -14757,7 +14707,7 @@
       <c r="U71" s="36"/>
       <c r="V71" s="36"/>
       <c r="W71" s="35"/>
-      <c r="X71" s="37"/>
+      <c r="X71" s="35"/>
       <c r="Y71" s="38">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -14798,7 +14748,7 @@
       </c>
       <c r="V72" s="36"/>
       <c r="W72" s="35"/>
-      <c r="X72" s="37"/>
+      <c r="X72" s="35"/>
       <c r="Y72" s="38">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -14839,7 +14789,7 @@
       <c r="W73" s="35">
         <v>1</v>
       </c>
-      <c r="X73" s="37"/>
+      <c r="X73" s="35"/>
       <c r="Y73" s="38">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -14878,7 +14828,7 @@
       <c r="U74" s="36"/>
       <c r="V74" s="36"/>
       <c r="W74" s="35"/>
-      <c r="X74" s="37"/>
+      <c r="X74" s="35"/>
       <c r="Y74" s="38">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -14917,7 +14867,7 @@
       <c r="U75" s="36"/>
       <c r="V75" s="36"/>
       <c r="W75" s="35"/>
-      <c r="X75" s="37"/>
+      <c r="X75" s="35"/>
       <c r="Y75" s="38">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -14956,7 +14906,7 @@
       <c r="U76" s="36"/>
       <c r="V76" s="36"/>
       <c r="W76" s="35"/>
-      <c r="X76" s="37"/>
+      <c r="X76" s="35"/>
       <c r="Y76" s="38">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -14997,7 +14947,7 @@
       </c>
       <c r="V77" s="36"/>
       <c r="W77" s="35"/>
-      <c r="X77" s="37"/>
+      <c r="X77" s="35"/>
       <c r="Y77" s="38">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -15036,7 +14986,7 @@
       <c r="U78" s="36"/>
       <c r="V78" s="36"/>
       <c r="W78" s="35"/>
-      <c r="X78" s="37"/>
+      <c r="X78" s="35"/>
       <c r="Y78" s="38">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -15075,7 +15025,7 @@
       <c r="U79" s="36"/>
       <c r="V79" s="36"/>
       <c r="W79" s="35"/>
-      <c r="X79" s="37"/>
+      <c r="X79" s="35"/>
       <c r="Y79" s="38">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -15114,7 +15064,7 @@
       <c r="U80" s="36"/>
       <c r="V80" s="36"/>
       <c r="W80" s="35"/>
-      <c r="X80" s="37"/>
+      <c r="X80" s="35"/>
       <c r="Y80" s="38">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -15153,7 +15103,7 @@
       <c r="U81" s="36"/>
       <c r="V81" s="36"/>
       <c r="W81" s="35"/>
-      <c r="X81" s="37"/>
+      <c r="X81" s="35"/>
       <c r="Y81" s="38">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -15194,7 +15144,7 @@
       <c r="W82" s="35">
         <v>1</v>
       </c>
-      <c r="X82" s="37"/>
+      <c r="X82" s="35"/>
       <c r="Y82" s="38">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -15229,7 +15179,7 @@
       <c r="U83" s="36"/>
       <c r="V83" s="36"/>
       <c r="W83" s="35"/>
-      <c r="X83" s="37"/>
+      <c r="X83" s="35"/>
       <c r="Y83" s="38"/>
       <c r="AA83" s="45"/>
       <c r="AB83" s="46"/>
@@ -15261,7 +15211,7 @@
       <c r="U84" s="36"/>
       <c r="V84" s="36"/>
       <c r="W84" s="35"/>
-      <c r="X84" s="37"/>
+      <c r="X84" s="35"/>
       <c r="Y84" s="38"/>
       <c r="AA84" s="39"/>
       <c r="AB84" s="46"/>
@@ -15271,29 +15221,29 @@
       <c r="B85" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C85" s="97"/>
-      <c r="D85" s="98"/>
-      <c r="E85" s="98"/>
-      <c r="F85" s="98"/>
-      <c r="G85" s="98"/>
-      <c r="H85" s="98"/>
-      <c r="I85" s="98"/>
-      <c r="J85" s="98"/>
-      <c r="K85" s="98"/>
-      <c r="L85" s="98"/>
-      <c r="M85" s="98"/>
-      <c r="N85" s="98"/>
-      <c r="O85" s="98"/>
-      <c r="P85" s="98"/>
-      <c r="Q85" s="98"/>
-      <c r="R85" s="98"/>
-      <c r="S85" s="98"/>
-      <c r="T85" s="98"/>
-      <c r="U85" s="98"/>
-      <c r="V85" s="98"/>
-      <c r="W85" s="98"/>
-      <c r="X85" s="98"/>
-      <c r="Y85" s="99"/>
+      <c r="C85" s="98"/>
+      <c r="D85" s="54"/>
+      <c r="E85" s="54"/>
+      <c r="F85" s="54"/>
+      <c r="G85" s="54"/>
+      <c r="H85" s="54"/>
+      <c r="I85" s="54"/>
+      <c r="J85" s="54"/>
+      <c r="K85" s="54"/>
+      <c r="L85" s="54"/>
+      <c r="M85" s="54"/>
+      <c r="N85" s="54"/>
+      <c r="O85" s="54"/>
+      <c r="P85" s="54"/>
+      <c r="Q85" s="54"/>
+      <c r="R85" s="54"/>
+      <c r="S85" s="54"/>
+      <c r="T85" s="54"/>
+      <c r="U85" s="54"/>
+      <c r="V85" s="54"/>
+      <c r="W85" s="54"/>
+      <c r="X85" s="35"/>
+      <c r="Y85" s="55"/>
       <c r="Z85" s="56"/>
       <c r="AA85" s="57"/>
       <c r="AB85" s="46"/>
@@ -15333,7 +15283,7 @@
       <c r="U86" s="36"/>
       <c r="V86" s="36"/>
       <c r="W86" s="35"/>
-      <c r="X86" s="37"/>
+      <c r="X86" s="35"/>
       <c r="Y86" s="38">
         <f t="shared" ref="Y86:Y105" si="3">SUM(C86:W86)</f>
         <v>3</v>
@@ -15376,7 +15326,7 @@
       <c r="U87" s="36"/>
       <c r="V87" s="36"/>
       <c r="W87" s="35"/>
-      <c r="X87" s="37"/>
+      <c r="X87" s="35"/>
       <c r="Y87" s="38">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -15419,7 +15369,7 @@
       <c r="U88" s="36"/>
       <c r="V88" s="36"/>
       <c r="W88" s="35"/>
-      <c r="X88" s="37"/>
+      <c r="X88" s="35"/>
       <c r="Y88" s="38">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -15464,7 +15414,7 @@
       <c r="W89" s="35">
         <v>1</v>
       </c>
-      <c r="X89" s="37"/>
+      <c r="X89" s="35"/>
       <c r="Y89" s="38">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -15507,7 +15457,7 @@
       <c r="U90" s="36"/>
       <c r="V90" s="36"/>
       <c r="W90" s="35"/>
-      <c r="X90" s="37"/>
+      <c r="X90" s="35"/>
       <c r="Y90" s="38">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -15550,7 +15500,7 @@
       <c r="U91" s="36"/>
       <c r="V91" s="36"/>
       <c r="W91" s="35"/>
-      <c r="X91" s="37"/>
+      <c r="X91" s="35"/>
       <c r="Y91" s="38">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -15595,7 +15545,7 @@
       <c r="W92" s="35">
         <v>1</v>
       </c>
-      <c r="X92" s="37"/>
+      <c r="X92" s="35"/>
       <c r="Y92" s="38">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -15640,7 +15590,7 @@
         <v>1</v>
       </c>
       <c r="W93" s="35"/>
-      <c r="X93" s="37"/>
+      <c r="X93" s="35"/>
       <c r="Y93" s="38">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -15685,7 +15635,7 @@
       <c r="W94" s="35">
         <v>1</v>
       </c>
-      <c r="X94" s="37"/>
+      <c r="X94" s="35"/>
       <c r="Y94" s="38">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -15730,7 +15680,7 @@
         <v>1</v>
       </c>
       <c r="W95" s="35"/>
-      <c r="X95" s="37"/>
+      <c r="X95" s="35"/>
       <c r="Y95" s="38">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -15771,7 +15721,7 @@
         <v>1</v>
       </c>
       <c r="W96" s="35"/>
-      <c r="X96" s="37"/>
+      <c r="X96" s="35"/>
       <c r="Y96" s="38">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -15816,7 +15766,7 @@
       <c r="W97" s="35">
         <v>1</v>
       </c>
-      <c r="X97" s="37"/>
+      <c r="X97" s="35"/>
       <c r="Y97" s="38">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -15861,7 +15811,7 @@
       <c r="W98" s="35">
         <v>1</v>
       </c>
-      <c r="X98" s="37"/>
+      <c r="X98" s="35"/>
       <c r="Y98" s="38">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -15904,7 +15854,7 @@
         <v>1</v>
       </c>
       <c r="W99" s="35"/>
-      <c r="X99" s="37"/>
+      <c r="X99" s="35"/>
       <c r="Y99" s="38">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -15949,7 +15899,7 @@
       <c r="W100" s="35">
         <v>1</v>
       </c>
-      <c r="X100" s="37"/>
+      <c r="X100" s="35"/>
       <c r="Y100" s="38">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -15994,7 +15944,7 @@
       <c r="W101" s="35">
         <v>1</v>
       </c>
-      <c r="X101" s="37"/>
+      <c r="X101" s="35"/>
       <c r="Y101" s="38">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -16035,7 +15985,7 @@
       <c r="U102" s="36"/>
       <c r="V102" s="36"/>
       <c r="W102" s="35"/>
-      <c r="X102" s="37"/>
+      <c r="X102" s="35"/>
       <c r="Y102" s="38">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -16078,7 +16028,7 @@
         <v>1</v>
       </c>
       <c r="W103" s="35"/>
-      <c r="X103" s="37"/>
+      <c r="X103" s="35"/>
       <c r="Y103" s="38">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -16123,7 +16073,7 @@
       <c r="W104" s="35">
         <v>1</v>
       </c>
-      <c r="X104" s="37"/>
+      <c r="X104" s="35"/>
       <c r="Y104" s="38">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -16168,7 +16118,7 @@
       <c r="W105" s="35">
         <v>1</v>
       </c>
-      <c r="X105" s="37"/>
+      <c r="X105" s="35"/>
       <c r="Y105" s="38">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -16203,7 +16153,7 @@
       <c r="U106" s="36"/>
       <c r="V106" s="36"/>
       <c r="W106" s="35"/>
-      <c r="X106" s="37"/>
+      <c r="X106" s="35"/>
       <c r="Y106" s="38"/>
       <c r="AA106" s="45"/>
       <c r="AB106" s="69"/>
@@ -16235,7 +16185,7 @@
       <c r="U107" s="36"/>
       <c r="V107" s="36"/>
       <c r="W107" s="35"/>
-      <c r="X107" s="37"/>
+      <c r="X107" s="35"/>
       <c r="Y107" s="38"/>
       <c r="AA107" s="39"/>
       <c r="AB107" s="4"/>
@@ -16267,7 +16217,7 @@
       <c r="U108" s="36"/>
       <c r="V108" s="36"/>
       <c r="W108" s="35"/>
-      <c r="X108" s="37"/>
+      <c r="X108" s="35"/>
       <c r="Y108" s="38"/>
       <c r="AA108" s="57"/>
       <c r="AB108" s="4"/>
@@ -16299,7 +16249,7 @@
       <c r="U109" s="36"/>
       <c r="V109" s="36"/>
       <c r="W109" s="35"/>
-      <c r="X109" s="37"/>
+      <c r="X109" s="35"/>
       <c r="Y109" s="38"/>
       <c r="AB109" s="4"/>
       <c r="AC109" s="13"/>
@@ -16330,7 +16280,7 @@
       <c r="U110" s="36"/>
       <c r="V110" s="36"/>
       <c r="W110" s="35"/>
-      <c r="X110" s="37"/>
+      <c r="X110" s="35"/>
       <c r="Y110" s="38"/>
       <c r="AB110" s="4"/>
       <c r="AC110" s="13"/>
@@ -16362,7 +16312,7 @@
       <c r="X111" s="74"/>
       <c r="Y111" s="75">
         <f>SUM(Y8:Y105)</f>
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AB111" s="4"/>
       <c r="AC111" s="13"/>
@@ -16426,45 +16376,13 @@
       <c r="AC113" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C85:Y85"/>
+  <mergeCells count="5">
     <mergeCell ref="C1:W2"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="C3:W4"/>
     <mergeCell ref="X3:X4"/>
     <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="C59:Y59"/>
   </mergeCells>
-  <conditionalFormatting sqref="X28">
-    <cfRule type="cellIs" dxfId="19" priority="10" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X8:X30">
-    <cfRule type="cellIs" dxfId="18" priority="9" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X34:X56">
-    <cfRule type="cellIs" dxfId="17" priority="8" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X60:X82">
-    <cfRule type="cellIs" dxfId="16" priority="7" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X86:X108">
-    <cfRule type="cellIs" dxfId="15" priority="6" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X57">
-    <cfRule type="cellIs" dxfId="14" priority="5" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AA28">
     <cfRule type="cellIs" dxfId="13" priority="4" operator="lessThan">
       <formula>15</formula>
@@ -16493,8 +16411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23C0891A-3B2C-4994-B969-41DEA6D7CD0B}">
   <dimension ref="A1:AC113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="AB6" sqref="AB6"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="S64" sqref="S64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16503,27 +16421,27 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="100"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
-      <c r="U1" s="101"/>
-      <c r="V1" s="101"/>
-      <c r="W1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
+      <c r="U1" s="103"/>
+      <c r="V1" s="103"/>
+      <c r="W1" s="104"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="3"/>
       <c r="AB1" s="4"/>
@@ -16533,27 +16451,27 @@
       <c r="B2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="104"/>
-      <c r="P2" s="104"/>
-      <c r="Q2" s="104"/>
-      <c r="R2" s="104"/>
-      <c r="S2" s="104"/>
-      <c r="T2" s="104"/>
-      <c r="U2" s="104"/>
-      <c r="V2" s="104"/>
-      <c r="W2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="106"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="106"/>
+      <c r="Q2" s="106"/>
+      <c r="R2" s="106"/>
+      <c r="S2" s="106"/>
+      <c r="T2" s="106"/>
+      <c r="U2" s="106"/>
+      <c r="V2" s="106"/>
+      <c r="W2" s="107"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="3" t="s">
         <v>1</v>
@@ -16562,34 +16480,34 @@
       <c r="AC2" s="5"/>
     </row>
     <row r="3" spans="1:29" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="108" t="s">
+      <c r="C3" s="110" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109"/>
-      <c r="N3" s="109"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="109"/>
-      <c r="Q3" s="109"/>
-      <c r="R3" s="109"/>
-      <c r="S3" s="109"/>
-      <c r="T3" s="109"/>
-      <c r="U3" s="109"/>
-      <c r="V3" s="109"/>
-      <c r="W3" s="110"/>
-      <c r="X3" s="114"/>
-      <c r="Y3" s="116" t="s">
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="111"/>
+      <c r="O3" s="111"/>
+      <c r="P3" s="111"/>
+      <c r="Q3" s="111"/>
+      <c r="R3" s="111"/>
+      <c r="S3" s="111"/>
+      <c r="T3" s="111"/>
+      <c r="U3" s="111"/>
+      <c r="V3" s="111"/>
+      <c r="W3" s="112"/>
+      <c r="X3" s="116"/>
+      <c r="Y3" s="118" t="s">
         <v>3</v>
       </c>
       <c r="AA3" t="s">
@@ -16599,30 +16517,30 @@
       <c r="AC3" s="5"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="B4" s="107"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
-      <c r="H4" s="112"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="112"/>
-      <c r="K4" s="112"/>
-      <c r="L4" s="112"/>
-      <c r="M4" s="112"/>
-      <c r="N4" s="112"/>
-      <c r="O4" s="112"/>
-      <c r="P4" s="112"/>
-      <c r="Q4" s="112"/>
-      <c r="R4" s="112"/>
-      <c r="S4" s="112"/>
-      <c r="T4" s="112"/>
-      <c r="U4" s="112"/>
-      <c r="V4" s="112"/>
-      <c r="W4" s="113"/>
-      <c r="X4" s="115"/>
-      <c r="Y4" s="117"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="114"/>
+      <c r="M4" s="114"/>
+      <c r="N4" s="114"/>
+      <c r="O4" s="114"/>
+      <c r="P4" s="114"/>
+      <c r="Q4" s="114"/>
+      <c r="R4" s="114"/>
+      <c r="S4" s="114"/>
+      <c r="T4" s="114"/>
+      <c r="U4" s="114"/>
+      <c r="V4" s="114"/>
+      <c r="W4" s="115"/>
+      <c r="X4" s="117"/>
+      <c r="Y4" s="119"/>
       <c r="AA4" t="s">
         <v>74</v>
       </c>
@@ -16630,69 +16548,69 @@
       <c r="AC4" s="8"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="B5" s="107"/>
+      <c r="B5" s="109"/>
       <c r="C5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="F5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="G5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="H5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="I5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="J5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="K5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="L5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="M5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="N5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="O5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="12" t="s">
+      <c r="P5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="R5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="S5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="T5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="U5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="O5" s="12" t="s">
+      <c r="V5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="P5" s="12" t="s">
+      <c r="W5" s="10" t="s">
         <v>8</v>
-      </c>
-      <c r="Q5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="R5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="S5" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="T5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="U5" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="V5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="W5" s="10" t="s">
-        <v>5</v>
       </c>
       <c r="X5" s="2"/>
       <c r="Y5" s="3"/>
@@ -16703,18 +16621,18 @@
       <c r="AC5" s="13"/>
     </row>
     <row r="6" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="107"/>
+      <c r="B6" s="109"/>
       <c r="C6" s="14">
         <v>1</v>
       </c>
       <c r="D6" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E6" s="15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F6" s="16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G6" s="16">
         <v>7</v>
@@ -16723,13 +16641,13 @@
         <v>8</v>
       </c>
       <c r="I6" s="16">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J6" s="16">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K6" s="16">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L6" s="15">
         <v>14</v>
@@ -16738,13 +16656,13 @@
         <v>15</v>
       </c>
       <c r="N6" s="18">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="O6" s="19">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="P6" s="19">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Q6" s="19">
         <v>21</v>
@@ -16753,13 +16671,13 @@
         <v>22</v>
       </c>
       <c r="S6" s="19">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="T6" s="19">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="U6" s="19">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="V6" s="19">
         <v>28</v>
@@ -18859,29 +18777,29 @@
       <c r="B59" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="C59" s="97"/>
-      <c r="D59" s="98"/>
-      <c r="E59" s="98"/>
-      <c r="F59" s="98"/>
-      <c r="G59" s="98"/>
-      <c r="H59" s="98"/>
-      <c r="I59" s="98"/>
-      <c r="J59" s="98"/>
-      <c r="K59" s="98"/>
-      <c r="L59" s="98"/>
-      <c r="M59" s="98"/>
-      <c r="N59" s="98"/>
-      <c r="O59" s="98"/>
-      <c r="P59" s="98"/>
-      <c r="Q59" s="98"/>
-      <c r="R59" s="98"/>
-      <c r="S59" s="98"/>
-      <c r="T59" s="98"/>
-      <c r="U59" s="98"/>
-      <c r="V59" s="98"/>
-      <c r="W59" s="98"/>
-      <c r="X59" s="98"/>
-      <c r="Y59" s="99"/>
+      <c r="C59" s="99"/>
+      <c r="D59" s="100"/>
+      <c r="E59" s="100"/>
+      <c r="F59" s="100"/>
+      <c r="G59" s="100"/>
+      <c r="H59" s="100"/>
+      <c r="I59" s="100"/>
+      <c r="J59" s="100"/>
+      <c r="K59" s="100"/>
+      <c r="L59" s="100"/>
+      <c r="M59" s="100"/>
+      <c r="N59" s="100"/>
+      <c r="O59" s="100"/>
+      <c r="P59" s="100"/>
+      <c r="Q59" s="100"/>
+      <c r="R59" s="100"/>
+      <c r="S59" s="100"/>
+      <c r="T59" s="100"/>
+      <c r="U59" s="100"/>
+      <c r="V59" s="100"/>
+      <c r="W59" s="100"/>
+      <c r="X59" s="100"/>
+      <c r="Y59" s="101"/>
       <c r="Z59" s="56"/>
       <c r="AA59" s="57"/>
       <c r="AB59" s="46"/>
@@ -19870,29 +19788,29 @@
       <c r="B85" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C85" s="97"/>
-      <c r="D85" s="98"/>
-      <c r="E85" s="98"/>
-      <c r="F85" s="98"/>
-      <c r="G85" s="98"/>
-      <c r="H85" s="98"/>
-      <c r="I85" s="98"/>
-      <c r="J85" s="98"/>
-      <c r="K85" s="98"/>
-      <c r="L85" s="98"/>
-      <c r="M85" s="98"/>
-      <c r="N85" s="98"/>
-      <c r="O85" s="98"/>
-      <c r="P85" s="98"/>
-      <c r="Q85" s="98"/>
-      <c r="R85" s="98"/>
-      <c r="S85" s="98"/>
-      <c r="T85" s="98"/>
-      <c r="U85" s="98"/>
-      <c r="V85" s="98"/>
-      <c r="W85" s="98"/>
-      <c r="X85" s="98"/>
-      <c r="Y85" s="99"/>
+      <c r="C85" s="99"/>
+      <c r="D85" s="100"/>
+      <c r="E85" s="100"/>
+      <c r="F85" s="100"/>
+      <c r="G85" s="100"/>
+      <c r="H85" s="100"/>
+      <c r="I85" s="100"/>
+      <c r="J85" s="100"/>
+      <c r="K85" s="100"/>
+      <c r="L85" s="100"/>
+      <c r="M85" s="100"/>
+      <c r="N85" s="100"/>
+      <c r="O85" s="100"/>
+      <c r="P85" s="100"/>
+      <c r="Q85" s="100"/>
+      <c r="R85" s="100"/>
+      <c r="S85" s="100"/>
+      <c r="T85" s="100"/>
+      <c r="U85" s="100"/>
+      <c r="V85" s="100"/>
+      <c r="W85" s="100"/>
+      <c r="X85" s="100"/>
+      <c r="Y85" s="101"/>
       <c r="Z85" s="56"/>
       <c r="AA85" s="57"/>
       <c r="AB85" s="46"/>

--- a/Worksheet_Processing/OnCall_Tallies_Example_edited.xlsx
+++ b/Worksheet_Processing/OnCall_Tallies_Example_edited.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="101">
   <si>
     <t>St. John Paul II C.S.S.</t>
   </si>
@@ -390,6 +390,12 @@
   <si>
     <t>April</t>
   </si>
+  <si>
+    <t>RAG</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
 </sst>
 </file>
 
@@ -596,7 +602,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -869,11 +875,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1119,6 +1149,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1876,9 +1915,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP176"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y116" sqref="Y116"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1904,27 +1943,27 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="100"/>
-      <c r="S1" s="100"/>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100"/>
-      <c r="W1" s="101"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
+      <c r="U1" s="103"/>
+      <c r="V1" s="103"/>
+      <c r="W1" s="104"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="3"/>
       <c r="AC1" s="5"/>
@@ -1943,27 +1982,27 @@
       <c r="B2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="102"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="103"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="103"/>
-      <c r="S2" s="103"/>
-      <c r="T2" s="103"/>
-      <c r="U2" s="103"/>
-      <c r="V2" s="103"/>
-      <c r="W2" s="104"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="106"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="106"/>
+      <c r="Q2" s="106"/>
+      <c r="R2" s="106"/>
+      <c r="S2" s="106"/>
+      <c r="T2" s="106"/>
+      <c r="U2" s="106"/>
+      <c r="V2" s="106"/>
+      <c r="W2" s="107"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="3" t="s">
         <v>1</v>
@@ -1981,34 +2020,34 @@
       <c r="AM2" s="6"/>
     </row>
     <row r="3" spans="1:39" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="105" t="s">
+      <c r="B3" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="107" t="s">
+      <c r="C3" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="108"/>
-      <c r="K3" s="108"/>
-      <c r="L3" s="108"/>
-      <c r="M3" s="108"/>
-      <c r="N3" s="108"/>
-      <c r="O3" s="108"/>
-      <c r="P3" s="108"/>
-      <c r="Q3" s="108"/>
-      <c r="R3" s="108"/>
-      <c r="S3" s="108"/>
-      <c r="T3" s="108"/>
-      <c r="U3" s="108"/>
-      <c r="V3" s="108"/>
-      <c r="W3" s="109"/>
-      <c r="X3" s="113"/>
-      <c r="Y3" s="115" t="s">
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="111"/>
+      <c r="O3" s="111"/>
+      <c r="P3" s="111"/>
+      <c r="Q3" s="111"/>
+      <c r="R3" s="111"/>
+      <c r="S3" s="111"/>
+      <c r="T3" s="111"/>
+      <c r="U3" s="111"/>
+      <c r="V3" s="111"/>
+      <c r="W3" s="112"/>
+      <c r="X3" s="116"/>
+      <c r="Y3" s="118" t="s">
         <v>3</v>
       </c>
       <c r="AA3" t="s">
@@ -2027,37 +2066,37 @@
       <c r="AM3" s="6"/>
     </row>
     <row r="4" spans="1:39" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="106"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="111"/>
-      <c r="L4" s="111"/>
-      <c r="M4" s="111"/>
-      <c r="N4" s="111"/>
-      <c r="O4" s="111"/>
-      <c r="P4" s="111"/>
-      <c r="Q4" s="111"/>
-      <c r="R4" s="111"/>
-      <c r="S4" s="111"/>
-      <c r="T4" s="111"/>
-      <c r="U4" s="111"/>
-      <c r="V4" s="111"/>
-      <c r="W4" s="112"/>
-      <c r="X4" s="114"/>
-      <c r="Y4" s="116"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="114"/>
+      <c r="M4" s="114"/>
+      <c r="N4" s="114"/>
+      <c r="O4" s="114"/>
+      <c r="P4" s="114"/>
+      <c r="Q4" s="114"/>
+      <c r="R4" s="114"/>
+      <c r="S4" s="114"/>
+      <c r="T4" s="114"/>
+      <c r="U4" s="114"/>
+      <c r="V4" s="114"/>
+      <c r="W4" s="115"/>
+      <c r="X4" s="117"/>
+      <c r="Y4" s="119"/>
       <c r="AA4" t="s">
         <v>74</v>
       </c>
       <c r="AC4" s="8"/>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="B5" s="106"/>
+      <c r="B5" s="109"/>
       <c r="C5" s="10" t="s">
         <v>4</v>
       </c>
@@ -2128,7 +2167,7 @@
       </c>
     </row>
     <row r="6" spans="1:39" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="106"/>
+      <c r="B6" s="109"/>
       <c r="C6" s="14">
         <v>1</v>
       </c>
@@ -2233,8 +2272,8 @@
       <c r="A8">
         <v>1</v>
       </c>
-      <c r="B8" s="34" t="s">
-        <v>16</v>
+      <c r="B8" s="101" t="s">
+        <v>37</v>
       </c>
       <c r="W8" s="35"/>
       <c r="Y8" s="38">
@@ -2250,8 +2289,8 @@
       <c r="A9">
         <v>2</v>
       </c>
-      <c r="B9" s="42" t="s">
-        <v>17</v>
+      <c r="B9" s="101" t="s">
+        <v>99</v>
       </c>
       <c r="W9" s="35"/>
       <c r="Y9" s="38">
@@ -2267,8 +2306,8 @@
       <c r="A10">
         <v>3</v>
       </c>
-      <c r="B10" s="42" t="s">
-        <v>18</v>
+      <c r="B10" s="101" t="s">
+        <v>59</v>
       </c>
       <c r="W10" s="35"/>
       <c r="Y10" s="38">
@@ -2284,8 +2323,8 @@
       <c r="A11">
         <v>4</v>
       </c>
-      <c r="B11" s="42" t="s">
-        <v>19</v>
+      <c r="B11" s="101" t="s">
+        <v>38</v>
       </c>
       <c r="W11" s="35"/>
       <c r="Y11" s="38">
@@ -2301,13 +2340,16 @@
       <c r="A12">
         <v>5</v>
       </c>
-      <c r="B12" s="42" t="s">
-        <v>20</v>
+      <c r="B12" s="101" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="35">
+        <v>1</v>
       </c>
       <c r="W12" s="35"/>
       <c r="Y12" s="38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA12" s="39"/>
       <c r="AB12" s="31"/>
@@ -2318,8 +2360,8 @@
       <c r="A13">
         <v>6</v>
       </c>
-      <c r="B13" s="42" t="s">
-        <v>21</v>
+      <c r="B13" s="101" t="s">
+        <v>100</v>
       </c>
       <c r="W13" s="35"/>
       <c r="Y13" s="38">
@@ -2335,8 +2377,8 @@
       <c r="A14">
         <v>7</v>
       </c>
-      <c r="B14" s="42" t="s">
-        <v>22</v>
+      <c r="B14" s="101" t="s">
+        <v>40</v>
       </c>
       <c r="W14" s="35"/>
       <c r="Y14" s="38">
@@ -2352,8 +2394,8 @@
       <c r="A15">
         <v>8</v>
       </c>
-      <c r="B15" s="42" t="s">
-        <v>23</v>
+      <c r="B15" s="101" t="s">
+        <v>16</v>
       </c>
       <c r="W15" s="35"/>
       <c r="Y15" s="38">
@@ -2369,9 +2411,7 @@
       <c r="A16">
         <v>9</v>
       </c>
-      <c r="B16" s="42" t="s">
-        <v>24</v>
-      </c>
+      <c r="B16" s="101"/>
       <c r="W16" s="35"/>
       <c r="Y16" s="38">
         <f t="shared" si="0"/>
@@ -2386,9 +2426,7 @@
       <c r="A17">
         <v>10</v>
       </c>
-      <c r="B17" s="42" t="s">
-        <v>25</v>
-      </c>
+      <c r="B17" s="42"/>
       <c r="W17" s="35"/>
       <c r="Y17" s="38">
         <f t="shared" si="0"/>
@@ -2403,9 +2441,7 @@
       <c r="A18">
         <v>11</v>
       </c>
-      <c r="B18" s="42" t="s">
-        <v>26</v>
-      </c>
+      <c r="B18" s="42"/>
       <c r="W18" s="35"/>
       <c r="Y18" s="38">
         <f t="shared" si="0"/>
@@ -2420,9 +2456,7 @@
       <c r="A19">
         <v>12</v>
       </c>
-      <c r="B19" s="42" t="s">
-        <v>27</v>
-      </c>
+      <c r="B19" s="42"/>
       <c r="W19" s="35"/>
       <c r="Y19" s="38">
         <f t="shared" si="0"/>
@@ -2437,9 +2471,7 @@
       <c r="A20">
         <v>13</v>
       </c>
-      <c r="B20" s="42" t="s">
-        <v>28</v>
-      </c>
+      <c r="B20" s="42"/>
       <c r="W20" s="35"/>
       <c r="Y20" s="38">
         <f t="shared" si="0"/>
@@ -2454,9 +2486,7 @@
       <c r="A21">
         <v>14</v>
       </c>
-      <c r="B21" s="42" t="s">
-        <v>29</v>
-      </c>
+      <c r="B21" s="42"/>
       <c r="W21" s="35"/>
       <c r="Y21" s="38">
         <f t="shared" si="0"/>
@@ -2471,9 +2501,7 @@
       <c r="A22">
         <v>15</v>
       </c>
-      <c r="B22" s="42" t="s">
-        <v>30</v>
-      </c>
+      <c r="B22" s="42"/>
       <c r="W22" s="35"/>
       <c r="Y22" s="38">
         <f t="shared" si="0"/>
@@ -2488,9 +2516,7 @@
       <c r="A23">
         <v>16</v>
       </c>
-      <c r="B23" s="42" t="s">
-        <v>31</v>
-      </c>
+      <c r="B23" s="42"/>
       <c r="W23" s="35"/>
       <c r="Y23" s="38">
         <f t="shared" si="0"/>
@@ -2505,9 +2531,7 @@
       <c r="A24">
         <v>17</v>
       </c>
-      <c r="B24" s="42" t="s">
-        <v>32</v>
-      </c>
+      <c r="B24" s="42"/>
       <c r="W24" s="35"/>
       <c r="Y24" s="38">
         <f t="shared" si="0"/>
@@ -2522,9 +2546,7 @@
       <c r="A25">
         <v>18</v>
       </c>
-      <c r="B25" s="42" t="s">
-        <v>33</v>
-      </c>
+      <c r="B25" s="42"/>
       <c r="W25" s="35"/>
       <c r="Y25" s="38">
         <f t="shared" si="0"/>
@@ -2539,9 +2561,7 @@
       <c r="A26">
         <v>19</v>
       </c>
-      <c r="B26" s="42" t="s">
-        <v>34</v>
-      </c>
+      <c r="B26" s="42"/>
       <c r="W26" s="35"/>
       <c r="Y26" s="38">
         <f t="shared" si="0"/>
@@ -2556,9 +2576,7 @@
       <c r="A27">
         <v>20</v>
       </c>
-      <c r="B27" s="42" t="s">
-        <v>35</v>
-      </c>
+      <c r="B27" s="42"/>
       <c r="W27" s="35"/>
       <c r="Y27" s="38">
         <f t="shared" si="0"/>
@@ -2657,13 +2675,16 @@
       <c r="A34">
         <v>1</v>
       </c>
-      <c r="B34" s="60" t="s">
-        <v>36</v>
+      <c r="B34" s="101" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="36">
+        <v>1</v>
       </c>
       <c r="W34" s="35"/>
       <c r="Y34" s="38">
         <f t="shared" ref="Y34:Y57" si="1">SUM(C34:W34)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA34" s="39"/>
       <c r="AB34" s="31"/>
@@ -2674,13 +2695,16 @@
       <c r="A35">
         <v>2</v>
       </c>
-      <c r="B35" s="42" t="s">
-        <v>37</v>
+      <c r="B35" s="101" t="s">
+        <v>99</v>
+      </c>
+      <c r="E35" s="36">
+        <v>1</v>
       </c>
       <c r="W35" s="35"/>
       <c r="Y35" s="38">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA35" s="39"/>
       <c r="AB35" s="31"/>
@@ -2691,8 +2715,8 @@
       <c r="A36">
         <v>3</v>
       </c>
-      <c r="B36" s="42" t="s">
-        <v>38</v>
+      <c r="B36" s="101" t="s">
+        <v>59</v>
       </c>
       <c r="W36" s="35"/>
       <c r="Y36" s="38">
@@ -2708,13 +2732,16 @@
       <c r="A37">
         <v>4</v>
       </c>
-      <c r="B37" s="42" t="s">
-        <v>39</v>
+      <c r="B37" s="101" t="s">
+        <v>38</v>
+      </c>
+      <c r="G37" s="36">
+        <v>1</v>
       </c>
       <c r="W37" s="35"/>
       <c r="Y37" s="38">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA37" s="39"/>
       <c r="AB37" s="31"/>
@@ -2725,13 +2752,16 @@
       <c r="A38">
         <v>5</v>
       </c>
-      <c r="B38" s="42" t="s">
-        <v>40</v>
+      <c r="B38" s="101" t="s">
+        <v>41</v>
+      </c>
+      <c r="F38" s="36">
+        <v>1</v>
       </c>
       <c r="W38" s="35"/>
       <c r="Y38" s="38">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA38" s="39"/>
       <c r="AB38" s="31"/>
@@ -2742,13 +2772,16 @@
       <c r="A39">
         <v>6</v>
       </c>
-      <c r="B39" s="42" t="s">
-        <v>41</v>
+      <c r="B39" s="101" t="s">
+        <v>100</v>
+      </c>
+      <c r="F39" s="36">
+        <v>1</v>
       </c>
       <c r="W39" s="35"/>
       <c r="Y39" s="38">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA39" s="39"/>
       <c r="AB39" s="31"/>
@@ -2759,13 +2792,16 @@
       <c r="A40">
         <v>7</v>
       </c>
-      <c r="B40" s="42" t="s">
-        <v>42</v>
+      <c r="B40" s="101" t="s">
+        <v>40</v>
+      </c>
+      <c r="F40" s="36">
+        <v>1</v>
       </c>
       <c r="W40" s="35"/>
       <c r="Y40" s="38">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA40" s="39"/>
       <c r="AB40" s="31"/>
@@ -2776,13 +2812,16 @@
       <c r="A41">
         <v>8</v>
       </c>
-      <c r="B41" s="42" t="s">
-        <v>43</v>
+      <c r="B41" s="101" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="36">
+        <v>1</v>
       </c>
       <c r="W41" s="35"/>
       <c r="Y41" s="38">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA41" s="39"/>
       <c r="AB41" s="31"/>
@@ -2793,9 +2832,7 @@
       <c r="A42">
         <v>9</v>
       </c>
-      <c r="B42" s="42" t="s">
-        <v>44</v>
-      </c>
+      <c r="B42" s="101"/>
       <c r="W42" s="35"/>
       <c r="Y42" s="38">
         <f t="shared" si="1"/>
@@ -2810,9 +2847,7 @@
       <c r="A43">
         <v>10</v>
       </c>
-      <c r="B43" s="42" t="s">
-        <v>45</v>
-      </c>
+      <c r="B43" s="42"/>
       <c r="W43" s="35"/>
       <c r="Y43" s="38">
         <f t="shared" si="1"/>
@@ -2827,9 +2862,7 @@
       <c r="A44">
         <v>11</v>
       </c>
-      <c r="B44" s="42" t="s">
-        <v>46</v>
-      </c>
+      <c r="B44" s="42"/>
       <c r="W44" s="35"/>
       <c r="Y44" s="38">
         <f t="shared" si="1"/>
@@ -2844,9 +2877,7 @@
       <c r="A45">
         <v>12</v>
       </c>
-      <c r="B45" s="42" t="s">
-        <v>47</v>
-      </c>
+      <c r="B45" s="42"/>
       <c r="W45" s="35"/>
       <c r="Y45" s="38">
         <f t="shared" si="1"/>
@@ -2861,9 +2892,7 @@
       <c r="A46">
         <v>13</v>
       </c>
-      <c r="B46" s="42" t="s">
-        <v>29</v>
-      </c>
+      <c r="B46" s="42"/>
       <c r="W46" s="35"/>
       <c r="Y46" s="38">
         <f t="shared" si="1"/>
@@ -2878,9 +2907,7 @@
       <c r="A47">
         <v>14</v>
       </c>
-      <c r="B47" s="42" t="s">
-        <v>48</v>
-      </c>
+      <c r="B47" s="42"/>
       <c r="W47" s="35"/>
       <c r="Y47" s="38">
         <f t="shared" si="1"/>
@@ -2895,9 +2922,7 @@
       <c r="A48">
         <v>15</v>
       </c>
-      <c r="B48" s="42" t="s">
-        <v>47</v>
-      </c>
+      <c r="B48" s="42"/>
       <c r="W48" s="35"/>
       <c r="Y48" s="38">
         <f t="shared" si="1"/>
@@ -2912,9 +2937,7 @@
       <c r="A49">
         <v>16</v>
       </c>
-      <c r="B49" s="60" t="s">
-        <v>49</v>
-      </c>
+      <c r="B49" s="60"/>
       <c r="W49" s="35"/>
       <c r="Y49" s="38">
         <f t="shared" si="1"/>
@@ -2929,9 +2952,7 @@
       <c r="A50">
         <v>17</v>
       </c>
-      <c r="B50" s="60" t="s">
-        <v>50</v>
-      </c>
+      <c r="B50" s="60"/>
       <c r="W50" s="35"/>
       <c r="Y50" s="38">
         <f t="shared" si="1"/>
@@ -2946,9 +2967,7 @@
       <c r="A51">
         <v>18</v>
       </c>
-      <c r="B51" s="60" t="s">
-        <v>51</v>
-      </c>
+      <c r="B51" s="60"/>
       <c r="W51" s="35"/>
       <c r="Y51" s="38">
         <f t="shared" si="1"/>
@@ -2963,9 +2982,7 @@
       <c r="A52">
         <v>19</v>
       </c>
-      <c r="B52" s="60" t="s">
-        <v>52</v>
-      </c>
+      <c r="B52" s="60"/>
       <c r="W52" s="35"/>
       <c r="Y52" s="38">
         <f t="shared" si="1"/>
@@ -2980,9 +2997,7 @@
       <c r="A53">
         <v>20</v>
       </c>
-      <c r="B53" s="60" t="s">
-        <v>53</v>
-      </c>
+      <c r="B53" s="60"/>
       <c r="W53" s="35"/>
       <c r="Y53" s="38">
         <f t="shared" si="1"/>
@@ -2997,9 +3012,7 @@
       <c r="A54">
         <v>21</v>
       </c>
-      <c r="B54" s="60" t="s">
-        <v>54</v>
-      </c>
+      <c r="B54" s="60"/>
       <c r="W54" s="35"/>
       <c r="Y54" s="38">
         <f t="shared" si="1"/>
@@ -3014,9 +3027,7 @@
       <c r="A55">
         <v>22</v>
       </c>
-      <c r="B55" s="60" t="s">
-        <v>55</v>
-      </c>
+      <c r="B55" s="60"/>
       <c r="W55" s="35"/>
       <c r="Y55" s="38">
         <f t="shared" si="1"/>
@@ -3031,9 +3042,7 @@
       <c r="A56">
         <v>23</v>
       </c>
-      <c r="B56" s="61" t="s">
-        <v>56</v>
-      </c>
+      <c r="B56" s="61"/>
       <c r="W56" s="35"/>
       <c r="Y56" s="38">
         <f t="shared" si="1"/>
@@ -3048,9 +3057,7 @@
       <c r="A57">
         <v>24</v>
       </c>
-      <c r="B57" s="34" t="s">
-        <v>57</v>
-      </c>
+      <c r="B57" s="34"/>
       <c r="W57" s="35"/>
       <c r="Y57" s="38">
         <f t="shared" si="1"/>
@@ -3109,8 +3116,8 @@
       <c r="A60">
         <v>1</v>
       </c>
-      <c r="B60" s="42" t="s">
-        <v>75</v>
+      <c r="B60" s="101" t="s">
+        <v>37</v>
       </c>
       <c r="W60" s="35"/>
       <c r="Y60" s="38">
@@ -3126,8 +3133,8 @@
       <c r="A61">
         <v>2</v>
       </c>
-      <c r="B61" s="42" t="s">
-        <v>76</v>
+      <c r="B61" s="101" t="s">
+        <v>99</v>
       </c>
       <c r="W61" s="35"/>
       <c r="Y61" s="38">
@@ -3143,8 +3150,8 @@
       <c r="A62">
         <v>3</v>
       </c>
-      <c r="B62" s="65" t="s">
-        <v>77</v>
+      <c r="B62" s="101" t="s">
+        <v>59</v>
       </c>
       <c r="W62" s="35"/>
       <c r="Y62" s="38">
@@ -3160,8 +3167,8 @@
       <c r="A63">
         <v>4</v>
       </c>
-      <c r="B63" s="60" t="s">
-        <v>78</v>
+      <c r="B63" s="101" t="s">
+        <v>38</v>
       </c>
       <c r="W63" s="35"/>
       <c r="Y63" s="38">
@@ -3177,8 +3184,8 @@
       <c r="A64">
         <v>5</v>
       </c>
-      <c r="B64" s="60" t="s">
-        <v>79</v>
+      <c r="B64" s="101" t="s">
+        <v>41</v>
       </c>
       <c r="W64" s="35"/>
       <c r="Y64" s="38">
@@ -3194,8 +3201,8 @@
       <c r="A65">
         <v>6</v>
       </c>
-      <c r="B65" s="60" t="s">
-        <v>80</v>
+      <c r="B65" s="101" t="s">
+        <v>100</v>
       </c>
       <c r="W65" s="35"/>
       <c r="Y65" s="38">
@@ -3211,8 +3218,8 @@
       <c r="A66">
         <v>7</v>
       </c>
-      <c r="B66" s="60" t="s">
-        <v>81</v>
+      <c r="B66" s="101" t="s">
+        <v>40</v>
       </c>
       <c r="W66" s="35"/>
       <c r="Y66" s="38">
@@ -3228,8 +3235,8 @@
       <c r="A67">
         <v>8</v>
       </c>
-      <c r="B67" s="60" t="s">
-        <v>82</v>
+      <c r="B67" s="101" t="s">
+        <v>16</v>
       </c>
       <c r="W67" s="35"/>
       <c r="Y67" s="38">
@@ -3245,9 +3252,7 @@
       <c r="A68">
         <v>9</v>
       </c>
-      <c r="B68" s="60" t="s">
-        <v>83</v>
-      </c>
+      <c r="B68" s="101"/>
       <c r="W68" s="35"/>
       <c r="Y68" s="38">
         <f t="shared" si="2"/>
@@ -3262,9 +3267,7 @@
       <c r="A69">
         <v>10</v>
       </c>
-      <c r="B69" s="42" t="s">
-        <v>84</v>
-      </c>
+      <c r="B69" s="42"/>
       <c r="W69" s="35"/>
       <c r="Y69" s="38">
         <f t="shared" si="2"/>
@@ -3279,9 +3282,7 @@
       <c r="A70">
         <v>11</v>
       </c>
-      <c r="B70" s="42" t="s">
-        <v>85</v>
-      </c>
+      <c r="B70" s="42"/>
       <c r="W70" s="35"/>
       <c r="Y70" s="38">
         <f t="shared" si="2"/>
@@ -3296,9 +3297,7 @@
       <c r="A71">
         <v>12</v>
       </c>
-      <c r="B71" s="42" t="s">
-        <v>86</v>
-      </c>
+      <c r="B71" s="42"/>
       <c r="W71" s="35"/>
       <c r="Y71" s="38">
         <f t="shared" si="2"/>
@@ -3313,9 +3312,7 @@
       <c r="A72">
         <v>13</v>
       </c>
-      <c r="B72" s="42" t="s">
-        <v>87</v>
-      </c>
+      <c r="B72" s="42"/>
       <c r="W72" s="35"/>
       <c r="Y72" s="38">
         <f t="shared" si="2"/>
@@ -3330,9 +3327,7 @@
       <c r="A73">
         <v>14</v>
       </c>
-      <c r="B73" s="42" t="s">
-        <v>88</v>
-      </c>
+      <c r="B73" s="42"/>
       <c r="W73" s="35"/>
       <c r="Y73" s="38">
         <f t="shared" si="2"/>
@@ -3347,9 +3342,7 @@
       <c r="A74">
         <v>15</v>
       </c>
-      <c r="B74" s="42" t="s">
-        <v>66</v>
-      </c>
+      <c r="B74" s="42"/>
       <c r="W74" s="35"/>
       <c r="Y74" s="38">
         <f t="shared" si="2"/>
@@ -3364,9 +3357,7 @@
       <c r="A75">
         <v>16</v>
       </c>
-      <c r="B75" s="42" t="s">
-        <v>89</v>
-      </c>
+      <c r="B75" s="42"/>
       <c r="W75" s="35"/>
       <c r="Y75" s="38">
         <f t="shared" si="2"/>
@@ -3381,9 +3372,7 @@
       <c r="A76">
         <v>17</v>
       </c>
-      <c r="B76" s="42" t="s">
-        <v>90</v>
-      </c>
+      <c r="B76" s="42"/>
       <c r="W76" s="35"/>
       <c r="Y76" s="38">
         <f t="shared" si="2"/>
@@ -3398,9 +3387,7 @@
       <c r="A77">
         <v>18</v>
       </c>
-      <c r="B77" s="42" t="s">
-        <v>89</v>
-      </c>
+      <c r="B77" s="42"/>
       <c r="W77" s="35"/>
       <c r="Y77" s="38">
         <f t="shared" si="2"/>
@@ -3415,9 +3402,7 @@
       <c r="A78">
         <v>19</v>
       </c>
-      <c r="B78" s="42" t="s">
-        <v>91</v>
-      </c>
+      <c r="B78" s="42"/>
       <c r="W78" s="35"/>
       <c r="Y78" s="38">
         <f t="shared" si="2"/>
@@ -3432,9 +3417,7 @@
       <c r="A79">
         <v>20</v>
       </c>
-      <c r="B79" s="42" t="s">
-        <v>92</v>
-      </c>
+      <c r="B79" s="42"/>
       <c r="W79" s="35"/>
       <c r="Y79" s="38">
         <f t="shared" si="2"/>
@@ -3449,9 +3432,7 @@
       <c r="A80">
         <v>21</v>
       </c>
-      <c r="B80" s="42" t="s">
-        <v>93</v>
-      </c>
+      <c r="B80" s="42"/>
       <c r="W80" s="35"/>
       <c r="Y80" s="38">
         <f t="shared" si="2"/>
@@ -3466,9 +3447,7 @@
       <c r="A81">
         <v>22</v>
       </c>
-      <c r="B81" s="42" t="s">
-        <v>94</v>
-      </c>
+      <c r="B81" s="42"/>
       <c r="W81" s="35"/>
       <c r="Y81" s="38">
         <f t="shared" si="2"/>
@@ -3483,9 +3462,7 @@
       <c r="A82">
         <v>23</v>
       </c>
-      <c r="B82" s="66" t="s">
-        <v>95</v>
-      </c>
+      <c r="B82" s="66"/>
       <c r="W82" s="35"/>
       <c r="Y82" s="38">
         <f t="shared" si="2"/>
@@ -3554,8 +3531,8 @@
       <c r="A86">
         <v>1</v>
       </c>
-      <c r="B86" s="60" t="s">
-        <v>58</v>
+      <c r="B86" s="101" t="s">
+        <v>37</v>
       </c>
       <c r="W86" s="35"/>
       <c r="Y86" s="38">
@@ -3571,8 +3548,8 @@
       <c r="A87">
         <v>2</v>
       </c>
-      <c r="B87" s="60" t="s">
-        <v>59</v>
+      <c r="B87" s="101" t="s">
+        <v>99</v>
       </c>
       <c r="W87" s="35"/>
       <c r="Y87" s="38">
@@ -3588,8 +3565,8 @@
       <c r="A88">
         <v>3</v>
       </c>
-      <c r="B88" s="60" t="s">
-        <v>60</v>
+      <c r="B88" s="101" t="s">
+        <v>59</v>
       </c>
       <c r="W88" s="35"/>
       <c r="Y88" s="38">
@@ -3605,8 +3582,8 @@
       <c r="A89">
         <v>4</v>
       </c>
-      <c r="B89" s="60" t="s">
-        <v>61</v>
+      <c r="B89" s="101" t="s">
+        <v>38</v>
       </c>
       <c r="W89" s="35"/>
       <c r="Y89" s="38">
@@ -3622,8 +3599,8 @@
       <c r="A90">
         <v>5</v>
       </c>
-      <c r="B90" s="60" t="s">
-        <v>62</v>
+      <c r="B90" s="101" t="s">
+        <v>41</v>
       </c>
       <c r="W90" s="35"/>
       <c r="Y90" s="38">
@@ -3639,8 +3616,8 @@
       <c r="A91">
         <v>6</v>
       </c>
-      <c r="B91" s="60" t="s">
-        <v>45</v>
+      <c r="B91" s="101" t="s">
+        <v>100</v>
       </c>
       <c r="W91" s="35"/>
       <c r="Y91" s="38">
@@ -3656,8 +3633,8 @@
       <c r="A92">
         <v>7</v>
       </c>
-      <c r="B92" s="60" t="s">
-        <v>63</v>
+      <c r="B92" s="101" t="s">
+        <v>40</v>
       </c>
       <c r="W92" s="35"/>
       <c r="Y92" s="38">
@@ -3673,8 +3650,8 @@
       <c r="A93">
         <v>8</v>
       </c>
-      <c r="B93" s="60" t="s">
-        <v>64</v>
+      <c r="B93" s="101" t="s">
+        <v>16</v>
       </c>
       <c r="W93" s="35"/>
       <c r="Y93" s="38">
@@ -3690,9 +3667,7 @@
       <c r="A94">
         <v>9</v>
       </c>
-      <c r="B94" s="60" t="s">
-        <v>27</v>
-      </c>
+      <c r="B94" s="101"/>
       <c r="W94" s="35"/>
       <c r="Y94" s="38">
         <f t="shared" si="3"/>
@@ -3707,9 +3682,7 @@
       <c r="A95">
         <v>10</v>
       </c>
-      <c r="B95" s="60" t="s">
-        <v>65</v>
-      </c>
+      <c r="B95" s="60"/>
       <c r="W95" s="35"/>
       <c r="Y95" s="38">
         <f t="shared" si="3"/>
@@ -3724,9 +3697,7 @@
       <c r="A96">
         <v>11</v>
       </c>
-      <c r="B96" s="60" t="s">
-        <v>29</v>
-      </c>
+      <c r="B96" s="60"/>
       <c r="W96" s="35"/>
       <c r="Y96" s="38">
         <f t="shared" si="3"/>
@@ -3741,9 +3712,7 @@
       <c r="A97">
         <v>12</v>
       </c>
-      <c r="B97" s="60" t="s">
-        <v>66</v>
-      </c>
+      <c r="B97" s="60"/>
       <c r="W97" s="35"/>
       <c r="Y97" s="38">
         <f t="shared" si="3"/>
@@ -3758,9 +3727,7 @@
       <c r="A98">
         <v>13</v>
       </c>
-      <c r="B98" s="60" t="s">
-        <v>67</v>
-      </c>
+      <c r="B98" s="60"/>
       <c r="W98" s="35"/>
       <c r="Y98" s="38">
         <f t="shared" si="3"/>
@@ -3775,9 +3742,7 @@
       <c r="A99">
         <v>14</v>
       </c>
-      <c r="B99" s="60" t="s">
-        <v>47</v>
-      </c>
+      <c r="B99" s="60"/>
       <c r="W99" s="35"/>
       <c r="Y99" s="38">
         <f t="shared" si="3"/>
@@ -3792,9 +3757,7 @@
       <c r="A100">
         <v>15</v>
       </c>
-      <c r="B100" s="60" t="s">
-        <v>68</v>
-      </c>
+      <c r="B100" s="60"/>
       <c r="W100" s="35"/>
       <c r="Y100" s="38">
         <f t="shared" si="3"/>
@@ -3809,9 +3772,7 @@
       <c r="A101">
         <v>16</v>
       </c>
-      <c r="B101" s="60" t="s">
-        <v>69</v>
-      </c>
+      <c r="B101" s="60"/>
       <c r="W101" s="35"/>
       <c r="Y101" s="38">
         <f t="shared" si="3"/>
@@ -3826,9 +3787,7 @@
       <c r="A102">
         <v>17</v>
       </c>
-      <c r="B102" s="60" t="s">
-        <v>70</v>
-      </c>
+      <c r="B102" s="60"/>
       <c r="W102" s="35"/>
       <c r="Y102" s="38">
         <f t="shared" si="3"/>
@@ -3843,9 +3802,7 @@
       <c r="A103">
         <v>18</v>
       </c>
-      <c r="B103" s="60" t="s">
-        <v>71</v>
-      </c>
+      <c r="B103" s="60"/>
       <c r="W103" s="35"/>
       <c r="Y103" s="38">
         <f t="shared" si="3"/>
@@ -3860,9 +3817,7 @@
       <c r="A104">
         <v>19</v>
       </c>
-      <c r="B104" s="60" t="s">
-        <v>52</v>
-      </c>
+      <c r="B104" s="60"/>
       <c r="W104" s="35"/>
       <c r="Y104" s="38">
         <f t="shared" si="3"/>
@@ -3877,9 +3832,7 @@
       <c r="A105">
         <v>20</v>
       </c>
-      <c r="B105" s="60" t="s">
-        <v>72</v>
-      </c>
+      <c r="B105" s="60"/>
       <c r="W105" s="35"/>
       <c r="Y105" s="38">
         <f t="shared" si="3"/>
@@ -3961,7 +3914,7 @@
       <c r="X111" s="74"/>
       <c r="Y111" s="75">
         <f>SUM(Y8:Y105)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="112" spans="1:30" x14ac:dyDescent="0.2">
@@ -6672,27 +6625,27 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="100"/>
-      <c r="S1" s="100"/>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100"/>
-      <c r="W1" s="101"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
+      <c r="U1" s="103"/>
+      <c r="V1" s="103"/>
+      <c r="W1" s="104"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="3"/>
       <c r="AB1" s="4"/>
@@ -6702,27 +6655,27 @@
       <c r="B2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="102"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="103"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="103"/>
-      <c r="S2" s="103"/>
-      <c r="T2" s="103"/>
-      <c r="U2" s="103"/>
-      <c r="V2" s="103"/>
-      <c r="W2" s="104"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="106"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="106"/>
+      <c r="Q2" s="106"/>
+      <c r="R2" s="106"/>
+      <c r="S2" s="106"/>
+      <c r="T2" s="106"/>
+      <c r="U2" s="106"/>
+      <c r="V2" s="106"/>
+      <c r="W2" s="107"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="3" t="s">
         <v>1</v>
@@ -6731,34 +6684,34 @@
       <c r="AC2" s="5"/>
     </row>
     <row r="3" spans="1:29" ht="24" x14ac:dyDescent="0.2">
-      <c r="B3" s="105" t="s">
+      <c r="B3" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="107" t="s">
+      <c r="C3" s="110" t="s">
         <v>96</v>
       </c>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="108"/>
-      <c r="K3" s="108"/>
-      <c r="L3" s="108"/>
-      <c r="M3" s="108"/>
-      <c r="N3" s="108"/>
-      <c r="O3" s="108"/>
-      <c r="P3" s="108"/>
-      <c r="Q3" s="108"/>
-      <c r="R3" s="108"/>
-      <c r="S3" s="108"/>
-      <c r="T3" s="108"/>
-      <c r="U3" s="108"/>
-      <c r="V3" s="108"/>
-      <c r="W3" s="109"/>
-      <c r="X3" s="113"/>
-      <c r="Y3" s="115" t="s">
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="111"/>
+      <c r="O3" s="111"/>
+      <c r="P3" s="111"/>
+      <c r="Q3" s="111"/>
+      <c r="R3" s="111"/>
+      <c r="S3" s="111"/>
+      <c r="T3" s="111"/>
+      <c r="U3" s="111"/>
+      <c r="V3" s="111"/>
+      <c r="W3" s="112"/>
+      <c r="X3" s="116"/>
+      <c r="Y3" s="118" t="s">
         <v>3</v>
       </c>
       <c r="AA3" t="s">
@@ -6768,30 +6721,30 @@
       <c r="AC3" s="5"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B4" s="106"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="111"/>
-      <c r="L4" s="111"/>
-      <c r="M4" s="111"/>
-      <c r="N4" s="111"/>
-      <c r="O4" s="111"/>
-      <c r="P4" s="111"/>
-      <c r="Q4" s="111"/>
-      <c r="R4" s="111"/>
-      <c r="S4" s="111"/>
-      <c r="T4" s="111"/>
-      <c r="U4" s="111"/>
-      <c r="V4" s="111"/>
-      <c r="W4" s="112"/>
-      <c r="X4" s="114"/>
-      <c r="Y4" s="116"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="114"/>
+      <c r="M4" s="114"/>
+      <c r="N4" s="114"/>
+      <c r="O4" s="114"/>
+      <c r="P4" s="114"/>
+      <c r="Q4" s="114"/>
+      <c r="R4" s="114"/>
+      <c r="S4" s="114"/>
+      <c r="T4" s="114"/>
+      <c r="U4" s="114"/>
+      <c r="V4" s="114"/>
+      <c r="W4" s="115"/>
+      <c r="X4" s="117"/>
+      <c r="Y4" s="119"/>
       <c r="AA4" t="s">
         <v>74</v>
       </c>
@@ -6799,7 +6752,7 @@
       <c r="AC4" s="8"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B5" s="106"/>
+      <c r="B5" s="109"/>
       <c r="C5" s="10" t="s">
         <v>5</v>
       </c>
@@ -6872,7 +6825,7 @@
       <c r="AC5" s="13"/>
     </row>
     <row r="6" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="106"/>
+      <c r="B6" s="109"/>
       <c r="C6" s="14">
         <v>1</v>
       </c>
@@ -10865,27 +10818,27 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="100"/>
-      <c r="S1" s="100"/>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100"/>
-      <c r="W1" s="101"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
+      <c r="U1" s="103"/>
+      <c r="V1" s="103"/>
+      <c r="W1" s="104"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="3"/>
       <c r="AB1" s="4"/>
@@ -10895,27 +10848,27 @@
       <c r="B2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="102"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="103"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="103"/>
-      <c r="S2" s="103"/>
-      <c r="T2" s="103"/>
-      <c r="U2" s="103"/>
-      <c r="V2" s="103"/>
-      <c r="W2" s="104"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="106"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="106"/>
+      <c r="Q2" s="106"/>
+      <c r="R2" s="106"/>
+      <c r="S2" s="106"/>
+      <c r="T2" s="106"/>
+      <c r="U2" s="106"/>
+      <c r="V2" s="106"/>
+      <c r="W2" s="107"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="3" t="s">
         <v>1</v>
@@ -10924,34 +10877,34 @@
       <c r="AC2" s="5"/>
     </row>
     <row r="3" spans="1:29" ht="24" x14ac:dyDescent="0.2">
-      <c r="B3" s="105" t="s">
+      <c r="B3" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="107" t="s">
+      <c r="C3" s="110" t="s">
         <v>97</v>
       </c>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="108"/>
-      <c r="K3" s="108"/>
-      <c r="L3" s="108"/>
-      <c r="M3" s="108"/>
-      <c r="N3" s="108"/>
-      <c r="O3" s="108"/>
-      <c r="P3" s="108"/>
-      <c r="Q3" s="108"/>
-      <c r="R3" s="108"/>
-      <c r="S3" s="108"/>
-      <c r="T3" s="108"/>
-      <c r="U3" s="108"/>
-      <c r="V3" s="108"/>
-      <c r="W3" s="109"/>
-      <c r="X3" s="113"/>
-      <c r="Y3" s="115" t="s">
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="111"/>
+      <c r="O3" s="111"/>
+      <c r="P3" s="111"/>
+      <c r="Q3" s="111"/>
+      <c r="R3" s="111"/>
+      <c r="S3" s="111"/>
+      <c r="T3" s="111"/>
+      <c r="U3" s="111"/>
+      <c r="V3" s="111"/>
+      <c r="W3" s="112"/>
+      <c r="X3" s="116"/>
+      <c r="Y3" s="118" t="s">
         <v>3</v>
       </c>
       <c r="AA3" t="s">
@@ -10961,30 +10914,30 @@
       <c r="AC3" s="5"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B4" s="106"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="111"/>
-      <c r="L4" s="111"/>
-      <c r="M4" s="111"/>
-      <c r="N4" s="111"/>
-      <c r="O4" s="111"/>
-      <c r="P4" s="111"/>
-      <c r="Q4" s="111"/>
-      <c r="R4" s="111"/>
-      <c r="S4" s="111"/>
-      <c r="T4" s="111"/>
-      <c r="U4" s="111"/>
-      <c r="V4" s="111"/>
-      <c r="W4" s="112"/>
-      <c r="X4" s="114"/>
-      <c r="Y4" s="116"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="114"/>
+      <c r="M4" s="114"/>
+      <c r="N4" s="114"/>
+      <c r="O4" s="114"/>
+      <c r="P4" s="114"/>
+      <c r="Q4" s="114"/>
+      <c r="R4" s="114"/>
+      <c r="S4" s="114"/>
+      <c r="T4" s="114"/>
+      <c r="U4" s="114"/>
+      <c r="V4" s="114"/>
+      <c r="W4" s="115"/>
+      <c r="X4" s="117"/>
+      <c r="Y4" s="119"/>
       <c r="AA4" t="s">
         <v>74</v>
       </c>
@@ -10992,7 +10945,7 @@
       <c r="AC4" s="8"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B5" s="106"/>
+      <c r="B5" s="109"/>
       <c r="C5" s="11" t="s">
         <v>6</v>
       </c>
@@ -11067,7 +11020,7 @@
       <c r="AC5" s="13"/>
     </row>
     <row r="6" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="106"/>
+      <c r="B6" s="109"/>
       <c r="C6" s="14">
         <v>1</v>
       </c>
@@ -15022,8 +14975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:W117"/>
+    <sheetView topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95:B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15032,27 +14985,27 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="100"/>
-      <c r="S1" s="100"/>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100"/>
-      <c r="W1" s="101"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
+      <c r="U1" s="103"/>
+      <c r="V1" s="103"/>
+      <c r="W1" s="104"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="3"/>
       <c r="AB1" s="4"/>
@@ -15062,27 +15015,27 @@
       <c r="B2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="102"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="103"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="103"/>
-      <c r="S2" s="103"/>
-      <c r="T2" s="103"/>
-      <c r="U2" s="103"/>
-      <c r="V2" s="103"/>
-      <c r="W2" s="104"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="106"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="106"/>
+      <c r="Q2" s="106"/>
+      <c r="R2" s="106"/>
+      <c r="S2" s="106"/>
+      <c r="T2" s="106"/>
+      <c r="U2" s="106"/>
+      <c r="V2" s="106"/>
+      <c r="W2" s="107"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="3" t="s">
         <v>1</v>
@@ -15091,34 +15044,34 @@
       <c r="AC2" s="5"/>
     </row>
     <row r="3" spans="1:29" ht="24" x14ac:dyDescent="0.2">
-      <c r="B3" s="105" t="s">
+      <c r="B3" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="107" t="s">
+      <c r="C3" s="110" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="108"/>
-      <c r="K3" s="108"/>
-      <c r="L3" s="108"/>
-      <c r="M3" s="108"/>
-      <c r="N3" s="108"/>
-      <c r="O3" s="108"/>
-      <c r="P3" s="108"/>
-      <c r="Q3" s="108"/>
-      <c r="R3" s="108"/>
-      <c r="S3" s="108"/>
-      <c r="T3" s="108"/>
-      <c r="U3" s="108"/>
-      <c r="V3" s="108"/>
-      <c r="W3" s="109"/>
-      <c r="X3" s="113"/>
-      <c r="Y3" s="115" t="s">
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="111"/>
+      <c r="O3" s="111"/>
+      <c r="P3" s="111"/>
+      <c r="Q3" s="111"/>
+      <c r="R3" s="111"/>
+      <c r="S3" s="111"/>
+      <c r="T3" s="111"/>
+      <c r="U3" s="111"/>
+      <c r="V3" s="111"/>
+      <c r="W3" s="112"/>
+      <c r="X3" s="116"/>
+      <c r="Y3" s="118" t="s">
         <v>3</v>
       </c>
       <c r="AA3" t="s">
@@ -15128,30 +15081,30 @@
       <c r="AC3" s="5"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B4" s="106"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="111"/>
-      <c r="L4" s="111"/>
-      <c r="M4" s="111"/>
-      <c r="N4" s="111"/>
-      <c r="O4" s="111"/>
-      <c r="P4" s="111"/>
-      <c r="Q4" s="111"/>
-      <c r="R4" s="111"/>
-      <c r="S4" s="111"/>
-      <c r="T4" s="111"/>
-      <c r="U4" s="111"/>
-      <c r="V4" s="111"/>
-      <c r="W4" s="112"/>
-      <c r="X4" s="114"/>
-      <c r="Y4" s="116"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="114"/>
+      <c r="M4" s="114"/>
+      <c r="N4" s="114"/>
+      <c r="O4" s="114"/>
+      <c r="P4" s="114"/>
+      <c r="Q4" s="114"/>
+      <c r="R4" s="114"/>
+      <c r="S4" s="114"/>
+      <c r="T4" s="114"/>
+      <c r="U4" s="114"/>
+      <c r="V4" s="114"/>
+      <c r="W4" s="115"/>
+      <c r="X4" s="117"/>
+      <c r="Y4" s="119"/>
       <c r="AA4" t="s">
         <v>74</v>
       </c>
@@ -15159,7 +15112,7 @@
       <c r="AC4" s="8"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B5" s="106"/>
+      <c r="B5" s="109"/>
       <c r="C5" s="11" t="s">
         <v>8</v>
       </c>
@@ -15232,7 +15185,7 @@
       <c r="AC5" s="13"/>
     </row>
     <row r="6" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="106"/>
+      <c r="B6" s="109"/>
       <c r="C6" s="14">
         <v>1</v>
       </c>
@@ -15336,8 +15289,8 @@
       <c r="A8">
         <v>1</v>
       </c>
-      <c r="B8" s="34" t="s">
-        <v>16</v>
+      <c r="B8" s="99" t="s">
+        <v>37</v>
       </c>
       <c r="C8" s="35"/>
       <c r="D8" s="36"/>
@@ -15373,8 +15326,8 @@
       <c r="A9">
         <v>2</v>
       </c>
-      <c r="B9" s="42" t="s">
-        <v>17</v>
+      <c r="B9" s="100" t="s">
+        <v>99</v>
       </c>
       <c r="C9" s="35"/>
       <c r="D9" s="36"/>
@@ -15410,8 +15363,8 @@
       <c r="A10">
         <v>3</v>
       </c>
-      <c r="B10" s="42" t="s">
-        <v>18</v>
+      <c r="B10" s="100" t="s">
+        <v>59</v>
       </c>
       <c r="C10" s="35"/>
       <c r="D10" s="36"/>
@@ -15447,8 +15400,8 @@
       <c r="A11">
         <v>4</v>
       </c>
-      <c r="B11" s="42" t="s">
-        <v>19</v>
+      <c r="B11" s="100" t="s">
+        <v>38</v>
       </c>
       <c r="C11" s="35"/>
       <c r="D11" s="36"/>
@@ -15484,8 +15437,8 @@
       <c r="A12">
         <v>5</v>
       </c>
-      <c r="B12" s="42" t="s">
-        <v>20</v>
+      <c r="B12" s="100" t="s">
+        <v>41</v>
       </c>
       <c r="C12" s="35"/>
       <c r="D12" s="36"/>
@@ -15521,8 +15474,8 @@
       <c r="A13">
         <v>6</v>
       </c>
-      <c r="B13" s="42" t="s">
-        <v>21</v>
+      <c r="B13" s="100" t="s">
+        <v>100</v>
       </c>
       <c r="C13" s="35"/>
       <c r="D13" s="36"/>
@@ -15558,8 +15511,8 @@
       <c r="A14">
         <v>7</v>
       </c>
-      <c r="B14" s="42" t="s">
-        <v>22</v>
+      <c r="B14" s="100" t="s">
+        <v>38</v>
       </c>
       <c r="C14" s="35"/>
       <c r="D14" s="36"/>
@@ -15595,8 +15548,8 @@
       <c r="A15">
         <v>8</v>
       </c>
-      <c r="B15" s="42" t="s">
-        <v>23</v>
+      <c r="B15" s="100" t="s">
+        <v>40</v>
       </c>
       <c r="C15" s="35"/>
       <c r="D15" s="36"/>
@@ -15632,8 +15585,8 @@
       <c r="A16">
         <v>9</v>
       </c>
-      <c r="B16" s="42" t="s">
-        <v>24</v>
+      <c r="B16" s="100" t="s">
+        <v>16</v>
       </c>
       <c r="C16" s="35"/>
       <c r="D16" s="36"/>
@@ -15669,9 +15622,7 @@
       <c r="A17">
         <v>10</v>
       </c>
-      <c r="B17" s="42" t="s">
-        <v>25</v>
-      </c>
+      <c r="B17" s="42"/>
       <c r="C17" s="35"/>
       <c r="D17" s="36"/>
       <c r="E17" s="36"/>
@@ -15706,9 +15657,7 @@
       <c r="A18">
         <v>11</v>
       </c>
-      <c r="B18" s="42" t="s">
-        <v>26</v>
-      </c>
+      <c r="B18" s="42"/>
       <c r="C18" s="35"/>
       <c r="D18" s="36"/>
       <c r="E18" s="36"/>
@@ -15743,9 +15692,7 @@
       <c r="A19">
         <v>12</v>
       </c>
-      <c r="B19" s="42" t="s">
-        <v>27</v>
-      </c>
+      <c r="B19" s="42"/>
       <c r="C19" s="35"/>
       <c r="D19" s="36"/>
       <c r="E19" s="36"/>
@@ -15780,9 +15727,7 @@
       <c r="A20">
         <v>13</v>
       </c>
-      <c r="B20" s="42" t="s">
-        <v>28</v>
-      </c>
+      <c r="B20" s="42"/>
       <c r="C20" s="35"/>
       <c r="D20" s="36"/>
       <c r="E20" s="36"/>
@@ -15817,9 +15762,7 @@
       <c r="A21">
         <v>14</v>
       </c>
-      <c r="B21" s="42" t="s">
-        <v>29</v>
-      </c>
+      <c r="B21" s="42"/>
       <c r="C21" s="35"/>
       <c r="D21" s="36"/>
       <c r="E21" s="36"/>
@@ -15854,9 +15797,7 @@
       <c r="A22">
         <v>15</v>
       </c>
-      <c r="B22" s="42" t="s">
-        <v>30</v>
-      </c>
+      <c r="B22" s="42"/>
       <c r="C22" s="35"/>
       <c r="D22" s="36"/>
       <c r="E22" s="36"/>
@@ -15891,9 +15832,7 @@
       <c r="A23">
         <v>16</v>
       </c>
-      <c r="B23" s="42" t="s">
-        <v>31</v>
-      </c>
+      <c r="B23" s="42"/>
       <c r="C23" s="35"/>
       <c r="D23" s="36"/>
       <c r="E23" s="36"/>
@@ -15928,9 +15867,7 @@
       <c r="A24">
         <v>17</v>
       </c>
-      <c r="B24" s="42" t="s">
-        <v>32</v>
-      </c>
+      <c r="B24" s="42"/>
       <c r="C24" s="35"/>
       <c r="D24" s="36"/>
       <c r="E24" s="36"/>
@@ -15965,9 +15902,7 @@
       <c r="A25">
         <v>18</v>
       </c>
-      <c r="B25" s="42" t="s">
-        <v>33</v>
-      </c>
+      <c r="B25" s="42"/>
       <c r="C25" s="35"/>
       <c r="D25" s="36"/>
       <c r="E25" s="36"/>
@@ -16002,9 +15937,7 @@
       <c r="A26">
         <v>19</v>
       </c>
-      <c r="B26" s="42" t="s">
-        <v>34</v>
-      </c>
+      <c r="B26" s="42"/>
       <c r="C26" s="35"/>
       <c r="D26" s="36"/>
       <c r="E26" s="36"/>
@@ -16039,9 +15972,7 @@
       <c r="A27">
         <v>20</v>
       </c>
-      <c r="B27" s="42" t="s">
-        <v>35</v>
-      </c>
+      <c r="B27" s="42"/>
       <c r="C27" s="35"/>
       <c r="D27" s="36"/>
       <c r="E27" s="36"/>
@@ -16266,8 +16197,8 @@
       <c r="A34">
         <v>1</v>
       </c>
-      <c r="B34" s="60" t="s">
-        <v>36</v>
+      <c r="B34" s="101" t="s">
+        <v>37</v>
       </c>
       <c r="C34" s="35"/>
       <c r="D34" s="36"/>
@@ -16303,8 +16234,8 @@
       <c r="A35">
         <v>2</v>
       </c>
-      <c r="B35" s="42" t="s">
-        <v>37</v>
+      <c r="B35" s="101" t="s">
+        <v>99</v>
       </c>
       <c r="C35" s="35"/>
       <c r="D35" s="36"/>
@@ -16340,8 +16271,8 @@
       <c r="A36">
         <v>3</v>
       </c>
-      <c r="B36" s="42" t="s">
-        <v>38</v>
+      <c r="B36" s="101" t="s">
+        <v>59</v>
       </c>
       <c r="C36" s="35"/>
       <c r="D36" s="36"/>
@@ -16377,8 +16308,8 @@
       <c r="A37">
         <v>4</v>
       </c>
-      <c r="B37" s="42" t="s">
-        <v>39</v>
+      <c r="B37" s="101" t="s">
+        <v>38</v>
       </c>
       <c r="C37" s="35"/>
       <c r="D37" s="36"/>
@@ -16414,8 +16345,8 @@
       <c r="A38">
         <v>5</v>
       </c>
-      <c r="B38" s="42" t="s">
-        <v>40</v>
+      <c r="B38" s="101" t="s">
+        <v>41</v>
       </c>
       <c r="C38" s="35"/>
       <c r="D38" s="36"/>
@@ -16451,8 +16382,8 @@
       <c r="A39">
         <v>6</v>
       </c>
-      <c r="B39" s="42" t="s">
-        <v>41</v>
+      <c r="B39" s="101" t="s">
+        <v>100</v>
       </c>
       <c r="C39" s="35"/>
       <c r="D39" s="36"/>
@@ -16488,8 +16419,8 @@
       <c r="A40">
         <v>7</v>
       </c>
-      <c r="B40" s="42" t="s">
-        <v>42</v>
+      <c r="B40" s="101" t="s">
+        <v>38</v>
       </c>
       <c r="C40" s="35"/>
       <c r="D40" s="36"/>
@@ -16525,8 +16456,8 @@
       <c r="A41">
         <v>8</v>
       </c>
-      <c r="B41" s="42" t="s">
-        <v>43</v>
+      <c r="B41" s="101" t="s">
+        <v>40</v>
       </c>
       <c r="C41" s="35"/>
       <c r="D41" s="36"/>
@@ -16562,8 +16493,8 @@
       <c r="A42">
         <v>9</v>
       </c>
-      <c r="B42" s="42" t="s">
-        <v>44</v>
+      <c r="B42" s="101" t="s">
+        <v>16</v>
       </c>
       <c r="C42" s="35"/>
       <c r="D42" s="36"/>
@@ -16599,9 +16530,7 @@
       <c r="A43">
         <v>10</v>
       </c>
-      <c r="B43" s="42" t="s">
-        <v>45</v>
-      </c>
+      <c r="B43" s="42"/>
       <c r="C43" s="35"/>
       <c r="D43" s="36"/>
       <c r="E43" s="36"/>
@@ -16636,9 +16565,7 @@
       <c r="A44">
         <v>11</v>
       </c>
-      <c r="B44" s="42" t="s">
-        <v>46</v>
-      </c>
+      <c r="B44" s="42"/>
       <c r="C44" s="35"/>
       <c r="D44" s="36"/>
       <c r="E44" s="36"/>
@@ -16673,9 +16600,7 @@
       <c r="A45">
         <v>12</v>
       </c>
-      <c r="B45" s="42" t="s">
-        <v>47</v>
-      </c>
+      <c r="B45" s="42"/>
       <c r="C45" s="35"/>
       <c r="D45" s="36"/>
       <c r="E45" s="36"/>
@@ -16710,9 +16635,7 @@
       <c r="A46">
         <v>13</v>
       </c>
-      <c r="B46" s="42" t="s">
-        <v>29</v>
-      </c>
+      <c r="B46" s="42"/>
       <c r="C46" s="35"/>
       <c r="D46" s="36"/>
       <c r="E46" s="36"/>
@@ -16747,9 +16670,7 @@
       <c r="A47">
         <v>14</v>
       </c>
-      <c r="B47" s="42" t="s">
-        <v>48</v>
-      </c>
+      <c r="B47" s="42"/>
       <c r="C47" s="35"/>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
@@ -16784,9 +16705,7 @@
       <c r="A48">
         <v>15</v>
       </c>
-      <c r="B48" s="42" t="s">
-        <v>47</v>
-      </c>
+      <c r="B48" s="42"/>
       <c r="C48" s="35"/>
       <c r="D48" s="36"/>
       <c r="E48" s="36"/>
@@ -16821,9 +16740,7 @@
       <c r="A49">
         <v>16</v>
       </c>
-      <c r="B49" s="60" t="s">
-        <v>49</v>
-      </c>
+      <c r="B49" s="60"/>
       <c r="C49" s="35"/>
       <c r="D49" s="36"/>
       <c r="E49" s="36"/>
@@ -16858,9 +16775,7 @@
       <c r="A50">
         <v>17</v>
       </c>
-      <c r="B50" s="60" t="s">
-        <v>50</v>
-      </c>
+      <c r="B50" s="60"/>
       <c r="C50" s="35"/>
       <c r="D50" s="36"/>
       <c r="E50" s="36"/>
@@ -16895,9 +16810,7 @@
       <c r="A51">
         <v>18</v>
       </c>
-      <c r="B51" s="60" t="s">
-        <v>51</v>
-      </c>
+      <c r="B51" s="60"/>
       <c r="C51" s="35"/>
       <c r="D51" s="36"/>
       <c r="E51" s="36"/>
@@ -16932,9 +16845,7 @@
       <c r="A52">
         <v>19</v>
       </c>
-      <c r="B52" s="60" t="s">
-        <v>52</v>
-      </c>
+      <c r="B52" s="60"/>
       <c r="C52" s="35"/>
       <c r="D52" s="36"/>
       <c r="E52" s="36"/>
@@ -16969,9 +16880,7 @@
       <c r="A53">
         <v>20</v>
       </c>
-      <c r="B53" s="60" t="s">
-        <v>53</v>
-      </c>
+      <c r="B53" s="60"/>
       <c r="C53" s="35"/>
       <c r="D53" s="36"/>
       <c r="E53" s="36"/>
@@ -17006,9 +16915,7 @@
       <c r="A54">
         <v>21</v>
       </c>
-      <c r="B54" s="60" t="s">
-        <v>54</v>
-      </c>
+      <c r="B54" s="60"/>
       <c r="C54" s="35"/>
       <c r="D54" s="36"/>
       <c r="E54" s="36"/>
@@ -17043,9 +16950,7 @@
       <c r="A55">
         <v>22</v>
       </c>
-      <c r="B55" s="60" t="s">
-        <v>55</v>
-      </c>
+      <c r="B55" s="60"/>
       <c r="C55" s="35"/>
       <c r="D55" s="36"/>
       <c r="E55" s="36"/>
@@ -17080,9 +16985,7 @@
       <c r="A56">
         <v>23</v>
       </c>
-      <c r="B56" s="61" t="s">
-        <v>56</v>
-      </c>
+      <c r="B56" s="61"/>
       <c r="C56" s="35"/>
       <c r="D56" s="36"/>
       <c r="E56" s="36"/>
@@ -17117,9 +17020,7 @@
       <c r="A57">
         <v>24</v>
       </c>
-      <c r="B57" s="34" t="s">
-        <v>57</v>
-      </c>
+      <c r="B57" s="34"/>
       <c r="C57" s="35"/>
       <c r="D57" s="36"/>
       <c r="E57" s="36"/>
@@ -17218,8 +17119,8 @@
       <c r="A60">
         <v>1</v>
       </c>
-      <c r="B60" s="42" t="s">
-        <v>75</v>
+      <c r="B60" s="101" t="s">
+        <v>37</v>
       </c>
       <c r="C60" s="35"/>
       <c r="D60" s="36"/>
@@ -17255,8 +17156,8 @@
       <c r="A61">
         <v>2</v>
       </c>
-      <c r="B61" s="42" t="s">
-        <v>76</v>
+      <c r="B61" s="101" t="s">
+        <v>99</v>
       </c>
       <c r="C61" s="35"/>
       <c r="D61" s="36"/>
@@ -17292,8 +17193,8 @@
       <c r="A62">
         <v>3</v>
       </c>
-      <c r="B62" s="65" t="s">
-        <v>77</v>
+      <c r="B62" s="101" t="s">
+        <v>59</v>
       </c>
       <c r="C62" s="35"/>
       <c r="D62" s="36"/>
@@ -17329,8 +17230,8 @@
       <c r="A63">
         <v>4</v>
       </c>
-      <c r="B63" s="60" t="s">
-        <v>78</v>
+      <c r="B63" s="101" t="s">
+        <v>38</v>
       </c>
       <c r="C63" s="35"/>
       <c r="D63" s="36"/>
@@ -17366,8 +17267,8 @@
       <c r="A64">
         <v>5</v>
       </c>
-      <c r="B64" s="60" t="s">
-        <v>79</v>
+      <c r="B64" s="101" t="s">
+        <v>41</v>
       </c>
       <c r="C64" s="35"/>
       <c r="D64" s="36"/>
@@ -17403,8 +17304,8 @@
       <c r="A65">
         <v>6</v>
       </c>
-      <c r="B65" s="60" t="s">
-        <v>80</v>
+      <c r="B65" s="101" t="s">
+        <v>100</v>
       </c>
       <c r="C65" s="35"/>
       <c r="D65" s="36"/>
@@ -17440,8 +17341,8 @@
       <c r="A66">
         <v>7</v>
       </c>
-      <c r="B66" s="60" t="s">
-        <v>81</v>
+      <c r="B66" s="101" t="s">
+        <v>38</v>
       </c>
       <c r="C66" s="35"/>
       <c r="D66" s="36"/>
@@ -17477,8 +17378,8 @@
       <c r="A67">
         <v>8</v>
       </c>
-      <c r="B67" s="60" t="s">
-        <v>82</v>
+      <c r="B67" s="101" t="s">
+        <v>40</v>
       </c>
       <c r="C67" s="35"/>
       <c r="D67" s="36"/>
@@ -17514,8 +17415,8 @@
       <c r="A68">
         <v>9</v>
       </c>
-      <c r="B68" s="60" t="s">
-        <v>83</v>
+      <c r="B68" s="101" t="s">
+        <v>16</v>
       </c>
       <c r="C68" s="35"/>
       <c r="D68" s="36"/>
@@ -17551,9 +17452,7 @@
       <c r="A69">
         <v>10</v>
       </c>
-      <c r="B69" s="42" t="s">
-        <v>84</v>
-      </c>
+      <c r="B69" s="42"/>
       <c r="C69" s="35"/>
       <c r="D69" s="36"/>
       <c r="E69" s="36"/>
@@ -17588,9 +17487,7 @@
       <c r="A70">
         <v>11</v>
       </c>
-      <c r="B70" s="42" t="s">
-        <v>85</v>
-      </c>
+      <c r="B70" s="42"/>
       <c r="C70" s="35"/>
       <c r="D70" s="36"/>
       <c r="E70" s="36"/>
@@ -17625,9 +17522,7 @@
       <c r="A71">
         <v>12</v>
       </c>
-      <c r="B71" s="42" t="s">
-        <v>86</v>
-      </c>
+      <c r="B71" s="42"/>
       <c r="C71" s="35"/>
       <c r="D71" s="36"/>
       <c r="E71" s="36"/>
@@ -17662,9 +17557,7 @@
       <c r="A72">
         <v>13</v>
       </c>
-      <c r="B72" s="42" t="s">
-        <v>87</v>
-      </c>
+      <c r="B72" s="42"/>
       <c r="C72" s="35"/>
       <c r="D72" s="36"/>
       <c r="E72" s="36"/>
@@ -17699,9 +17592,7 @@
       <c r="A73">
         <v>14</v>
       </c>
-      <c r="B73" s="42" t="s">
-        <v>88</v>
-      </c>
+      <c r="B73" s="42"/>
       <c r="C73" s="35"/>
       <c r="D73" s="36"/>
       <c r="E73" s="36"/>
@@ -17736,9 +17627,7 @@
       <c r="A74">
         <v>15</v>
       </c>
-      <c r="B74" s="42" t="s">
-        <v>66</v>
-      </c>
+      <c r="B74" s="42"/>
       <c r="C74" s="35"/>
       <c r="D74" s="36"/>
       <c r="E74" s="36"/>
@@ -17773,9 +17662,7 @@
       <c r="A75">
         <v>16</v>
       </c>
-      <c r="B75" s="42" t="s">
-        <v>89</v>
-      </c>
+      <c r="B75" s="42"/>
       <c r="C75" s="35"/>
       <c r="D75" s="36"/>
       <c r="E75" s="36"/>
@@ -17810,9 +17697,7 @@
       <c r="A76">
         <v>17</v>
       </c>
-      <c r="B76" s="42" t="s">
-        <v>90</v>
-      </c>
+      <c r="B76" s="42"/>
       <c r="C76" s="35"/>
       <c r="D76" s="36"/>
       <c r="E76" s="36"/>
@@ -17847,9 +17732,7 @@
       <c r="A77">
         <v>18</v>
       </c>
-      <c r="B77" s="42" t="s">
-        <v>89</v>
-      </c>
+      <c r="B77" s="42"/>
       <c r="C77" s="35"/>
       <c r="D77" s="36"/>
       <c r="E77" s="36"/>
@@ -17884,9 +17767,7 @@
       <c r="A78">
         <v>19</v>
       </c>
-      <c r="B78" s="42" t="s">
-        <v>91</v>
-      </c>
+      <c r="B78" s="42"/>
       <c r="C78" s="35"/>
       <c r="D78" s="36"/>
       <c r="E78" s="36"/>
@@ -17921,9 +17802,7 @@
       <c r="A79">
         <v>20</v>
       </c>
-      <c r="B79" s="42" t="s">
-        <v>92</v>
-      </c>
+      <c r="B79" s="42"/>
       <c r="C79" s="35"/>
       <c r="D79" s="36"/>
       <c r="E79" s="36"/>
@@ -17958,9 +17837,7 @@
       <c r="A80">
         <v>21</v>
       </c>
-      <c r="B80" s="42" t="s">
-        <v>93</v>
-      </c>
+      <c r="B80" s="42"/>
       <c r="C80" s="35"/>
       <c r="D80" s="36"/>
       <c r="E80" s="36"/>
@@ -17995,9 +17872,7 @@
       <c r="A81">
         <v>22</v>
       </c>
-      <c r="B81" s="42" t="s">
-        <v>94</v>
-      </c>
+      <c r="B81" s="42"/>
       <c r="C81" s="35"/>
       <c r="D81" s="36"/>
       <c r="E81" s="36"/>
@@ -18032,9 +17907,7 @@
       <c r="A82">
         <v>23</v>
       </c>
-      <c r="B82" s="66" t="s">
-        <v>95</v>
-      </c>
+      <c r="B82" s="66"/>
       <c r="C82" s="35"/>
       <c r="D82" s="36"/>
       <c r="E82" s="36"/>
@@ -18165,8 +18038,8 @@
       <c r="A86">
         <v>1</v>
       </c>
-      <c r="B86" s="60" t="s">
-        <v>58</v>
+      <c r="B86" s="101" t="s">
+        <v>37</v>
       </c>
       <c r="C86" s="35"/>
       <c r="D86" s="36"/>
@@ -18202,8 +18075,8 @@
       <c r="A87">
         <v>2</v>
       </c>
-      <c r="B87" s="60" t="s">
-        <v>59</v>
+      <c r="B87" s="101" t="s">
+        <v>99</v>
       </c>
       <c r="C87" s="35"/>
       <c r="D87" s="36"/>
@@ -18239,8 +18112,8 @@
       <c r="A88">
         <v>3</v>
       </c>
-      <c r="B88" s="60" t="s">
-        <v>60</v>
+      <c r="B88" s="101" t="s">
+        <v>59</v>
       </c>
       <c r="C88" s="35"/>
       <c r="D88" s="36"/>
@@ -18276,8 +18149,8 @@
       <c r="A89">
         <v>4</v>
       </c>
-      <c r="B89" s="60" t="s">
-        <v>61</v>
+      <c r="B89" s="101" t="s">
+        <v>38</v>
       </c>
       <c r="C89" s="35"/>
       <c r="D89" s="36"/>
@@ -18313,8 +18186,8 @@
       <c r="A90">
         <v>5</v>
       </c>
-      <c r="B90" s="60" t="s">
-        <v>62</v>
+      <c r="B90" s="101" t="s">
+        <v>41</v>
       </c>
       <c r="C90" s="35"/>
       <c r="D90" s="36"/>
@@ -18350,8 +18223,8 @@
       <c r="A91">
         <v>6</v>
       </c>
-      <c r="B91" s="60" t="s">
-        <v>45</v>
+      <c r="B91" s="101" t="s">
+        <v>100</v>
       </c>
       <c r="C91" s="35"/>
       <c r="D91" s="36"/>
@@ -18387,8 +18260,8 @@
       <c r="A92">
         <v>7</v>
       </c>
-      <c r="B92" s="60" t="s">
-        <v>63</v>
+      <c r="B92" s="101" t="s">
+        <v>38</v>
       </c>
       <c r="C92" s="35"/>
       <c r="D92" s="36"/>
@@ -18424,8 +18297,8 @@
       <c r="A93">
         <v>8</v>
       </c>
-      <c r="B93" s="60" t="s">
-        <v>64</v>
+      <c r="B93" s="101" t="s">
+        <v>40</v>
       </c>
       <c r="C93" s="35"/>
       <c r="D93" s="36"/>
@@ -18461,8 +18334,8 @@
       <c r="A94">
         <v>9</v>
       </c>
-      <c r="B94" s="60" t="s">
-        <v>27</v>
+      <c r="B94" s="101" t="s">
+        <v>16</v>
       </c>
       <c r="C94" s="35"/>
       <c r="D94" s="36"/>
@@ -18498,9 +18371,7 @@
       <c r="A95">
         <v>10</v>
       </c>
-      <c r="B95" s="60" t="s">
-        <v>65</v>
-      </c>
+      <c r="B95" s="60"/>
       <c r="C95" s="35"/>
       <c r="D95" s="36"/>
       <c r="E95" s="36"/>
@@ -18535,9 +18406,7 @@
       <c r="A96">
         <v>11</v>
       </c>
-      <c r="B96" s="60" t="s">
-        <v>29</v>
-      </c>
+      <c r="B96" s="60"/>
       <c r="C96" s="35"/>
       <c r="D96" s="36"/>
       <c r="E96" s="36"/>
@@ -18572,9 +18441,7 @@
       <c r="A97">
         <v>12</v>
       </c>
-      <c r="B97" s="60" t="s">
-        <v>66</v>
-      </c>
+      <c r="B97" s="60"/>
       <c r="C97" s="35"/>
       <c r="D97" s="36"/>
       <c r="E97" s="36"/>
@@ -18609,9 +18476,7 @@
       <c r="A98">
         <v>13</v>
       </c>
-      <c r="B98" s="60" t="s">
-        <v>67</v>
-      </c>
+      <c r="B98" s="60"/>
       <c r="C98" s="35"/>
       <c r="D98" s="36"/>
       <c r="E98" s="36"/>
@@ -18646,9 +18511,7 @@
       <c r="A99">
         <v>14</v>
       </c>
-      <c r="B99" s="60" t="s">
-        <v>47</v>
-      </c>
+      <c r="B99" s="60"/>
       <c r="C99" s="35"/>
       <c r="D99" s="36"/>
       <c r="E99" s="36"/>
@@ -18683,9 +18546,7 @@
       <c r="A100">
         <v>15</v>
       </c>
-      <c r="B100" s="60" t="s">
-        <v>68</v>
-      </c>
+      <c r="B100" s="60"/>
       <c r="C100" s="35"/>
       <c r="D100" s="36"/>
       <c r="E100" s="36"/>
@@ -18720,9 +18581,7 @@
       <c r="A101">
         <v>16</v>
       </c>
-      <c r="B101" s="60" t="s">
-        <v>69</v>
-      </c>
+      <c r="B101" s="60"/>
       <c r="C101" s="35"/>
       <c r="D101" s="36"/>
       <c r="E101" s="36"/>
@@ -18757,9 +18616,7 @@
       <c r="A102">
         <v>17</v>
       </c>
-      <c r="B102" s="60" t="s">
-        <v>70</v>
-      </c>
+      <c r="B102" s="60"/>
       <c r="C102" s="35"/>
       <c r="D102" s="36"/>
       <c r="E102" s="36"/>
@@ -18794,9 +18651,7 @@
       <c r="A103">
         <v>18</v>
       </c>
-      <c r="B103" s="60" t="s">
-        <v>71</v>
-      </c>
+      <c r="B103" s="60"/>
       <c r="C103" s="35"/>
       <c r="D103" s="36"/>
       <c r="E103" s="36"/>
@@ -18831,9 +18686,7 @@
       <c r="A104">
         <v>19</v>
       </c>
-      <c r="B104" s="60" t="s">
-        <v>52</v>
-      </c>
+      <c r="B104" s="60"/>
       <c r="C104" s="35"/>
       <c r="D104" s="36"/>
       <c r="E104" s="36"/>
@@ -18868,9 +18721,7 @@
       <c r="A105">
         <v>20</v>
       </c>
-      <c r="B105" s="60" t="s">
-        <v>72</v>
-      </c>
+      <c r="B105" s="60"/>
       <c r="C105" s="35"/>
       <c r="D105" s="36"/>
       <c r="E105" s="36"/>

--- a/Worksheet_Processing/OnCall_Tallies_Example_edited.xlsx
+++ b/Worksheet_Processing/OnCall_Tallies_Example_edited.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\git\CS2043-Team-6-Project-local\Worksheet_Processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B768BA2A-CB85-4633-9BEF-E315531DEE34}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{11883AE4-3D48-4126-95A6-BF72791FFA55}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20000" windowHeight="10653" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="10653" windowWidth="20000" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet2" r:id="rId2" sheetId="2"/>
+    <sheet name="Sheet3" r:id="rId3" sheetId="3"/>
+    <sheet name="Sheet4" r:id="rId4" sheetId="4"/>
   </sheets>
   <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="104">
   <si>
     <t>St. John Paul II C.S.S.</t>
   </si>
@@ -397,11 +397,21 @@
   <si>
     <t>don't write in this row</t>
   </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>TestTeacher2</t>
+  </si>
+  <si>
+    <t>TestTeacher3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -895,316 +905,352 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="134">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="7" fillId="2" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="3" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="4" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="14" fillId="3" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="3" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="14" fillId="4" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="4" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="10" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="15" fillId="3" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="8" fillId="3" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="9" fillId="3" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="16" fillId="3" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="16" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="17" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="12" numFmtId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="12" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="5" fillId="0" fontId="13" numFmtId="0" xfId="0">
+      <alignment horizontal="left" readingOrder="1" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="5" fillId="3" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="12" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="14" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="18" fillId="0" fontId="13" numFmtId="0" xfId="0">
+      <alignment horizontal="left" readingOrder="1" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="9" fillId="0" fontId="15" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="18" fillId="0" fontId="13" numFmtId="0" xfId="0">
+      <alignment readingOrder="1" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="16" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="19" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="20" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="17" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="21" fillId="3" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="21" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="22" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="18" fillId="0" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="left" readingOrder="1" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="23" fillId="0" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="left" readingOrder="1" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="5" fillId="0" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="left" readingOrder="1" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="23" fillId="0" fontId="13" numFmtId="0" xfId="0">
+      <alignment horizontal="left" readingOrder="1" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="6" fontId="13" numFmtId="0" xfId="0">
+      <alignment readingOrder="1" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="9" fillId="0" fontId="18" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="13" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="13" fillId="0" fontId="12" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="0" fontId="12" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="21" fillId="3" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="21" fillId="3" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="21" fillId="3" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="24" fillId="0" fontId="13" numFmtId="0" xfId="0">
+      <alignment readingOrder="1" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="25" fillId="0" fontId="13" numFmtId="0" xfId="0">
+      <alignment readingOrder="1" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="24" fillId="0" fontId="13" numFmtId="0" xfId="0">
+      <alignment readingOrder="1" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="18" fillId="0" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="left" readingOrder="1" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="5" fillId="3" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="14" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="17" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="2" numFmtId="17" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="17" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="2" numFmtId="17" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="17" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="4" fillId="0" fontId="2" numFmtId="17" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="17" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="8" fillId="0" fontId="2" numFmtId="17" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="17" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="9" fillId="0" fontId="2" numFmtId="17" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="17" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="10" fillId="0" fontId="2" numFmtId="17" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="0" fontId="7" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="13" fillId="0" fontId="7" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="0" fontId="8" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="13" fillId="0" fontId="8" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="18" fillId="0" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="left" readingOrder="1" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="5" fillId="3" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="14" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="42">
+  <dxfs count="26">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1242,66 +1288,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1447,86 +1433,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C6500"/>
       </font>
       <fill>
@@ -1605,28 +1511,8 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1643,10 +1529,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1681,7 +1567,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1716,7 +1602,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1810,21 +1696,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1841,7 +1727,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1893,65 +1779,65 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP117"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AQ119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A6" ySplit="5"/>
+      <selection activeCell="E10" pane="bottomLeft" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8203125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="3.46875" customWidth="1"/>
-    <col min="2" max="2" width="20.46875" customWidth="1"/>
-    <col min="3" max="3" width="4.46875" style="35" customWidth="1"/>
-    <col min="4" max="7" width="4.46875" style="36" customWidth="1"/>
-    <col min="8" max="8" width="4.46875" style="35" customWidth="1"/>
-    <col min="9" max="12" width="4.46875" style="36" customWidth="1"/>
-    <col min="13" max="13" width="4.46875" style="35" customWidth="1"/>
-    <col min="14" max="17" width="4.46875" style="36" customWidth="1"/>
-    <col min="18" max="18" width="4.46875" style="35" customWidth="1"/>
-    <col min="19" max="23" width="4.46875" style="36" customWidth="1"/>
-    <col min="24" max="24" width="8.8203125" style="37"/>
-    <col min="25" max="25" width="8.8203125" style="36"/>
-    <col min="28" max="28" width="8.8203125" style="4"/>
-    <col min="29" max="29" width="17.46875" style="13" customWidth="1"/>
-    <col min="30" max="30" width="8.8203125" style="9"/>
+    <col min="1" max="1" customWidth="true" width="3.46875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.46875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="35" width="4.46875" collapsed="true"/>
+    <col min="4" max="7" customWidth="true" style="36" width="4.46875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="35" width="4.46875" collapsed="true"/>
+    <col min="9" max="12" customWidth="true" style="36" width="4.46875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="35" width="4.46875" collapsed="true"/>
+    <col min="14" max="17" customWidth="true" style="36" width="4.46875" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="35" width="4.46875" collapsed="true"/>
+    <col min="19" max="23" customWidth="true" style="36" width="4.46875" collapsed="true"/>
+    <col min="24" max="24" style="37" width="8.8203125" collapsed="true"/>
+    <col min="25" max="25" style="36" width="8.8203125" collapsed="true"/>
+    <col min="28" max="28" style="4" width="8.8203125" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" style="13" width="17.46875" collapsed="true"/>
+    <col min="30" max="30" style="9" width="8.8203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="14.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row customHeight="1" ht="14.5" r="1" spans="1:39" x14ac:dyDescent="0.5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="100"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
-      <c r="U1" s="101"/>
-      <c r="V1" s="101"/>
-      <c r="W1" s="102"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="109"/>
+      <c r="T1" s="109"/>
+      <c r="U1" s="109"/>
+      <c r="V1" s="109"/>
+      <c r="W1" s="110"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="3"/>
       <c r="AC1" s="5"/>
@@ -1966,31 +1852,31 @@
       <c r="AL1" s="6"/>
       <c r="AM1" s="6"/>
     </row>
-    <row r="2" spans="1:39" ht="14.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row customHeight="1" ht="14.5" r="2" spans="1:39" x14ac:dyDescent="0.5">
       <c r="B2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="104"/>
-      <c r="P2" s="104"/>
-      <c r="Q2" s="104"/>
-      <c r="R2" s="104"/>
-      <c r="S2" s="104"/>
-      <c r="T2" s="104"/>
-      <c r="U2" s="104"/>
-      <c r="V2" s="104"/>
-      <c r="W2" s="105"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
+      <c r="Q2" s="112"/>
+      <c r="R2" s="112"/>
+      <c r="S2" s="112"/>
+      <c r="T2" s="112"/>
+      <c r="U2" s="112"/>
+      <c r="V2" s="112"/>
+      <c r="W2" s="113"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="3" t="s">
         <v>1</v>
@@ -2007,35 +1893,35 @@
       <c r="AL2" s="6"/>
       <c r="AM2" s="6"/>
     </row>
-    <row r="3" spans="1:39" ht="14.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="106" t="s">
+    <row customHeight="1" ht="14.5" r="3" spans="1:39" x14ac:dyDescent="0.5">
+      <c r="B3" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="108" t="s">
+      <c r="C3" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109"/>
-      <c r="N3" s="109"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="109"/>
-      <c r="Q3" s="109"/>
-      <c r="R3" s="109"/>
-      <c r="S3" s="109"/>
-      <c r="T3" s="109"/>
-      <c r="U3" s="109"/>
-      <c r="V3" s="109"/>
-      <c r="W3" s="110"/>
-      <c r="X3" s="114"/>
-      <c r="Y3" s="116" t="s">
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="117"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="117"/>
+      <c r="N3" s="117"/>
+      <c r="O3" s="117"/>
+      <c r="P3" s="117"/>
+      <c r="Q3" s="117"/>
+      <c r="R3" s="117"/>
+      <c r="S3" s="117"/>
+      <c r="T3" s="117"/>
+      <c r="U3" s="117"/>
+      <c r="V3" s="117"/>
+      <c r="W3" s="118"/>
+      <c r="X3" s="122"/>
+      <c r="Y3" s="124" t="s">
         <v>3</v>
       </c>
       <c r="AA3" t="s">
@@ -2053,38 +1939,38 @@
       <c r="AL3" s="6"/>
       <c r="AM3" s="6"/>
     </row>
-    <row r="4" spans="1:39" ht="14.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="107"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
-      <c r="H4" s="112"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="112"/>
-      <c r="K4" s="112"/>
-      <c r="L4" s="112"/>
-      <c r="M4" s="112"/>
-      <c r="N4" s="112"/>
-      <c r="O4" s="112"/>
-      <c r="P4" s="112"/>
-      <c r="Q4" s="112"/>
-      <c r="R4" s="112"/>
-      <c r="S4" s="112"/>
-      <c r="T4" s="112"/>
-      <c r="U4" s="112"/>
-      <c r="V4" s="112"/>
-      <c r="W4" s="113"/>
-      <c r="X4" s="115"/>
-      <c r="Y4" s="117"/>
+    <row customHeight="1" ht="14.5" r="4" spans="1:39" x14ac:dyDescent="0.5">
+      <c r="B4" s="115"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="120"/>
+      <c r="K4" s="120"/>
+      <c r="L4" s="120"/>
+      <c r="M4" s="120"/>
+      <c r="N4" s="120"/>
+      <c r="O4" s="120"/>
+      <c r="P4" s="120"/>
+      <c r="Q4" s="120"/>
+      <c r="R4" s="120"/>
+      <c r="S4" s="120"/>
+      <c r="T4" s="120"/>
+      <c r="U4" s="120"/>
+      <c r="V4" s="120"/>
+      <c r="W4" s="121"/>
+      <c r="X4" s="123"/>
+      <c r="Y4" s="125"/>
       <c r="AA4" t="s">
         <v>73</v>
       </c>
       <c r="AC4" s="8"/>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.5">
-      <c r="B5" s="107"/>
+      <c r="B5" s="115"/>
       <c r="C5" s="10" t="s">
         <v>4</v>
       </c>
@@ -2154,8 +2040,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:39" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="107"/>
+    <row ht="14.7" r="6" spans="1:39" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="115"/>
       <c r="C6" s="14">
         <v>1</v>
       </c>
@@ -2273,7 +2159,7 @@
       <c r="AC8" s="40"/>
       <c r="AD8" s="41"/>
     </row>
-    <row r="9" spans="1:39" ht="14.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row customHeight="1" ht="14.5" r="9" spans="1:39" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>2</v>
       </c>
@@ -2282,7 +2168,7 @@
       </c>
       <c r="W9" s="35"/>
       <c r="Y9" s="38">
-        <f t="shared" ref="Y9:Y17" si="0">SUM(C9:W9)</f>
+        <f ref="Y9:Y17" si="0" t="shared">SUM(C9:W9)</f>
         <v>0</v>
       </c>
       <c r="AA9" s="39"/>
@@ -2299,7 +2185,7 @@
       </c>
       <c r="W10" s="35"/>
       <c r="Y10" s="38">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA10" s="39"/>
@@ -2316,7 +2202,7 @@
       </c>
       <c r="W11" s="35"/>
       <c r="Y11" s="38">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA11" s="39"/>
@@ -2336,7 +2222,7 @@
       </c>
       <c r="W12" s="35"/>
       <c r="Y12" s="38">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>1</v>
       </c>
       <c r="AA12" s="39"/>
@@ -2353,7 +2239,7 @@
       </c>
       <c r="W13" s="35"/>
       <c r="Y13" s="38">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA13" s="39"/>
@@ -2370,7 +2256,7 @@
       </c>
       <c r="W14" s="35"/>
       <c r="Y14" s="38">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA14" s="39"/>
@@ -2387,7 +2273,7 @@
       </c>
       <c r="W15" s="35"/>
       <c r="Y15" s="38">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA15" s="39"/>
@@ -2402,7 +2288,7 @@
       <c r="B16" s="99"/>
       <c r="W16" s="35"/>
       <c r="Y16" s="38">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA16" s="39"/>
@@ -2417,7 +2303,7 @@
       <c r="B17" s="42"/>
       <c r="W17" s="35"/>
       <c r="Y17" s="38">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA17" s="39"/>
@@ -2425,7 +2311,7 @@
       <c r="AC17" s="40"/>
       <c r="AD17" s="41"/>
     </row>
-    <row r="18" spans="1:30" ht="14.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row customHeight="1" ht="14.5" r="18" spans="1:30" x14ac:dyDescent="0.5">
       <c r="B18" s="50" t="s">
         <v>11</v>
       </c>
@@ -2470,7 +2356,7 @@
       </c>
       <c r="W19" s="35"/>
       <c r="Y19" s="38">
-        <f t="shared" ref="Y19:Y28" si="1">SUM(C19:W19)</f>
+        <f ref="Y19:Y30" si="1" t="shared">SUM(C19:W19)</f>
         <v>1</v>
       </c>
       <c r="AA19" s="39"/>
@@ -2490,7 +2376,7 @@
       </c>
       <c r="W20" s="35"/>
       <c r="Y20" s="38">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>1</v>
       </c>
       <c r="AA20" s="39"/>
@@ -2507,7 +2393,7 @@
       </c>
       <c r="W21" s="35"/>
       <c r="Y21" s="38">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA21" s="39"/>
@@ -2527,7 +2413,7 @@
       </c>
       <c r="W22" s="35"/>
       <c r="Y22" s="38">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>1</v>
       </c>
       <c r="AA22" s="39"/>
@@ -2547,7 +2433,7 @@
       </c>
       <c r="W23" s="35"/>
       <c r="Y23" s="38">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>1</v>
       </c>
       <c r="AA23" s="39"/>
@@ -2567,7 +2453,7 @@
       </c>
       <c r="W24" s="35"/>
       <c r="Y24" s="38">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>1</v>
       </c>
       <c r="AA24" s="39"/>
@@ -2587,7 +2473,7 @@
       </c>
       <c r="W25" s="35"/>
       <c r="Y25" s="38">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>1</v>
       </c>
       <c r="AA25" s="39"/>
@@ -2607,7 +2493,7 @@
       </c>
       <c r="W26" s="35"/>
       <c r="Y26" s="38">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>1</v>
       </c>
       <c r="AA26" s="39"/>
@@ -2616,78 +2502,128 @@
       <c r="AD26" s="41"/>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="A27">
+      <c r="A27" s="100">
         <v>9</v>
       </c>
-      <c r="B27" s="99"/>
-      <c r="W27" s="35"/>
-      <c r="Y27" s="38">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA27" s="39"/>
-      <c r="AB27" s="31"/>
-      <c r="AC27" s="40"/>
-      <c r="AD27" s="41"/>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="A28">
-        <v>10</v>
-      </c>
-      <c r="B28" s="42"/>
-      <c r="W28" s="35"/>
-      <c r="Y28" s="38">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA28" s="39"/>
-      <c r="AB28" s="31"/>
-      <c r="AC28" s="40"/>
-      <c r="AD28" s="41"/>
+      <c r="B27" s="101" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
+      <c r="R27"/>
+      <c r="S27"/>
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
+      <c r="W27" s="102" t="s">
+        <v>101</v>
+      </c>
+      <c r="X27"/>
+      <c r="Y27" s="103">
+        <f>SUM(C52:W52)</f>
+        <v>0</v>
+      </c>
+      <c r="AA27" s="104" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB27" s="105" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC27" s="106" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD27" s="107" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="126" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B28" s="127" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28"/>
+      <c r="Q28"/>
+      <c r="R28"/>
+      <c r="S28"/>
+      <c r="T28"/>
+      <c r="U28"/>
+      <c r="V28"/>
+      <c r="W28" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="X28"/>
+      <c r="Y28" s="129">
+        <f>SUM(C28:w28)</f>
+      </c>
+      <c r="Z28"/>
+      <c r="AA28" s="130" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB28" s="131" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC28" s="132" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD28" s="133" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="B29" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="96"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="53"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="53"/>
-      <c r="P29" s="53"/>
-      <c r="Q29" s="53"/>
-      <c r="R29" s="53"/>
-      <c r="S29" s="53"/>
-      <c r="T29" s="53"/>
-      <c r="U29" s="53"/>
-      <c r="V29" s="53"/>
-      <c r="W29" s="53"/>
-      <c r="X29" s="53"/>
-      <c r="Y29" s="54"/>
-      <c r="Z29" s="55"/>
-      <c r="AA29" s="56"/>
-      <c r="AB29" s="46"/>
-      <c r="AC29" s="61"/>
-      <c r="AD29" s="62"/>
+      <c r="A29">
+        <v>9</v>
+      </c>
+      <c r="B29" s="99"/>
+      <c r="W29" s="35"/>
+      <c r="Y29" s="38">
+        <f si="1" t="shared"/>
+        <v>0</v>
+      </c>
+      <c r="AA29" s="39"/>
+      <c r="AB29" s="31"/>
+      <c r="AC29" s="40"/>
+      <c r="AD29" s="41"/>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A30">
-        <v>1</v>
-      </c>
-      <c r="B30" s="99" t="s">
-        <v>37</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B30" s="42"/>
       <c r="W30" s="35"/>
       <c r="Y30" s="38">
-        <f t="shared" ref="Y30:Y39" si="2">SUM(C30:W30)</f>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA30" s="39"/>
@@ -2696,32 +2632,48 @@
       <c r="AD30" s="41"/>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="A31">
-        <v>2</v>
-      </c>
-      <c r="B31" s="99" t="s">
-        <v>98</v>
-      </c>
-      <c r="W31" s="35"/>
-      <c r="Y31" s="38">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AA31" s="39"/>
-      <c r="AB31" s="31"/>
-      <c r="AC31" s="40"/>
-      <c r="AD31" s="41"/>
+      <c r="B31" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="96"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="53"/>
+      <c r="O31" s="53"/>
+      <c r="P31" s="53"/>
+      <c r="Q31" s="53"/>
+      <c r="R31" s="53"/>
+      <c r="S31" s="53"/>
+      <c r="T31" s="53"/>
+      <c r="U31" s="53"/>
+      <c r="V31" s="53"/>
+      <c r="W31" s="53"/>
+      <c r="X31" s="53"/>
+      <c r="Y31" s="54"/>
+      <c r="Z31" s="55"/>
+      <c r="AA31" s="56"/>
+      <c r="AB31" s="46"/>
+      <c r="AC31" s="61"/>
+      <c r="AD31" s="62"/>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B32" s="99" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="W32" s="35"/>
       <c r="Y32" s="38">
-        <f t="shared" si="2"/>
+        <f ref="Y32:Y41" si="2" t="shared">SUM(C32:W32)</f>
         <v>0</v>
       </c>
       <c r="AA32" s="39"/>
@@ -2731,14 +2683,14 @@
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B33" s="99" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="W33" s="35"/>
       <c r="Y33" s="38">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA33" s="39"/>
@@ -2748,14 +2700,14 @@
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A34">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B34" s="99" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="W34" s="35"/>
       <c r="Y34" s="38">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA34" s="39"/>
@@ -2765,14 +2717,14 @@
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A35">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B35" s="99" t="s">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="W35" s="35"/>
       <c r="Y35" s="38">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA35" s="39"/>
@@ -2782,14 +2734,14 @@
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A36">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B36" s="99" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W36" s="35"/>
       <c r="Y36" s="38">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA36" s="39"/>
@@ -2797,16 +2749,16 @@
       <c r="AC36" s="40"/>
       <c r="AD36" s="41"/>
     </row>
-    <row r="37" spans="1:30" ht="14.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A37">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B37" s="99" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="W37" s="35"/>
       <c r="Y37" s="38">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA37" s="39"/>
@@ -2816,12 +2768,14 @@
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A38">
-        <v>9</v>
-      </c>
-      <c r="B38" s="99"/>
+        <v>7</v>
+      </c>
+      <c r="B38" s="99" t="s">
+        <v>40</v>
+      </c>
       <c r="W38" s="35"/>
       <c r="Y38" s="38">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA38" s="39"/>
@@ -2831,12 +2785,14 @@
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A39">
-        <v>10</v>
-      </c>
-      <c r="B39" s="42"/>
+        <v>8</v>
+      </c>
+      <c r="B39" s="99" t="s">
+        <v>16</v>
+      </c>
       <c r="W39" s="35"/>
       <c r="Y39" s="38">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA39" s="39"/>
@@ -2845,48 +2801,28 @@
       <c r="AD39" s="41"/>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="B40" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40" s="96"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="53"/>
-      <c r="I40" s="53"/>
-      <c r="J40" s="53"/>
-      <c r="K40" s="53"/>
-      <c r="L40" s="53"/>
-      <c r="M40" s="53"/>
-      <c r="N40" s="53"/>
-      <c r="O40" s="53"/>
-      <c r="P40" s="53"/>
-      <c r="Q40" s="53"/>
-      <c r="R40" s="53"/>
-      <c r="S40" s="53"/>
-      <c r="T40" s="53"/>
-      <c r="U40" s="53"/>
-      <c r="V40" s="53"/>
-      <c r="W40" s="53"/>
-      <c r="X40" s="53"/>
-      <c r="Y40" s="54"/>
-      <c r="Z40" s="55"/>
-      <c r="AA40" s="56"/>
-      <c r="AB40" s="46"/>
-      <c r="AC40" s="61"/>
-      <c r="AD40" s="62"/>
+      <c r="A40">
+        <v>9</v>
+      </c>
+      <c r="B40" s="99"/>
+      <c r="W40" s="35"/>
+      <c r="Y40" s="38">
+        <f si="2" t="shared"/>
+        <v>0</v>
+      </c>
+      <c r="AA40" s="39"/>
+      <c r="AB40" s="31"/>
+      <c r="AC40" s="40"/>
+      <c r="AD40" s="41"/>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A41">
-        <v>1</v>
-      </c>
-      <c r="B41" s="99" t="s">
-        <v>37</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B41" s="42"/>
       <c r="W41" s="35"/>
       <c r="Y41" s="38">
-        <f t="shared" ref="Y41:Y50" si="3">SUM(C41:W41)</f>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA41" s="39"/>
@@ -2895,32 +2831,48 @@
       <c r="AD41" s="41"/>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="A42">
-        <v>2</v>
-      </c>
-      <c r="B42" s="99" t="s">
-        <v>98</v>
-      </c>
-      <c r="W42" s="35"/>
-      <c r="Y42" s="38">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AA42" s="39"/>
-      <c r="AB42" s="31"/>
-      <c r="AC42" s="40"/>
-      <c r="AD42" s="41"/>
+      <c r="B42" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="96"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="53"/>
+      <c r="I42" s="53"/>
+      <c r="J42" s="53"/>
+      <c r="K42" s="53"/>
+      <c r="L42" s="53"/>
+      <c r="M42" s="53"/>
+      <c r="N42" s="53"/>
+      <c r="O42" s="53"/>
+      <c r="P42" s="53"/>
+      <c r="Q42" s="53"/>
+      <c r="R42" s="53"/>
+      <c r="S42" s="53"/>
+      <c r="T42" s="53"/>
+      <c r="U42" s="53"/>
+      <c r="V42" s="53"/>
+      <c r="W42" s="53"/>
+      <c r="X42" s="53"/>
+      <c r="Y42" s="54"/>
+      <c r="Z42" s="55"/>
+      <c r="AA42" s="56"/>
+      <c r="AB42" s="46"/>
+      <c r="AC42" s="61"/>
+      <c r="AD42" s="62"/>
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B43" s="99" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="W43" s="35"/>
       <c r="Y43" s="38">
-        <f t="shared" si="3"/>
+        <f ref="Y43:Y52" si="3" t="shared">SUM(C43:W43)</f>
         <v>0</v>
       </c>
       <c r="AA43" s="39"/>
@@ -2930,14 +2882,14 @@
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B44" s="99" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="W44" s="35"/>
       <c r="Y44" s="38">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA44" s="39"/>
@@ -2947,14 +2899,14 @@
     </row>
     <row r="45" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A45">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B45" s="99" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="W45" s="35"/>
       <c r="Y45" s="38">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA45" s="39"/>
@@ -2964,14 +2916,14 @@
     </row>
     <row r="46" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A46">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B46" s="99" t="s">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="W46" s="35"/>
       <c r="Y46" s="38">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA46" s="39"/>
@@ -2981,14 +2933,14 @@
     </row>
     <row r="47" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A47">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B47" s="99" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W47" s="35"/>
       <c r="Y47" s="38">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA47" s="39"/>
@@ -2998,14 +2950,14 @@
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A48">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B48" s="99" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="W48" s="35"/>
       <c r="Y48" s="38">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA48" s="39"/>
@@ -3013,14 +2965,16 @@
       <c r="AC48" s="40"/>
       <c r="AD48" s="41"/>
     </row>
-    <row r="49" spans="1:42" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A49">
-        <v>9</v>
-      </c>
-      <c r="B49" s="99"/>
+        <v>7</v>
+      </c>
+      <c r="B49" s="99" t="s">
+        <v>40</v>
+      </c>
       <c r="W49" s="35"/>
       <c r="Y49" s="38">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA49" s="39"/>
@@ -3030,12 +2984,14 @@
     </row>
     <row r="50" spans="1:42" x14ac:dyDescent="0.5">
       <c r="A50">
-        <v>10</v>
-      </c>
-      <c r="B50" s="59"/>
+        <v>8</v>
+      </c>
+      <c r="B50" s="99" t="s">
+        <v>16</v>
+      </c>
       <c r="W50" s="35"/>
       <c r="Y50" s="38">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA50" s="39"/>
@@ -3044,73 +3000,46 @@
       <c r="AD50" s="41"/>
     </row>
     <row r="51" spans="1:42" x14ac:dyDescent="0.5">
-      <c r="B51" s="66" t="s">
+      <c r="A51">
+        <v>9</v>
+      </c>
+      <c r="B51" s="99"/>
+      <c r="W51" s="35"/>
+      <c r="Y51" s="38">
+        <f si="3" t="shared"/>
+        <v>0</v>
+      </c>
+      <c r="AA51" s="39"/>
+      <c r="AB51" s="31"/>
+      <c r="AC51" s="40"/>
+      <c r="AD51" s="41"/>
+    </row>
+    <row r="52" spans="1:42" x14ac:dyDescent="0.5">
+      <c r="A52">
+        <v>10</v>
+      </c>
+      <c r="B52" s="59"/>
+      <c r="W52" s="35"/>
+      <c r="Y52" s="38">
+        <f si="3" t="shared"/>
+        <v>0</v>
+      </c>
+      <c r="AA52" s="39"/>
+      <c r="AB52" s="31"/>
+      <c r="AC52" s="40"/>
+      <c r="AD52" s="41"/>
+    </row>
+    <row r="53" spans="1:42" x14ac:dyDescent="0.5">
+      <c r="B53" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="W51" s="35"/>
-      <c r="Y51" s="38"/>
-    </row>
-    <row r="52" spans="1:42" x14ac:dyDescent="0.5">
-      <c r="A52" s="68"/>
-      <c r="B52" s="69"/>
-      <c r="C52" s="70"/>
-      <c r="D52" s="71"/>
-      <c r="E52" s="71"/>
-      <c r="F52" s="71"/>
-      <c r="G52" s="71"/>
-      <c r="H52" s="71"/>
-      <c r="I52" s="71"/>
-      <c r="J52" s="71"/>
-      <c r="K52" s="71"/>
-      <c r="L52" s="71"/>
-      <c r="M52" s="71"/>
-      <c r="N52" s="71"/>
-      <c r="O52" s="71"/>
-      <c r="P52" s="71"/>
-      <c r="Q52" s="71"/>
-      <c r="R52" s="71"/>
-      <c r="S52" s="71"/>
-      <c r="T52" s="71"/>
-      <c r="U52" s="71"/>
-      <c r="V52" s="71"/>
-      <c r="W52" s="71"/>
-      <c r="X52" s="72"/>
-      <c r="Y52" s="73">
-        <f>SUM(Y8:Y50)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:42" x14ac:dyDescent="0.5">
-      <c r="A53" s="68"/>
-      <c r="B53" s="74"/>
-      <c r="C53" s="75"/>
-      <c r="D53" s="71"/>
-      <c r="E53" s="71"/>
-      <c r="F53" s="71"/>
-      <c r="G53" s="71"/>
-      <c r="H53" s="71"/>
-      <c r="I53" s="71"/>
-      <c r="J53" s="71"/>
-      <c r="K53" s="71"/>
-      <c r="L53" s="71"/>
-      <c r="M53" s="71"/>
-      <c r="N53" s="71"/>
-      <c r="O53" s="71"/>
-      <c r="P53" s="71"/>
-      <c r="Q53" s="71"/>
-      <c r="R53" s="71"/>
-      <c r="S53" s="71"/>
-      <c r="T53" s="71"/>
-      <c r="U53" s="71"/>
-      <c r="V53" s="71"/>
-      <c r="W53" s="71"/>
-      <c r="X53" s="76"/>
-      <c r="Y53" s="68"/>
+      <c r="W53" s="35"/>
+      <c r="Y53" s="38"/>
     </row>
     <row r="54" spans="1:42" x14ac:dyDescent="0.5">
       <c r="A54" s="68"/>
-      <c r="B54" s="74"/>
-      <c r="C54" s="75"/>
+      <c r="B54" s="69"/>
+      <c r="C54" s="70"/>
       <c r="D54" s="71"/>
       <c r="E54" s="71"/>
       <c r="F54" s="71"/>
@@ -3131,8 +3060,11 @@
       <c r="U54" s="71"/>
       <c r="V54" s="71"/>
       <c r="W54" s="71"/>
-      <c r="X54" s="76"/>
-      <c r="Y54" s="68"/>
+      <c r="X54" s="72"/>
+      <c r="Y54" s="73">
+        <f>SUM(Y8:Y52)</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="55" spans="1:42" x14ac:dyDescent="0.5">
       <c r="A55" s="68"/>
@@ -3164,7 +3096,7 @@
     <row r="56" spans="1:42" x14ac:dyDescent="0.5">
       <c r="A56" s="68"/>
       <c r="B56" s="74"/>
-      <c r="C56" s="77"/>
+      <c r="C56" s="75"/>
       <c r="D56" s="71"/>
       <c r="E56" s="71"/>
       <c r="F56" s="71"/>
@@ -3190,8 +3122,8 @@
     </row>
     <row r="57" spans="1:42" x14ac:dyDescent="0.5">
       <c r="A57" s="68"/>
-      <c r="B57" s="78"/>
-      <c r="C57" s="79"/>
+      <c r="B57" s="74"/>
+      <c r="C57" s="75"/>
       <c r="D57" s="71"/>
       <c r="E57" s="71"/>
       <c r="F57" s="71"/>
@@ -3214,89 +3146,61 @@
       <c r="W57" s="71"/>
       <c r="X57" s="76"/>
       <c r="Y57" s="68"/>
-      <c r="AF57" s="68"/>
     </row>
     <row r="58" spans="1:42" x14ac:dyDescent="0.5">
-      <c r="C58" s="80"/>
-      <c r="D58" s="80"/>
-      <c r="E58" s="80"/>
-      <c r="F58" s="80"/>
-      <c r="G58" s="80"/>
-      <c r="H58" s="80"/>
-      <c r="I58" s="80"/>
-      <c r="J58" s="80"/>
-      <c r="K58" s="80"/>
-      <c r="L58" s="80"/>
-      <c r="M58" s="80"/>
-      <c r="N58" s="80"/>
-      <c r="O58" s="80"/>
-      <c r="P58" s="80"/>
-      <c r="Q58" s="80"/>
-      <c r="R58" s="80"/>
-      <c r="S58" s="80"/>
-      <c r="T58" s="80"/>
-      <c r="U58" s="80"/>
-      <c r="V58" s="80"/>
-      <c r="W58" s="80"/>
-      <c r="X58" s="81"/>
-      <c r="Y58" s="80"/>
-      <c r="Z58" s="82"/>
-      <c r="AB58" s="83"/>
-      <c r="AC58" s="84"/>
-      <c r="AD58" s="85"/>
-      <c r="AE58" s="68"/>
-      <c r="AF58" s="68"/>
-      <c r="AG58" s="68"/>
-      <c r="AH58" s="68"/>
-      <c r="AI58" s="68"/>
-      <c r="AJ58" s="68"/>
-      <c r="AK58" s="68"/>
-      <c r="AL58" s="68"/>
-      <c r="AM58" s="68"/>
-      <c r="AN58" s="68"/>
-      <c r="AO58" s="68"/>
-      <c r="AP58" s="68"/>
+      <c r="A58" s="68"/>
+      <c r="B58" s="74"/>
+      <c r="C58" s="77"/>
+      <c r="D58" s="71"/>
+      <c r="E58" s="71"/>
+      <c r="F58" s="71"/>
+      <c r="G58" s="71"/>
+      <c r="H58" s="71"/>
+      <c r="I58" s="71"/>
+      <c r="J58" s="71"/>
+      <c r="K58" s="71"/>
+      <c r="L58" s="71"/>
+      <c r="M58" s="71"/>
+      <c r="N58" s="71"/>
+      <c r="O58" s="71"/>
+      <c r="P58" s="71"/>
+      <c r="Q58" s="71"/>
+      <c r="R58" s="71"/>
+      <c r="S58" s="71"/>
+      <c r="T58" s="71"/>
+      <c r="U58" s="71"/>
+      <c r="V58" s="71"/>
+      <c r="W58" s="71"/>
+      <c r="X58" s="76"/>
+      <c r="Y58" s="68"/>
     </row>
     <row r="59" spans="1:42" x14ac:dyDescent="0.5">
-      <c r="C59" s="80"/>
-      <c r="D59" s="80"/>
-      <c r="E59" s="80"/>
-      <c r="F59" s="80"/>
-      <c r="G59" s="80"/>
-      <c r="H59" s="80"/>
-      <c r="I59" s="80"/>
-      <c r="J59" s="80"/>
-      <c r="K59" s="80"/>
-      <c r="L59" s="80"/>
-      <c r="M59" s="80"/>
-      <c r="N59" s="80"/>
-      <c r="O59" s="80"/>
-      <c r="P59" s="80"/>
-      <c r="Q59" s="80"/>
-      <c r="R59" s="80"/>
-      <c r="S59" s="80"/>
-      <c r="T59" s="80"/>
-      <c r="U59" s="80"/>
-      <c r="V59" s="80"/>
-      <c r="W59" s="80"/>
-      <c r="X59" s="81"/>
-      <c r="Y59" s="80"/>
-      <c r="Z59" s="82"/>
-      <c r="AB59" s="83"/>
-      <c r="AC59" s="84"/>
-      <c r="AD59" s="85"/>
-      <c r="AE59" s="68"/>
+      <c r="A59" s="68"/>
+      <c r="B59" s="78"/>
+      <c r="C59" s="79"/>
+      <c r="D59" s="71"/>
+      <c r="E59" s="71"/>
+      <c r="F59" s="71"/>
+      <c r="G59" s="71"/>
+      <c r="H59" s="71"/>
+      <c r="I59" s="71"/>
+      <c r="J59" s="71"/>
+      <c r="K59" s="71"/>
+      <c r="L59" s="71"/>
+      <c r="M59" s="71"/>
+      <c r="N59" s="71"/>
+      <c r="O59" s="71"/>
+      <c r="P59" s="71"/>
+      <c r="Q59" s="71"/>
+      <c r="R59" s="71"/>
+      <c r="S59" s="71"/>
+      <c r="T59" s="71"/>
+      <c r="U59" s="71"/>
+      <c r="V59" s="71"/>
+      <c r="W59" s="71"/>
+      <c r="X59" s="76"/>
+      <c r="Y59" s="68"/>
       <c r="AF59" s="68"/>
-      <c r="AG59" s="68"/>
-      <c r="AH59" s="68"/>
-      <c r="AI59" s="68"/>
-      <c r="AJ59" s="68"/>
-      <c r="AK59" s="68"/>
-      <c r="AL59" s="68"/>
-      <c r="AM59" s="68"/>
-      <c r="AN59" s="68"/>
-      <c r="AO59" s="68"/>
-      <c r="AP59" s="68"/>
     </row>
     <row r="60" spans="1:42" x14ac:dyDescent="0.5">
       <c r="C60" s="80"/>
@@ -3503,7 +3407,7 @@
       <c r="AO64" s="68"/>
       <c r="AP64" s="68"/>
     </row>
-    <row r="65" spans="3:42" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:42" x14ac:dyDescent="0.5">
       <c r="C65" s="80"/>
       <c r="D65" s="80"/>
       <c r="E65" s="80"/>
@@ -5062,30 +4966,30 @@
       <c r="AP102" s="68"/>
     </row>
     <row r="103" spans="3:42" x14ac:dyDescent="0.5">
-      <c r="C103" s="86"/>
-      <c r="D103" s="86"/>
-      <c r="E103" s="86"/>
-      <c r="F103" s="86"/>
-      <c r="G103" s="86"/>
-      <c r="H103" s="86"/>
-      <c r="I103" s="86"/>
-      <c r="J103" s="86"/>
-      <c r="K103" s="86"/>
-      <c r="L103" s="86"/>
-      <c r="M103" s="86"/>
-      <c r="N103" s="86"/>
-      <c r="O103" s="86"/>
-      <c r="P103" s="86"/>
-      <c r="Q103" s="86"/>
-      <c r="R103" s="86"/>
-      <c r="S103" s="86"/>
-      <c r="T103" s="86"/>
-      <c r="U103" s="86"/>
-      <c r="V103" s="86"/>
-      <c r="W103" s="86"/>
-      <c r="X103" s="87"/>
-      <c r="Y103" s="86"/>
-      <c r="Z103" s="68"/>
+      <c r="C103" s="80"/>
+      <c r="D103" s="80"/>
+      <c r="E103" s="80"/>
+      <c r="F103" s="80"/>
+      <c r="G103" s="80"/>
+      <c r="H103" s="80"/>
+      <c r="I103" s="80"/>
+      <c r="J103" s="80"/>
+      <c r="K103" s="80"/>
+      <c r="L103" s="80"/>
+      <c r="M103" s="80"/>
+      <c r="N103" s="80"/>
+      <c r="O103" s="80"/>
+      <c r="P103" s="80"/>
+      <c r="Q103" s="80"/>
+      <c r="R103" s="80"/>
+      <c r="S103" s="80"/>
+      <c r="T103" s="80"/>
+      <c r="U103" s="80"/>
+      <c r="V103" s="80"/>
+      <c r="W103" s="80"/>
+      <c r="X103" s="81"/>
+      <c r="Y103" s="80"/>
+      <c r="Z103" s="82"/>
       <c r="AB103" s="83"/>
       <c r="AC103" s="84"/>
       <c r="AD103" s="85"/>
@@ -5103,30 +5007,30 @@
       <c r="AP103" s="68"/>
     </row>
     <row r="104" spans="3:42" x14ac:dyDescent="0.5">
-      <c r="C104" s="88"/>
-      <c r="D104" s="88"/>
-      <c r="E104" s="88"/>
-      <c r="F104" s="88"/>
-      <c r="G104" s="88"/>
-      <c r="H104" s="88"/>
-      <c r="I104" s="88"/>
-      <c r="J104" s="88"/>
-      <c r="K104" s="88"/>
-      <c r="L104" s="88"/>
-      <c r="M104" s="88"/>
-      <c r="N104" s="88"/>
-      <c r="O104" s="88"/>
-      <c r="P104" s="88"/>
-      <c r="Q104" s="88"/>
-      <c r="R104" s="88"/>
-      <c r="S104" s="88"/>
-      <c r="T104" s="88"/>
-      <c r="U104" s="88"/>
-      <c r="V104" s="88"/>
-      <c r="W104" s="88"/>
-      <c r="X104" s="89"/>
-      <c r="Y104" s="88"/>
-      <c r="Z104" s="68"/>
+      <c r="C104" s="80"/>
+      <c r="D104" s="80"/>
+      <c r="E104" s="80"/>
+      <c r="F104" s="80"/>
+      <c r="G104" s="80"/>
+      <c r="H104" s="80"/>
+      <c r="I104" s="80"/>
+      <c r="J104" s="80"/>
+      <c r="K104" s="80"/>
+      <c r="L104" s="80"/>
+      <c r="M104" s="80"/>
+      <c r="N104" s="80"/>
+      <c r="O104" s="80"/>
+      <c r="P104" s="80"/>
+      <c r="Q104" s="80"/>
+      <c r="R104" s="80"/>
+      <c r="S104" s="80"/>
+      <c r="T104" s="80"/>
+      <c r="U104" s="80"/>
+      <c r="V104" s="80"/>
+      <c r="W104" s="80"/>
+      <c r="X104" s="81"/>
+      <c r="Y104" s="80"/>
+      <c r="Z104" s="82"/>
       <c r="AB104" s="83"/>
       <c r="AC104" s="84"/>
       <c r="AD104" s="85"/>
@@ -5144,29 +5048,29 @@
       <c r="AP104" s="68"/>
     </row>
     <row r="105" spans="3:42" x14ac:dyDescent="0.5">
-      <c r="C105" s="88"/>
-      <c r="D105" s="88"/>
-      <c r="E105" s="88"/>
-      <c r="F105" s="88"/>
-      <c r="G105" s="88"/>
-      <c r="H105" s="88"/>
-      <c r="I105" s="88"/>
-      <c r="J105" s="88"/>
-      <c r="K105" s="88"/>
-      <c r="L105" s="88"/>
-      <c r="M105" s="88"/>
-      <c r="N105" s="88"/>
-      <c r="O105" s="88"/>
-      <c r="P105" s="88"/>
-      <c r="Q105" s="88"/>
-      <c r="R105" s="88"/>
-      <c r="S105" s="88"/>
-      <c r="T105" s="88"/>
-      <c r="U105" s="88"/>
-      <c r="V105" s="88"/>
-      <c r="W105" s="88"/>
-      <c r="X105" s="89"/>
-      <c r="Y105" s="88"/>
+      <c r="C105" s="86"/>
+      <c r="D105" s="86"/>
+      <c r="E105" s="86"/>
+      <c r="F105" s="86"/>
+      <c r="G105" s="86"/>
+      <c r="H105" s="86"/>
+      <c r="I105" s="86"/>
+      <c r="J105" s="86"/>
+      <c r="K105" s="86"/>
+      <c r="L105" s="86"/>
+      <c r="M105" s="86"/>
+      <c r="N105" s="86"/>
+      <c r="O105" s="86"/>
+      <c r="P105" s="86"/>
+      <c r="Q105" s="86"/>
+      <c r="R105" s="86"/>
+      <c r="S105" s="86"/>
+      <c r="T105" s="86"/>
+      <c r="U105" s="86"/>
+      <c r="V105" s="86"/>
+      <c r="W105" s="86"/>
+      <c r="X105" s="87"/>
+      <c r="Y105" s="86"/>
       <c r="Z105" s="68"/>
       <c r="AB105" s="83"/>
       <c r="AC105" s="84"/>
@@ -5664,6 +5568,7 @@
       <c r="AC117" s="84"/>
       <c r="AD117" s="85"/>
       <c r="AE117" s="68"/>
+      <c r="AF117" s="68"/>
       <c r="AG117" s="68"/>
       <c r="AH117" s="68"/>
       <c r="AI117" s="68"/>
@@ -5675,6 +5580,87 @@
       <c r="AO117" s="68"/>
       <c r="AP117" s="68"/>
     </row>
+    <row r="118" spans="3:42" x14ac:dyDescent="0.5">
+      <c r="C118" s="88"/>
+      <c r="D118" s="88"/>
+      <c r="E118" s="88"/>
+      <c r="F118" s="88"/>
+      <c r="G118" s="88"/>
+      <c r="H118" s="88"/>
+      <c r="I118" s="88"/>
+      <c r="J118" s="88"/>
+      <c r="K118" s="88"/>
+      <c r="L118" s="88"/>
+      <c r="M118" s="88"/>
+      <c r="N118" s="88"/>
+      <c r="O118" s="88"/>
+      <c r="P118" s="88"/>
+      <c r="Q118" s="88"/>
+      <c r="R118" s="88"/>
+      <c r="S118" s="88"/>
+      <c r="T118" s="88"/>
+      <c r="U118" s="88"/>
+      <c r="V118" s="88"/>
+      <c r="W118" s="88"/>
+      <c r="X118" s="89"/>
+      <c r="Y118" s="88"/>
+      <c r="Z118" s="68"/>
+      <c r="AB118" s="83"/>
+      <c r="AC118" s="84"/>
+      <c r="AD118" s="85"/>
+      <c r="AE118" s="68"/>
+      <c r="AF118" s="68"/>
+      <c r="AG118" s="68"/>
+      <c r="AH118" s="68"/>
+      <c r="AI118" s="68"/>
+      <c r="AJ118" s="68"/>
+      <c r="AK118" s="68"/>
+      <c r="AL118" s="68"/>
+      <c r="AM118" s="68"/>
+      <c r="AN118" s="68"/>
+      <c r="AO118" s="68"/>
+      <c r="AP118" s="68"/>
+    </row>
+    <row r="119" spans="3:42" x14ac:dyDescent="0.5">
+      <c r="C119" s="88"/>
+      <c r="D119" s="88"/>
+      <c r="E119" s="88"/>
+      <c r="F119" s="88"/>
+      <c r="G119" s="88"/>
+      <c r="H119" s="88"/>
+      <c r="I119" s="88"/>
+      <c r="J119" s="88"/>
+      <c r="K119" s="88"/>
+      <c r="L119" s="88"/>
+      <c r="M119" s="88"/>
+      <c r="N119" s="88"/>
+      <c r="O119" s="88"/>
+      <c r="P119" s="88"/>
+      <c r="Q119" s="88"/>
+      <c r="R119" s="88"/>
+      <c r="S119" s="88"/>
+      <c r="T119" s="88"/>
+      <c r="U119" s="88"/>
+      <c r="V119" s="88"/>
+      <c r="W119" s="88"/>
+      <c r="X119" s="89"/>
+      <c r="Y119" s="88"/>
+      <c r="Z119" s="68"/>
+      <c r="AB119" s="83"/>
+      <c r="AC119" s="84"/>
+      <c r="AD119" s="85"/>
+      <c r="AE119" s="68"/>
+      <c r="AG119" s="68"/>
+      <c r="AH119" s="68"/>
+      <c r="AI119" s="68"/>
+      <c r="AJ119" s="68"/>
+      <c r="AK119" s="68"/>
+      <c r="AL119" s="68"/>
+      <c r="AM119" s="68"/>
+      <c r="AN119" s="68"/>
+      <c r="AO119" s="68"/>
+      <c r="AP119" s="68"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="C1:W2"/>
@@ -5683,119 +5669,114 @@
     <mergeCell ref="X3:X4"/>
     <mergeCell ref="Y3:Y4"/>
   </mergeCells>
-  <conditionalFormatting sqref="X8:X17">
-    <cfRule type="cellIs" dxfId="40" priority="17" operator="greaterThan">
+  <conditionalFormatting sqref="X8:X17 X19:X30">
+    <cfRule dxfId="25" operator="greaterThan" priority="17" type="cellIs">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X19:X28">
-    <cfRule type="cellIs" dxfId="39" priority="16" operator="greaterThan">
+  <conditionalFormatting sqref="X32:X41">
+    <cfRule dxfId="24" operator="greaterThan" priority="15" type="cellIs">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X30:X39">
-    <cfRule type="cellIs" dxfId="38" priority="15" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X41:X50">
-    <cfRule type="cellIs" dxfId="37" priority="14" operator="greaterThan">
+  <conditionalFormatting sqref="X43:X52">
+    <cfRule dxfId="23" operator="greaterThan" priority="14" type="cellIs">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD8:AD17">
-    <cfRule type="cellIs" dxfId="36" priority="13" operator="equal">
+    <cfRule dxfId="22" operator="equal" priority="13" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD19:AD28">
-    <cfRule type="cellIs" dxfId="35" priority="11" operator="equal">
+  <conditionalFormatting sqref="AD19:AD30">
+    <cfRule dxfId="21" operator="equal" priority="11" type="cellIs">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="12" operator="equal">
+    <cfRule dxfId="20" operator="equal" priority="12" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD30:AD39">
-    <cfRule type="cellIs" dxfId="33" priority="10" operator="equal">
+  <conditionalFormatting sqref="AD32:AD41">
+    <cfRule dxfId="19" operator="equal" priority="10" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD41:AD50">
-    <cfRule type="cellIs" dxfId="32" priority="9" operator="equal">
+  <conditionalFormatting sqref="AD43:AD52">
+    <cfRule dxfId="18" operator="equal" priority="9" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AC108"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AD108"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" zoomScale="87" zoomScaleNormal="87" zoomScalePageLayoutView="87" workbookViewId="0">
+    <sheetView topLeftCell="A81" workbookViewId="0" zoomScale="87" zoomScaleNormal="87" zoomScalePageLayoutView="87">
       <selection activeCell="A105" sqref="A105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8203125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:29" ht="23.35" x14ac:dyDescent="0.5">
+    <row ht="23.35" r="1" spans="1:29" x14ac:dyDescent="0.5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="100"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
-      <c r="U1" s="101"/>
-      <c r="V1" s="101"/>
-      <c r="W1" s="102"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="109"/>
+      <c r="T1" s="109"/>
+      <c r="U1" s="109"/>
+      <c r="V1" s="109"/>
+      <c r="W1" s="110"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="3"/>
       <c r="AB1" s="4"/>
       <c r="AC1" s="5"/>
     </row>
-    <row r="2" spans="1:29" ht="23.35" x14ac:dyDescent="0.5">
+    <row ht="23.35" r="2" spans="1:29" x14ac:dyDescent="0.5">
       <c r="B2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="104"/>
-      <c r="P2" s="104"/>
-      <c r="Q2" s="104"/>
-      <c r="R2" s="104"/>
-      <c r="S2" s="104"/>
-      <c r="T2" s="104"/>
-      <c r="U2" s="104"/>
-      <c r="V2" s="104"/>
-      <c r="W2" s="105"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
+      <c r="Q2" s="112"/>
+      <c r="R2" s="112"/>
+      <c r="S2" s="112"/>
+      <c r="T2" s="112"/>
+      <c r="U2" s="112"/>
+      <c r="V2" s="112"/>
+      <c r="W2" s="113"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="3" t="s">
         <v>1</v>
@@ -5803,35 +5784,35 @@
       <c r="AB2" s="4"/>
       <c r="AC2" s="5"/>
     </row>
-    <row r="3" spans="1:29" ht="23.35" x14ac:dyDescent="0.5">
-      <c r="B3" s="106" t="s">
+    <row ht="23.35" r="3" spans="1:29" x14ac:dyDescent="0.5">
+      <c r="B3" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="108" t="s">
+      <c r="C3" s="116" t="s">
         <v>95</v>
       </c>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109"/>
-      <c r="N3" s="109"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="109"/>
-      <c r="Q3" s="109"/>
-      <c r="R3" s="109"/>
-      <c r="S3" s="109"/>
-      <c r="T3" s="109"/>
-      <c r="U3" s="109"/>
-      <c r="V3" s="109"/>
-      <c r="W3" s="110"/>
-      <c r="X3" s="114"/>
-      <c r="Y3" s="116" t="s">
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="117"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="117"/>
+      <c r="N3" s="117"/>
+      <c r="O3" s="117"/>
+      <c r="P3" s="117"/>
+      <c r="Q3" s="117"/>
+      <c r="R3" s="117"/>
+      <c r="S3" s="117"/>
+      <c r="T3" s="117"/>
+      <c r="U3" s="117"/>
+      <c r="V3" s="117"/>
+      <c r="W3" s="118"/>
+      <c r="X3" s="122"/>
+      <c r="Y3" s="124" t="s">
         <v>3</v>
       </c>
       <c r="AA3" t="s">
@@ -5841,30 +5822,30 @@
       <c r="AC3" s="5"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.5">
-      <c r="B4" s="107"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
-      <c r="H4" s="112"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="112"/>
-      <c r="K4" s="112"/>
-      <c r="L4" s="112"/>
-      <c r="M4" s="112"/>
-      <c r="N4" s="112"/>
-      <c r="O4" s="112"/>
-      <c r="P4" s="112"/>
-      <c r="Q4" s="112"/>
-      <c r="R4" s="112"/>
-      <c r="S4" s="112"/>
-      <c r="T4" s="112"/>
-      <c r="U4" s="112"/>
-      <c r="V4" s="112"/>
-      <c r="W4" s="113"/>
-      <c r="X4" s="115"/>
-      <c r="Y4" s="117"/>
+      <c r="B4" s="115"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="120"/>
+      <c r="K4" s="120"/>
+      <c r="L4" s="120"/>
+      <c r="M4" s="120"/>
+      <c r="N4" s="120"/>
+      <c r="O4" s="120"/>
+      <c r="P4" s="120"/>
+      <c r="Q4" s="120"/>
+      <c r="R4" s="120"/>
+      <c r="S4" s="120"/>
+      <c r="T4" s="120"/>
+      <c r="U4" s="120"/>
+      <c r="V4" s="120"/>
+      <c r="W4" s="121"/>
+      <c r="X4" s="123"/>
+      <c r="Y4" s="125"/>
       <c r="AA4" t="s">
         <v>73</v>
       </c>
@@ -5872,7 +5853,7 @@
       <c r="AC4" s="8"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.5">
-      <c r="B5" s="107"/>
+      <c r="B5" s="115"/>
       <c r="C5" s="10" t="s">
         <v>5</v>
       </c>
@@ -5944,8 +5925,8 @@
       <c r="AB5" s="4"/>
       <c r="AC5" s="13"/>
     </row>
-    <row r="6" spans="1:29" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="107"/>
+    <row ht="14.7" r="6" spans="1:29" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="115"/>
       <c r="C6" s="14">
         <v>1</v>
       </c>
@@ -6112,7 +6093,7 @@
       <c r="W9" s="92"/>
       <c r="X9" s="37"/>
       <c r="Y9" s="38">
-        <f t="shared" ref="Y9:Y27" si="0">SUM(C9:W9)</f>
+        <f ref="Y9:Y27" si="0" t="shared">SUM(C9:W9)</f>
         <v>0</v>
       </c>
       <c r="AA9" s="39"/>
@@ -6149,7 +6130,7 @@
       <c r="W10" s="92"/>
       <c r="X10" s="37"/>
       <c r="Y10" s="38">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA10" s="39"/>
@@ -6186,7 +6167,7 @@
       <c r="W11" s="92"/>
       <c r="X11" s="37"/>
       <c r="Y11" s="38">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA11" s="39"/>
@@ -6223,7 +6204,7 @@
       <c r="W12" s="92"/>
       <c r="X12" s="37"/>
       <c r="Y12" s="38">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA12" s="39"/>
@@ -6260,7 +6241,7 @@
       <c r="W13" s="92"/>
       <c r="X13" s="37"/>
       <c r="Y13" s="38">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA13" s="39"/>
@@ -6297,7 +6278,7 @@
       <c r="W14" s="92"/>
       <c r="X14" s="37"/>
       <c r="Y14" s="38">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA14" s="39"/>
@@ -6334,7 +6315,7 @@
       <c r="W15" s="92"/>
       <c r="X15" s="37"/>
       <c r="Y15" s="38">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA15" s="39"/>
@@ -6371,7 +6352,7 @@
       <c r="W16" s="92"/>
       <c r="X16" s="37"/>
       <c r="Y16" s="38">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA16" s="39"/>
@@ -6408,7 +6389,7 @@
       <c r="W17" s="92"/>
       <c r="X17" s="37"/>
       <c r="Y17" s="38">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA17" s="39"/>
@@ -6445,7 +6426,7 @@
       <c r="W18" s="92"/>
       <c r="X18" s="37"/>
       <c r="Y18" s="38">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA18" s="39"/>
@@ -6482,7 +6463,7 @@
       <c r="W19" s="92"/>
       <c r="X19" s="37"/>
       <c r="Y19" s="38">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA19" s="39"/>
@@ -6519,7 +6500,7 @@
       <c r="W20" s="92"/>
       <c r="X20" s="37"/>
       <c r="Y20" s="38">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA20" s="39"/>
@@ -6556,7 +6537,7 @@
       <c r="W21" s="92"/>
       <c r="X21" s="37"/>
       <c r="Y21" s="38">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA21" s="39"/>
@@ -6593,7 +6574,7 @@
       <c r="W22" s="92"/>
       <c r="X22" s="37"/>
       <c r="Y22" s="38">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA22" s="39"/>
@@ -6630,7 +6611,7 @@
       <c r="W23" s="92"/>
       <c r="X23" s="37"/>
       <c r="Y23" s="38">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA23" s="39"/>
@@ -6667,7 +6648,7 @@
       <c r="W24" s="92"/>
       <c r="X24" s="37"/>
       <c r="Y24" s="38">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA24" s="39"/>
@@ -6704,7 +6685,7 @@
       <c r="W25" s="92"/>
       <c r="X25" s="37"/>
       <c r="Y25" s="38">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA25" s="39"/>
@@ -6741,7 +6722,7 @@
       <c r="W26" s="92"/>
       <c r="X26" s="37"/>
       <c r="Y26" s="38">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA26" s="39"/>
@@ -6778,7 +6759,7 @@
       <c r="W27" s="92"/>
       <c r="X27" s="37"/>
       <c r="Y27" s="38">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA27" s="43"/>
@@ -6910,7 +6891,7 @@
       <c r="W31" s="35"/>
       <c r="X31" s="37"/>
       <c r="Y31" s="38">
-        <f t="shared" ref="Y31:Y54" si="1">SUM(C31:W31)</f>
+        <f ref="Y31:Y54" si="1" t="shared">SUM(C31:W31)</f>
         <v>0</v>
       </c>
       <c r="AA31" s="39"/>
@@ -6947,7 +6928,7 @@
       <c r="W32" s="35"/>
       <c r="X32" s="37"/>
       <c r="Y32" s="38">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA32" s="39"/>
@@ -6984,7 +6965,7 @@
       <c r="W33" s="35"/>
       <c r="X33" s="37"/>
       <c r="Y33" s="38">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA33" s="39"/>
@@ -7021,7 +7002,7 @@
       <c r="W34" s="35"/>
       <c r="X34" s="37"/>
       <c r="Y34" s="38">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA34" s="39"/>
@@ -7058,7 +7039,7 @@
       <c r="W35" s="35"/>
       <c r="X35" s="37"/>
       <c r="Y35" s="38">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA35" s="39"/>
@@ -7095,7 +7076,7 @@
       <c r="W36" s="35"/>
       <c r="X36" s="37"/>
       <c r="Y36" s="38">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA36" s="39"/>
@@ -7132,7 +7113,7 @@
       <c r="W37" s="35"/>
       <c r="X37" s="37"/>
       <c r="Y37" s="38">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA37" s="39"/>
@@ -7169,7 +7150,7 @@
       <c r="W38" s="35"/>
       <c r="X38" s="37"/>
       <c r="Y38" s="38">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA38" s="39"/>
@@ -7206,7 +7187,7 @@
       <c r="W39" s="35"/>
       <c r="X39" s="37"/>
       <c r="Y39" s="38">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA39" s="39"/>
@@ -7243,7 +7224,7 @@
       <c r="W40" s="35"/>
       <c r="X40" s="37"/>
       <c r="Y40" s="38">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA40" s="39"/>
@@ -7280,7 +7261,7 @@
       <c r="W41" s="35"/>
       <c r="X41" s="37"/>
       <c r="Y41" s="38">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA41" s="39"/>
@@ -7317,7 +7298,7 @@
       <c r="W42" s="35"/>
       <c r="X42" s="37"/>
       <c r="Y42" s="38">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA42" s="39"/>
@@ -7354,7 +7335,7 @@
       <c r="W43" s="35"/>
       <c r="X43" s="37"/>
       <c r="Y43" s="38">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA43" s="39"/>
@@ -7391,7 +7372,7 @@
       <c r="W44" s="35"/>
       <c r="X44" s="37"/>
       <c r="Y44" s="38">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA44" s="39"/>
@@ -7428,7 +7409,7 @@
       <c r="W45" s="35"/>
       <c r="X45" s="37"/>
       <c r="Y45" s="38">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA45" s="39"/>
@@ -7465,7 +7446,7 @@
       <c r="W46" s="35"/>
       <c r="X46" s="37"/>
       <c r="Y46" s="38">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA46" s="39"/>
@@ -7502,7 +7483,7 @@
       <c r="W47" s="35"/>
       <c r="X47" s="37"/>
       <c r="Y47" s="38">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA47" s="39"/>
@@ -7539,7 +7520,7 @@
       <c r="W48" s="35"/>
       <c r="X48" s="37"/>
       <c r="Y48" s="38">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA48" s="39"/>
@@ -7576,7 +7557,7 @@
       <c r="W49" s="35"/>
       <c r="X49" s="37"/>
       <c r="Y49" s="38">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA49" s="39"/>
@@ -7613,7 +7594,7 @@
       <c r="W50" s="35"/>
       <c r="X50" s="37"/>
       <c r="Y50" s="38">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA50" s="39"/>
@@ -7650,7 +7631,7 @@
       <c r="W51" s="35"/>
       <c r="X51" s="37"/>
       <c r="Y51" s="38">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA51" s="39"/>
@@ -7687,7 +7668,7 @@
       <c r="W52" s="35"/>
       <c r="X52" s="37"/>
       <c r="Y52" s="38">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA52" s="39"/>
@@ -7724,7 +7705,7 @@
       <c r="W53" s="35"/>
       <c r="X53" s="37"/>
       <c r="Y53" s="38">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA53" s="39"/>
@@ -7759,7 +7740,7 @@
       <c r="W54" s="35"/>
       <c r="X54" s="37"/>
       <c r="Y54" s="38">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA54" s="43"/>
@@ -7860,7 +7841,7 @@
       <c r="W57" s="35"/>
       <c r="X57" s="37"/>
       <c r="Y57" s="38">
-        <f t="shared" ref="Y57:Y79" si="2">SUM(C57:W57)</f>
+        <f ref="Y57:Y79" si="2" t="shared">SUM(C57:W57)</f>
         <v>0</v>
       </c>
       <c r="AA57" s="39"/>
@@ -7897,7 +7878,7 @@
       <c r="W58" s="35"/>
       <c r="X58" s="37"/>
       <c r="Y58" s="38">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA58" s="39"/>
@@ -7934,7 +7915,7 @@
       <c r="W59" s="35"/>
       <c r="X59" s="37"/>
       <c r="Y59" s="38">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA59" s="39"/>
@@ -7971,7 +7952,7 @@
       <c r="W60" s="35"/>
       <c r="X60" s="37"/>
       <c r="Y60" s="38">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA60" s="39"/>
@@ -8008,7 +7989,7 @@
       <c r="W61" s="35"/>
       <c r="X61" s="37"/>
       <c r="Y61" s="38">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA61" s="39"/>
@@ -8045,7 +8026,7 @@
       <c r="W62" s="35"/>
       <c r="X62" s="37"/>
       <c r="Y62" s="38">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA62" s="39"/>
@@ -8082,7 +8063,7 @@
       <c r="W63" s="35"/>
       <c r="X63" s="37"/>
       <c r="Y63" s="38">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA63" s="39"/>
@@ -8119,7 +8100,7 @@
       <c r="W64" s="35"/>
       <c r="X64" s="37"/>
       <c r="Y64" s="38">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA64" s="39"/>
@@ -8156,7 +8137,7 @@
       <c r="W65" s="35"/>
       <c r="X65" s="37"/>
       <c r="Y65" s="38">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA65" s="39"/>
@@ -8193,7 +8174,7 @@
       <c r="W66" s="35"/>
       <c r="X66" s="37"/>
       <c r="Y66" s="38">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA66" s="39"/>
@@ -8230,7 +8211,7 @@
       <c r="W67" s="35"/>
       <c r="X67" s="37"/>
       <c r="Y67" s="38">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA67" s="39"/>
@@ -8267,7 +8248,7 @@
       <c r="W68" s="35"/>
       <c r="X68" s="37"/>
       <c r="Y68" s="38">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA68" s="39"/>
@@ -8304,7 +8285,7 @@
       <c r="W69" s="35"/>
       <c r="X69" s="37"/>
       <c r="Y69" s="38">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA69" s="39"/>
@@ -8341,7 +8322,7 @@
       <c r="W70" s="35"/>
       <c r="X70" s="37"/>
       <c r="Y70" s="38">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA70" s="39"/>
@@ -8378,7 +8359,7 @@
       <c r="W71" s="35"/>
       <c r="X71" s="37"/>
       <c r="Y71" s="38">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA71" s="39"/>
@@ -8415,7 +8396,7 @@
       <c r="W72" s="35"/>
       <c r="X72" s="37"/>
       <c r="Y72" s="38">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA72" s="39"/>
@@ -8452,7 +8433,7 @@
       <c r="W73" s="35"/>
       <c r="X73" s="37"/>
       <c r="Y73" s="38">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA73" s="39"/>
@@ -8489,7 +8470,7 @@
       <c r="W74" s="35"/>
       <c r="X74" s="37"/>
       <c r="Y74" s="38">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA74" s="39"/>
@@ -8526,7 +8507,7 @@
       <c r="W75" s="35"/>
       <c r="X75" s="37"/>
       <c r="Y75" s="38">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA75" s="39"/>
@@ -8563,7 +8544,7 @@
       <c r="W76" s="35"/>
       <c r="X76" s="37"/>
       <c r="Y76" s="38">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA76" s="39"/>
@@ -8600,7 +8581,7 @@
       <c r="W77" s="35"/>
       <c r="X77" s="37"/>
       <c r="Y77" s="38">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA77" s="39"/>
@@ -8637,7 +8618,7 @@
       <c r="W78" s="35"/>
       <c r="X78" s="37"/>
       <c r="Y78" s="38">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA78" s="39"/>
@@ -8674,7 +8655,7 @@
       <c r="W79" s="35"/>
       <c r="X79" s="37"/>
       <c r="Y79" s="38">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA79" s="43"/>
@@ -8807,7 +8788,7 @@
       <c r="W83" s="35"/>
       <c r="X83" s="37"/>
       <c r="Y83" s="38">
-        <f t="shared" ref="Y83:Y102" si="3">SUM(C83:W83)</f>
+        <f ref="Y83:Y102" si="3" t="shared">SUM(C83:W83)</f>
         <v>0</v>
       </c>
       <c r="AA83" s="39"/>
@@ -8844,7 +8825,7 @@
       <c r="W84" s="35"/>
       <c r="X84" s="37"/>
       <c r="Y84" s="38">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA84" s="39"/>
@@ -8881,7 +8862,7 @@
       <c r="W85" s="35"/>
       <c r="X85" s="37"/>
       <c r="Y85" s="38">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA85" s="39"/>
@@ -8918,7 +8899,7 @@
       <c r="W86" s="35"/>
       <c r="X86" s="37"/>
       <c r="Y86" s="38">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA86" s="39"/>
@@ -8955,7 +8936,7 @@
       <c r="W87" s="35"/>
       <c r="X87" s="37"/>
       <c r="Y87" s="38">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA87" s="39"/>
@@ -8992,7 +8973,7 @@
       <c r="W88" s="35"/>
       <c r="X88" s="37"/>
       <c r="Y88" s="38">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA88" s="39"/>
@@ -9029,7 +9010,7 @@
       <c r="W89" s="35"/>
       <c r="X89" s="37"/>
       <c r="Y89" s="38">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA89" s="39"/>
@@ -9066,7 +9047,7 @@
       <c r="W90" s="35"/>
       <c r="X90" s="37"/>
       <c r="Y90" s="38">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA90" s="39"/>
@@ -9103,7 +9084,7 @@
       <c r="W91" s="35"/>
       <c r="X91" s="37"/>
       <c r="Y91" s="38">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA91" s="39"/>
@@ -9140,7 +9121,7 @@
       <c r="W92" s="35"/>
       <c r="X92" s="37"/>
       <c r="Y92" s="38">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA92" s="39"/>
@@ -9177,7 +9158,7 @@
       <c r="W93" s="35"/>
       <c r="X93" s="37"/>
       <c r="Y93" s="38">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA93" s="39"/>
@@ -9214,7 +9195,7 @@
       <c r="W94" s="35"/>
       <c r="X94" s="37"/>
       <c r="Y94" s="38">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA94" s="39"/>
@@ -9251,7 +9232,7 @@
       <c r="W95" s="35"/>
       <c r="X95" s="37"/>
       <c r="Y95" s="38">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA95" s="39"/>
@@ -9288,7 +9269,7 @@
       <c r="W96" s="35"/>
       <c r="X96" s="37"/>
       <c r="Y96" s="38">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA96" s="39"/>
@@ -9325,7 +9306,7 @@
       <c r="W97" s="35"/>
       <c r="X97" s="37"/>
       <c r="Y97" s="38">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA97" s="39"/>
@@ -9362,7 +9343,7 @@
       <c r="W98" s="35"/>
       <c r="X98" s="37"/>
       <c r="Y98" s="38">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA98" s="39"/>
@@ -9399,7 +9380,7 @@
       <c r="W99" s="35"/>
       <c r="X99" s="37"/>
       <c r="Y99" s="38">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA99" s="39"/>
@@ -9436,7 +9417,7 @@
       <c r="W100" s="35"/>
       <c r="X100" s="37"/>
       <c r="Y100" s="38">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA100" s="39"/>
@@ -9473,7 +9454,7 @@
       <c r="W101" s="35"/>
       <c r="X101" s="37"/>
       <c r="Y101" s="38">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA101" s="39"/>
@@ -9510,7 +9491,7 @@
       <c r="W102" s="35"/>
       <c r="X102" s="37"/>
       <c r="Y102" s="38">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA102" s="43"/>
@@ -9581,7 +9562,7 @@
       <c r="AB104" s="4"/>
       <c r="AC104" s="13"/>
     </row>
-    <row r="105" spans="1:29" ht="22.7" x14ac:dyDescent="0.5">
+    <row ht="22.7" r="105" spans="1:29" x14ac:dyDescent="0.5">
       <c r="B105" s="66" t="s">
         <v>100</v>
       </c>
@@ -9710,62 +9691,62 @@
     <mergeCell ref="Y3:Y4"/>
   </mergeCells>
   <conditionalFormatting sqref="X28">
-    <cfRule type="cellIs" dxfId="23" priority="10" operator="greaterThan">
+    <cfRule dxfId="17" operator="greaterThan" priority="10" type="cellIs">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X8:X29">
-    <cfRule type="cellIs" dxfId="22" priority="9" operator="greaterThan">
+    <cfRule dxfId="16" operator="greaterThan" priority="9" type="cellIs">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X31:X53">
-    <cfRule type="cellIs" dxfId="21" priority="8" operator="greaterThan">
+    <cfRule dxfId="15" operator="greaterThan" priority="8" type="cellIs">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X57:X79">
-    <cfRule type="cellIs" dxfId="20" priority="7" operator="greaterThan">
+    <cfRule dxfId="14" operator="greaterThan" priority="7" type="cellIs">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X83:X104">
-    <cfRule type="cellIs" dxfId="19" priority="6" operator="greaterThan">
+    <cfRule dxfId="13" operator="greaterThan" priority="6" type="cellIs">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X54">
-    <cfRule type="cellIs" dxfId="18" priority="5" operator="greaterThan">
+    <cfRule dxfId="12" operator="greaterThan" priority="5" type="cellIs">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA28">
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="lessThan">
+    <cfRule dxfId="11" operator="lessThan" priority="4" type="cellIs">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA55">
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="lessThan">
+    <cfRule dxfId="10" operator="lessThan" priority="3" type="cellIs">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA80">
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="lessThan">
+    <cfRule dxfId="9" operator="lessThan" priority="2" type="cellIs">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA103">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="lessThan">
+    <cfRule dxfId="8" operator="lessThan" priority="1" type="cellIs">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AC108"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AD108"/>
   <sheetViews>
     <sheetView topLeftCell="A87" workbookViewId="0">
       <selection activeCell="A105" sqref="A105"/>
@@ -9773,61 +9754,61 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8203125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:29" ht="23.35" x14ac:dyDescent="0.5">
+    <row ht="23.35" r="1" spans="1:29" x14ac:dyDescent="0.5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="100"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
-      <c r="U1" s="101"/>
-      <c r="V1" s="101"/>
-      <c r="W1" s="102"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="109"/>
+      <c r="T1" s="109"/>
+      <c r="U1" s="109"/>
+      <c r="V1" s="109"/>
+      <c r="W1" s="110"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="3"/>
       <c r="AB1" s="4"/>
       <c r="AC1" s="5"/>
     </row>
-    <row r="2" spans="1:29" ht="23.35" x14ac:dyDescent="0.5">
+    <row ht="23.35" r="2" spans="1:29" x14ac:dyDescent="0.5">
       <c r="B2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="104"/>
-      <c r="P2" s="104"/>
-      <c r="Q2" s="104"/>
-      <c r="R2" s="104"/>
-      <c r="S2" s="104"/>
-      <c r="T2" s="104"/>
-      <c r="U2" s="104"/>
-      <c r="V2" s="104"/>
-      <c r="W2" s="105"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
+      <c r="Q2" s="112"/>
+      <c r="R2" s="112"/>
+      <c r="S2" s="112"/>
+      <c r="T2" s="112"/>
+      <c r="U2" s="112"/>
+      <c r="V2" s="112"/>
+      <c r="W2" s="113"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="3" t="s">
         <v>1</v>
@@ -9835,35 +9816,35 @@
       <c r="AB2" s="4"/>
       <c r="AC2" s="5"/>
     </row>
-    <row r="3" spans="1:29" ht="23.35" x14ac:dyDescent="0.5">
-      <c r="B3" s="106" t="s">
+    <row ht="23.35" r="3" spans="1:29" x14ac:dyDescent="0.5">
+      <c r="B3" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="108" t="s">
+      <c r="C3" s="116" t="s">
         <v>96</v>
       </c>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109"/>
-      <c r="N3" s="109"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="109"/>
-      <c r="Q3" s="109"/>
-      <c r="R3" s="109"/>
-      <c r="S3" s="109"/>
-      <c r="T3" s="109"/>
-      <c r="U3" s="109"/>
-      <c r="V3" s="109"/>
-      <c r="W3" s="110"/>
-      <c r="X3" s="114"/>
-      <c r="Y3" s="116" t="s">
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="117"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="117"/>
+      <c r="N3" s="117"/>
+      <c r="O3" s="117"/>
+      <c r="P3" s="117"/>
+      <c r="Q3" s="117"/>
+      <c r="R3" s="117"/>
+      <c r="S3" s="117"/>
+      <c r="T3" s="117"/>
+      <c r="U3" s="117"/>
+      <c r="V3" s="117"/>
+      <c r="W3" s="118"/>
+      <c r="X3" s="122"/>
+      <c r="Y3" s="124" t="s">
         <v>3</v>
       </c>
       <c r="AA3" t="s">
@@ -9873,30 +9854,30 @@
       <c r="AC3" s="5"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.5">
-      <c r="B4" s="107"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
-      <c r="H4" s="112"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="112"/>
-      <c r="K4" s="112"/>
-      <c r="L4" s="112"/>
-      <c r="M4" s="112"/>
-      <c r="N4" s="112"/>
-      <c r="O4" s="112"/>
-      <c r="P4" s="112"/>
-      <c r="Q4" s="112"/>
-      <c r="R4" s="112"/>
-      <c r="S4" s="112"/>
-      <c r="T4" s="112"/>
-      <c r="U4" s="112"/>
-      <c r="V4" s="112"/>
-      <c r="W4" s="113"/>
-      <c r="X4" s="115"/>
-      <c r="Y4" s="117"/>
+      <c r="B4" s="115"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="120"/>
+      <c r="K4" s="120"/>
+      <c r="L4" s="120"/>
+      <c r="M4" s="120"/>
+      <c r="N4" s="120"/>
+      <c r="O4" s="120"/>
+      <c r="P4" s="120"/>
+      <c r="Q4" s="120"/>
+      <c r="R4" s="120"/>
+      <c r="S4" s="120"/>
+      <c r="T4" s="120"/>
+      <c r="U4" s="120"/>
+      <c r="V4" s="120"/>
+      <c r="W4" s="121"/>
+      <c r="X4" s="123"/>
+      <c r="Y4" s="125"/>
       <c r="AA4" t="s">
         <v>73</v>
       </c>
@@ -9904,7 +9885,7 @@
       <c r="AC4" s="8"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.5">
-      <c r="B5" s="107"/>
+      <c r="B5" s="115"/>
       <c r="C5" s="11" t="s">
         <v>6</v>
       </c>
@@ -9978,8 +9959,8 @@
       <c r="AB5" s="4"/>
       <c r="AC5" s="13"/>
     </row>
-    <row r="6" spans="1:29" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="107"/>
+    <row ht="14.7" r="6" spans="1:29" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="115"/>
       <c r="C6" s="14">
         <v>1</v>
       </c>
@@ -10148,7 +10129,7 @@
       <c r="W9" s="35"/>
       <c r="X9" s="35"/>
       <c r="Y9" s="38">
-        <f t="shared" ref="Y9:Y27" si="0">SUM(C9:W9)</f>
+        <f ref="Y9:Y27" si="0" t="shared">SUM(C9:W9)</f>
         <v>0</v>
       </c>
       <c r="AA9" s="39"/>
@@ -10185,7 +10166,7 @@
       <c r="W10" s="35"/>
       <c r="X10" s="35"/>
       <c r="Y10" s="38">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA10" s="39"/>
@@ -10222,7 +10203,7 @@
       <c r="W11" s="35"/>
       <c r="X11" s="35"/>
       <c r="Y11" s="38">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA11" s="39"/>
@@ -10259,7 +10240,7 @@
       <c r="W12" s="35"/>
       <c r="X12" s="35"/>
       <c r="Y12" s="38">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA12" s="39"/>
@@ -10296,7 +10277,7 @@
       <c r="W13" s="35"/>
       <c r="X13" s="35"/>
       <c r="Y13" s="38">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA13" s="39"/>
@@ -10333,7 +10314,7 @@
       <c r="W14" s="35"/>
       <c r="X14" s="35"/>
       <c r="Y14" s="38">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA14" s="39"/>
@@ -10370,7 +10351,7 @@
       <c r="W15" s="35"/>
       <c r="X15" s="35"/>
       <c r="Y15" s="38">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA15" s="39"/>
@@ -10407,7 +10388,7 @@
       <c r="W16" s="35"/>
       <c r="X16" s="35"/>
       <c r="Y16" s="38">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA16" s="39"/>
@@ -10444,7 +10425,7 @@
       <c r="W17" s="35"/>
       <c r="X17" s="35"/>
       <c r="Y17" s="38">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA17" s="39"/>
@@ -10481,7 +10462,7 @@
       <c r="W18" s="35"/>
       <c r="X18" s="35"/>
       <c r="Y18" s="38">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA18" s="39"/>
@@ -10518,7 +10499,7 @@
       <c r="W19" s="35"/>
       <c r="X19" s="35"/>
       <c r="Y19" s="38">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA19" s="39"/>
@@ -10555,7 +10536,7 @@
       <c r="W20" s="35"/>
       <c r="X20" s="35"/>
       <c r="Y20" s="38">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA20" s="39"/>
@@ -10592,7 +10573,7 @@
       <c r="W21" s="35"/>
       <c r="X21" s="35"/>
       <c r="Y21" s="38">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA21" s="39"/>
@@ -10629,7 +10610,7 @@
       <c r="W22" s="35"/>
       <c r="X22" s="35"/>
       <c r="Y22" s="38">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA22" s="39"/>
@@ -10666,7 +10647,7 @@
       <c r="W23" s="35"/>
       <c r="X23" s="35"/>
       <c r="Y23" s="38">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA23" s="39"/>
@@ -10703,7 +10684,7 @@
       <c r="W24" s="35"/>
       <c r="X24" s="35"/>
       <c r="Y24" s="38">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA24" s="39"/>
@@ -10740,7 +10721,7 @@
       <c r="W25" s="35"/>
       <c r="X25" s="35"/>
       <c r="Y25" s="38">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA25" s="39"/>
@@ -10777,7 +10758,7 @@
       <c r="W26" s="35"/>
       <c r="X26" s="35"/>
       <c r="Y26" s="38">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA26" s="39"/>
@@ -10814,7 +10795,7 @@
       <c r="W27" s="35"/>
       <c r="X27" s="35"/>
       <c r="Y27" s="38">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA27" s="43"/>
@@ -10946,7 +10927,7 @@
       <c r="W31" s="35"/>
       <c r="X31" s="35"/>
       <c r="Y31" s="38">
-        <f t="shared" ref="Y31:Y54" si="1">SUM(C31:W31)</f>
+        <f ref="Y31:Y54" si="1" t="shared">SUM(C31:W31)</f>
         <v>0</v>
       </c>
       <c r="AA31" s="39"/>
@@ -10983,7 +10964,7 @@
       <c r="W32" s="35"/>
       <c r="X32" s="35"/>
       <c r="Y32" s="38">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA32" s="39"/>
@@ -11020,7 +11001,7 @@
       <c r="W33" s="35"/>
       <c r="X33" s="35"/>
       <c r="Y33" s="38">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA33" s="39"/>
@@ -11057,7 +11038,7 @@
       <c r="W34" s="35"/>
       <c r="X34" s="35"/>
       <c r="Y34" s="38">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA34" s="39"/>
@@ -11094,7 +11075,7 @@
       <c r="W35" s="35"/>
       <c r="X35" s="35"/>
       <c r="Y35" s="38">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA35" s="39"/>
@@ -11131,7 +11112,7 @@
       <c r="W36" s="35"/>
       <c r="X36" s="35"/>
       <c r="Y36" s="38">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA36" s="39"/>
@@ -11168,7 +11149,7 @@
       <c r="W37" s="35"/>
       <c r="X37" s="35"/>
       <c r="Y37" s="38">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA37" s="39"/>
@@ -11205,7 +11186,7 @@
       <c r="W38" s="35"/>
       <c r="X38" s="35"/>
       <c r="Y38" s="38">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA38" s="39"/>
@@ -11242,7 +11223,7 @@
       <c r="W39" s="35"/>
       <c r="X39" s="35"/>
       <c r="Y39" s="38">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA39" s="39"/>
@@ -11279,7 +11260,7 @@
       <c r="W40" s="35"/>
       <c r="X40" s="35"/>
       <c r="Y40" s="38">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA40" s="39"/>
@@ -11316,7 +11297,7 @@
       <c r="W41" s="35"/>
       <c r="X41" s="35"/>
       <c r="Y41" s="38">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA41" s="39"/>
@@ -11353,7 +11334,7 @@
       <c r="W42" s="35"/>
       <c r="X42" s="35"/>
       <c r="Y42" s="38">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA42" s="39"/>
@@ -11390,7 +11371,7 @@
       <c r="W43" s="35"/>
       <c r="X43" s="35"/>
       <c r="Y43" s="38">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA43" s="39"/>
@@ -11427,7 +11408,7 @@
       <c r="W44" s="35"/>
       <c r="X44" s="35"/>
       <c r="Y44" s="38">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA44" s="39"/>
@@ -11464,7 +11445,7 @@
       <c r="W45" s="35"/>
       <c r="X45" s="35"/>
       <c r="Y45" s="38">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA45" s="39"/>
@@ -11501,7 +11482,7 @@
       <c r="W46" s="35"/>
       <c r="X46" s="35"/>
       <c r="Y46" s="38">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA46" s="39"/>
@@ -11538,7 +11519,7 @@
       <c r="W47" s="35"/>
       <c r="X47" s="35"/>
       <c r="Y47" s="38">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA47" s="39"/>
@@ -11575,7 +11556,7 @@
       <c r="W48" s="35"/>
       <c r="X48" s="35"/>
       <c r="Y48" s="38">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA48" s="39"/>
@@ -11612,7 +11593,7 @@
       <c r="W49" s="35"/>
       <c r="X49" s="35"/>
       <c r="Y49" s="38">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA49" s="39"/>
@@ -11649,7 +11630,7 @@
       <c r="W50" s="35"/>
       <c r="X50" s="35"/>
       <c r="Y50" s="38">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA50" s="39"/>
@@ -11686,7 +11667,7 @@
       <c r="W51" s="35"/>
       <c r="X51" s="35"/>
       <c r="Y51" s="38">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA51" s="39"/>
@@ -11723,7 +11704,7 @@
       <c r="W52" s="35"/>
       <c r="X52" s="35"/>
       <c r="Y52" s="38">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA52" s="39"/>
@@ -11760,7 +11741,7 @@
       <c r="W53" s="35"/>
       <c r="X53" s="35"/>
       <c r="Y53" s="38">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA53" s="39"/>
@@ -11795,7 +11776,7 @@
       <c r="W54" s="35"/>
       <c r="X54" s="35"/>
       <c r="Y54" s="38">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA54" s="43"/>
@@ -11896,7 +11877,7 @@
       <c r="W57" s="35"/>
       <c r="X57" s="35"/>
       <c r="Y57" s="38">
-        <f t="shared" ref="Y57:Y79" si="2">SUM(C57:W57)</f>
+        <f ref="Y57:Y79" si="2" t="shared">SUM(C57:W57)</f>
         <v>0</v>
       </c>
       <c r="AA57" s="39"/>
@@ -11933,7 +11914,7 @@
       <c r="W58" s="35"/>
       <c r="X58" s="35"/>
       <c r="Y58" s="38">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA58" s="39"/>
@@ -11970,7 +11951,7 @@
       <c r="W59" s="35"/>
       <c r="X59" s="35"/>
       <c r="Y59" s="38">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA59" s="39"/>
@@ -12007,7 +11988,7 @@
       <c r="W60" s="35"/>
       <c r="X60" s="35"/>
       <c r="Y60" s="38">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA60" s="39"/>
@@ -12044,7 +12025,7 @@
       <c r="W61" s="35"/>
       <c r="X61" s="35"/>
       <c r="Y61" s="38">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA61" s="39"/>
@@ -12081,7 +12062,7 @@
       <c r="W62" s="35"/>
       <c r="X62" s="35"/>
       <c r="Y62" s="38">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA62" s="39"/>
@@ -12118,7 +12099,7 @@
       <c r="W63" s="35"/>
       <c r="X63" s="35"/>
       <c r="Y63" s="38">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA63" s="39"/>
@@ -12155,7 +12136,7 @@
       <c r="W64" s="35"/>
       <c r="X64" s="35"/>
       <c r="Y64" s="38">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA64" s="39"/>
@@ -12192,7 +12173,7 @@
       <c r="W65" s="35"/>
       <c r="X65" s="35"/>
       <c r="Y65" s="38">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA65" s="39"/>
@@ -12229,7 +12210,7 @@
       <c r="W66" s="35"/>
       <c r="X66" s="35"/>
       <c r="Y66" s="38">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA66" s="39"/>
@@ -12266,7 +12247,7 @@
       <c r="W67" s="35"/>
       <c r="X67" s="35"/>
       <c r="Y67" s="38">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA67" s="39"/>
@@ -12303,7 +12284,7 @@
       <c r="W68" s="35"/>
       <c r="X68" s="35"/>
       <c r="Y68" s="38">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA68" s="39"/>
@@ -12340,7 +12321,7 @@
       <c r="W69" s="35"/>
       <c r="X69" s="35"/>
       <c r="Y69" s="38">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA69" s="39"/>
@@ -12377,7 +12358,7 @@
       <c r="W70" s="35"/>
       <c r="X70" s="35"/>
       <c r="Y70" s="38">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA70" s="39"/>
@@ -12414,7 +12395,7 @@
       <c r="W71" s="35"/>
       <c r="X71" s="35"/>
       <c r="Y71" s="38">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA71" s="39"/>
@@ -12451,7 +12432,7 @@
       <c r="W72" s="35"/>
       <c r="X72" s="35"/>
       <c r="Y72" s="38">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA72" s="39"/>
@@ -12488,7 +12469,7 @@
       <c r="W73" s="35"/>
       <c r="X73" s="35"/>
       <c r="Y73" s="38">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA73" s="39"/>
@@ -12525,7 +12506,7 @@
       <c r="W74" s="35"/>
       <c r="X74" s="35"/>
       <c r="Y74" s="38">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA74" s="39"/>
@@ -12562,7 +12543,7 @@
       <c r="W75" s="35"/>
       <c r="X75" s="35"/>
       <c r="Y75" s="38">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA75" s="39"/>
@@ -12599,7 +12580,7 @@
       <c r="W76" s="35"/>
       <c r="X76" s="35"/>
       <c r="Y76" s="38">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA76" s="39"/>
@@ -12636,7 +12617,7 @@
       <c r="W77" s="35"/>
       <c r="X77" s="35"/>
       <c r="Y77" s="38">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA77" s="39"/>
@@ -12673,7 +12654,7 @@
       <c r="W78" s="35"/>
       <c r="X78" s="35"/>
       <c r="Y78" s="38">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA78" s="39"/>
@@ -12710,7 +12691,7 @@
       <c r="W79" s="35"/>
       <c r="X79" s="35"/>
       <c r="Y79" s="38">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA79" s="43"/>
@@ -12843,7 +12824,7 @@
       <c r="W83" s="35"/>
       <c r="X83" s="35"/>
       <c r="Y83" s="38">
-        <f t="shared" ref="Y83:Y102" si="3">SUM(C83:W83)</f>
+        <f ref="Y83:Y102" si="3" t="shared">SUM(C83:W83)</f>
         <v>0</v>
       </c>
       <c r="AA83" s="39"/>
@@ -12880,7 +12861,7 @@
       <c r="W84" s="35"/>
       <c r="X84" s="35"/>
       <c r="Y84" s="38">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA84" s="39"/>
@@ -12917,7 +12898,7 @@
       <c r="W85" s="35"/>
       <c r="X85" s="35"/>
       <c r="Y85" s="38">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA85" s="39"/>
@@ -12954,7 +12935,7 @@
       <c r="W86" s="35"/>
       <c r="X86" s="35"/>
       <c r="Y86" s="38">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA86" s="39"/>
@@ -12991,7 +12972,7 @@
       <c r="W87" s="35"/>
       <c r="X87" s="35"/>
       <c r="Y87" s="38">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA87" s="39"/>
@@ -13028,7 +13009,7 @@
       <c r="W88" s="35"/>
       <c r="X88" s="35"/>
       <c r="Y88" s="38">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA88" s="39"/>
@@ -13065,7 +13046,7 @@
       <c r="W89" s="35"/>
       <c r="X89" s="35"/>
       <c r="Y89" s="38">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA89" s="39"/>
@@ -13102,7 +13083,7 @@
       <c r="W90" s="35"/>
       <c r="X90" s="35"/>
       <c r="Y90" s="38">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA90" s="39"/>
@@ -13139,7 +13120,7 @@
       <c r="W91" s="35"/>
       <c r="X91" s="35"/>
       <c r="Y91" s="38">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA91" s="39"/>
@@ -13176,7 +13157,7 @@
       <c r="W92" s="35"/>
       <c r="X92" s="35"/>
       <c r="Y92" s="38">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA92" s="39"/>
@@ -13213,7 +13194,7 @@
       <c r="W93" s="35"/>
       <c r="X93" s="35"/>
       <c r="Y93" s="38">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA93" s="39"/>
@@ -13250,7 +13231,7 @@
       <c r="W94" s="35"/>
       <c r="X94" s="35"/>
       <c r="Y94" s="38">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA94" s="39"/>
@@ -13287,7 +13268,7 @@
       <c r="W95" s="35"/>
       <c r="X95" s="35"/>
       <c r="Y95" s="38">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA95" s="39"/>
@@ -13324,7 +13305,7 @@
       <c r="W96" s="35"/>
       <c r="X96" s="35"/>
       <c r="Y96" s="38">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA96" s="39"/>
@@ -13361,7 +13342,7 @@
       <c r="W97" s="35"/>
       <c r="X97" s="35"/>
       <c r="Y97" s="38">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA97" s="39"/>
@@ -13398,7 +13379,7 @@
       <c r="W98" s="35"/>
       <c r="X98" s="35"/>
       <c r="Y98" s="38">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA98" s="39"/>
@@ -13435,7 +13416,7 @@
       <c r="W99" s="35"/>
       <c r="X99" s="35"/>
       <c r="Y99" s="38">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA99" s="39"/>
@@ -13472,7 +13453,7 @@
       <c r="W100" s="35"/>
       <c r="X100" s="35"/>
       <c r="Y100" s="38">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA100" s="39"/>
@@ -13509,7 +13490,7 @@
       <c r="W101" s="35"/>
       <c r="X101" s="35"/>
       <c r="Y101" s="38">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA101" s="39"/>
@@ -13546,7 +13527,7 @@
       <c r="W102" s="35"/>
       <c r="X102" s="35"/>
       <c r="Y102" s="38">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA102" s="43"/>
@@ -13617,7 +13598,7 @@
       <c r="AB104" s="4"/>
       <c r="AC104" s="13"/>
     </row>
-    <row r="105" spans="1:29" ht="22.7" x14ac:dyDescent="0.5">
+    <row ht="22.7" r="105" spans="1:29" x14ac:dyDescent="0.5">
       <c r="B105" s="66" t="s">
         <v>100</v>
       </c>
@@ -13746,32 +13727,32 @@
     <mergeCell ref="Y3:Y4"/>
   </mergeCells>
   <conditionalFormatting sqref="AA28">
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="lessThan">
+    <cfRule dxfId="7" operator="lessThan" priority="4" type="cellIs">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA55">
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="lessThan">
+    <cfRule dxfId="6" operator="lessThan" priority="3" type="cellIs">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA80">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="lessThan">
+    <cfRule dxfId="5" operator="lessThan" priority="2" type="cellIs">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA103">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="lessThan">
+    <cfRule dxfId="4" operator="lessThan" priority="1" type="cellIs">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AC58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:AD58"/>
   <sheetViews>
     <sheetView topLeftCell="A36" workbookViewId="0">
       <selection activeCell="A32" sqref="A19:XFD32"/>
@@ -13779,61 +13760,61 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8203125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:29" ht="23.35" x14ac:dyDescent="0.5">
+    <row ht="23.35" r="1" spans="1:29" x14ac:dyDescent="0.5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="100"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
-      <c r="U1" s="101"/>
-      <c r="V1" s="101"/>
-      <c r="W1" s="102"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="109"/>
+      <c r="T1" s="109"/>
+      <c r="U1" s="109"/>
+      <c r="V1" s="109"/>
+      <c r="W1" s="110"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="3"/>
       <c r="AB1" s="4"/>
       <c r="AC1" s="5"/>
     </row>
-    <row r="2" spans="1:29" ht="23.35" x14ac:dyDescent="0.5">
+    <row ht="23.35" r="2" spans="1:29" x14ac:dyDescent="0.5">
       <c r="B2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="104"/>
-      <c r="P2" s="104"/>
-      <c r="Q2" s="104"/>
-      <c r="R2" s="104"/>
-      <c r="S2" s="104"/>
-      <c r="T2" s="104"/>
-      <c r="U2" s="104"/>
-      <c r="V2" s="104"/>
-      <c r="W2" s="105"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
+      <c r="Q2" s="112"/>
+      <c r="R2" s="112"/>
+      <c r="S2" s="112"/>
+      <c r="T2" s="112"/>
+      <c r="U2" s="112"/>
+      <c r="V2" s="112"/>
+      <c r="W2" s="113"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="3" t="s">
         <v>1</v>
@@ -13841,35 +13822,35 @@
       <c r="AB2" s="4"/>
       <c r="AC2" s="5"/>
     </row>
-    <row r="3" spans="1:29" ht="23.35" x14ac:dyDescent="0.5">
-      <c r="B3" s="106" t="s">
+    <row ht="23.35" r="3" spans="1:29" x14ac:dyDescent="0.5">
+      <c r="B3" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="108" t="s">
+      <c r="C3" s="116" t="s">
         <v>97</v>
       </c>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109"/>
-      <c r="N3" s="109"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="109"/>
-      <c r="Q3" s="109"/>
-      <c r="R3" s="109"/>
-      <c r="S3" s="109"/>
-      <c r="T3" s="109"/>
-      <c r="U3" s="109"/>
-      <c r="V3" s="109"/>
-      <c r="W3" s="110"/>
-      <c r="X3" s="114"/>
-      <c r="Y3" s="116" t="s">
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="117"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="117"/>
+      <c r="N3" s="117"/>
+      <c r="O3" s="117"/>
+      <c r="P3" s="117"/>
+      <c r="Q3" s="117"/>
+      <c r="R3" s="117"/>
+      <c r="S3" s="117"/>
+      <c r="T3" s="117"/>
+      <c r="U3" s="117"/>
+      <c r="V3" s="117"/>
+      <c r="W3" s="118"/>
+      <c r="X3" s="122"/>
+      <c r="Y3" s="124" t="s">
         <v>3</v>
       </c>
       <c r="AA3" t="s">
@@ -13879,30 +13860,30 @@
       <c r="AC3" s="5"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.5">
-      <c r="B4" s="107"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
-      <c r="H4" s="112"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="112"/>
-      <c r="K4" s="112"/>
-      <c r="L4" s="112"/>
-      <c r="M4" s="112"/>
-      <c r="N4" s="112"/>
-      <c r="O4" s="112"/>
-      <c r="P4" s="112"/>
-      <c r="Q4" s="112"/>
-      <c r="R4" s="112"/>
-      <c r="S4" s="112"/>
-      <c r="T4" s="112"/>
-      <c r="U4" s="112"/>
-      <c r="V4" s="112"/>
-      <c r="W4" s="113"/>
-      <c r="X4" s="115"/>
-      <c r="Y4" s="117"/>
+      <c r="B4" s="115"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="120"/>
+      <c r="K4" s="120"/>
+      <c r="L4" s="120"/>
+      <c r="M4" s="120"/>
+      <c r="N4" s="120"/>
+      <c r="O4" s="120"/>
+      <c r="P4" s="120"/>
+      <c r="Q4" s="120"/>
+      <c r="R4" s="120"/>
+      <c r="S4" s="120"/>
+      <c r="T4" s="120"/>
+      <c r="U4" s="120"/>
+      <c r="V4" s="120"/>
+      <c r="W4" s="121"/>
+      <c r="X4" s="123"/>
+      <c r="Y4" s="125"/>
       <c r="AA4" t="s">
         <v>73</v>
       </c>
@@ -13910,7 +13891,7 @@
       <c r="AC4" s="8"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.5">
-      <c r="B5" s="107"/>
+      <c r="B5" s="115"/>
       <c r="C5" s="11" t="s">
         <v>8</v>
       </c>
@@ -13982,8 +13963,8 @@
       <c r="AB5" s="4"/>
       <c r="AC5" s="13"/>
     </row>
-    <row r="6" spans="1:29" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="107"/>
+    <row ht="14.7" r="6" spans="1:29" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="115"/>
       <c r="C6" s="14">
         <v>1</v>
       </c>
@@ -14150,7 +14131,7 @@
       <c r="W9" s="35"/>
       <c r="X9" s="37"/>
       <c r="Y9" s="38">
-        <f t="shared" ref="Y9:Y18" si="0">SUM(C9:W9)</f>
+        <f ref="Y9:Y18" si="0" t="shared">SUM(C9:W9)</f>
         <v>0</v>
       </c>
       <c r="AA9" s="39"/>
@@ -14187,7 +14168,7 @@
       <c r="W10" s="35"/>
       <c r="X10" s="37"/>
       <c r="Y10" s="38">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA10" s="39"/>
@@ -14224,7 +14205,7 @@
       <c r="W11" s="35"/>
       <c r="X11" s="37"/>
       <c r="Y11" s="38">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA11" s="39"/>
@@ -14261,7 +14242,7 @@
       <c r="W12" s="35"/>
       <c r="X12" s="37"/>
       <c r="Y12" s="38">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA12" s="39"/>
@@ -14298,7 +14279,7 @@
       <c r="W13" s="35"/>
       <c r="X13" s="37"/>
       <c r="Y13" s="38">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA13" s="39"/>
@@ -14335,7 +14316,7 @@
       <c r="W14" s="35"/>
       <c r="X14" s="37"/>
       <c r="Y14" s="38">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA14" s="39"/>
@@ -14372,7 +14353,7 @@
       <c r="W15" s="35"/>
       <c r="X15" s="37"/>
       <c r="Y15" s="38">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA15" s="39"/>
@@ -14409,7 +14390,7 @@
       <c r="W16" s="35"/>
       <c r="X16" s="37"/>
       <c r="Y16" s="38">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA16" s="39"/>
@@ -14444,7 +14425,7 @@
       <c r="W17" s="35"/>
       <c r="X17" s="37"/>
       <c r="Y17" s="38">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA17" s="39"/>
@@ -14479,7 +14460,7 @@
       <c r="W18" s="35"/>
       <c r="X18" s="37"/>
       <c r="Y18" s="38">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA18" s="39"/>
@@ -14548,7 +14529,7 @@
       <c r="W20" s="35"/>
       <c r="X20" s="37"/>
       <c r="Y20" s="38">
-        <f t="shared" ref="Y20:Y30" si="1">SUM(C20:W20)</f>
+        <f ref="Y20:Y30" si="1" t="shared">SUM(C20:W20)</f>
         <v>0</v>
       </c>
       <c r="AA20" s="39"/>
@@ -14585,7 +14566,7 @@
       <c r="W21" s="35"/>
       <c r="X21" s="37"/>
       <c r="Y21" s="38">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA21" s="39"/>
@@ -14622,7 +14603,7 @@
       <c r="W22" s="35"/>
       <c r="X22" s="37"/>
       <c r="Y22" s="38">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA22" s="39"/>
@@ -14659,7 +14640,7 @@
       <c r="W23" s="35"/>
       <c r="X23" s="37"/>
       <c r="Y23" s="38">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA23" s="39"/>
@@ -14696,7 +14677,7 @@
       <c r="W24" s="35"/>
       <c r="X24" s="37"/>
       <c r="Y24" s="38">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA24" s="39"/>
@@ -14733,7 +14714,7 @@
       <c r="W25" s="35"/>
       <c r="X25" s="37"/>
       <c r="Y25" s="38">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA25" s="39"/>
@@ -14770,7 +14751,7 @@
       <c r="W26" s="35"/>
       <c r="X26" s="37"/>
       <c r="Y26" s="38">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA26" s="39"/>
@@ -14807,7 +14788,7 @@
       <c r="W27" s="35"/>
       <c r="X27" s="37"/>
       <c r="Y27" s="38">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA27" s="39"/>
@@ -14844,7 +14825,7 @@
       <c r="W28" s="35"/>
       <c r="X28" s="37"/>
       <c r="Y28" s="38">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA28" s="39"/>
@@ -14879,7 +14860,7 @@
       <c r="W29" s="35"/>
       <c r="X29" s="37"/>
       <c r="Y29" s="38">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA29" s="39"/>
@@ -14914,7 +14895,7 @@
       <c r="W30" s="35"/>
       <c r="X30" s="37"/>
       <c r="Y30" s="38">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA30" s="39"/>
@@ -14983,7 +14964,7 @@
       <c r="W32" s="35"/>
       <c r="X32" s="37"/>
       <c r="Y32" s="38">
-        <f t="shared" ref="Y32:Y42" si="2">SUM(C32:W32)</f>
+        <f ref="Y32:Y42" si="2" t="shared">SUM(C32:W32)</f>
         <v>0</v>
       </c>
       <c r="AA32" s="39"/>
@@ -15020,7 +15001,7 @@
       <c r="W33" s="35"/>
       <c r="X33" s="37"/>
       <c r="Y33" s="38">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA33" s="39"/>
@@ -15057,7 +15038,7 @@
       <c r="W34" s="35"/>
       <c r="X34" s="37"/>
       <c r="Y34" s="38">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA34" s="39"/>
@@ -15094,7 +15075,7 @@
       <c r="W35" s="35"/>
       <c r="X35" s="37"/>
       <c r="Y35" s="38">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA35" s="39"/>
@@ -15131,7 +15112,7 @@
       <c r="W36" s="35"/>
       <c r="X36" s="37"/>
       <c r="Y36" s="38">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA36" s="39"/>
@@ -15168,7 +15149,7 @@
       <c r="W37" s="35"/>
       <c r="X37" s="37"/>
       <c r="Y37" s="38">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA37" s="39"/>
@@ -15205,7 +15186,7 @@
       <c r="W38" s="35"/>
       <c r="X38" s="37"/>
       <c r="Y38" s="38">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA38" s="39"/>
@@ -15242,7 +15223,7 @@
       <c r="W39" s="35"/>
       <c r="X39" s="37"/>
       <c r="Y39" s="38">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA39" s="39"/>
@@ -15279,7 +15260,7 @@
       <c r="W40" s="35"/>
       <c r="X40" s="37"/>
       <c r="Y40" s="38">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA40" s="39"/>
@@ -15314,7 +15295,7 @@
       <c r="W41" s="35"/>
       <c r="X41" s="37"/>
       <c r="Y41" s="38">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA41" s="39"/>
@@ -15349,7 +15330,7 @@
       <c r="W42" s="35"/>
       <c r="X42" s="37"/>
       <c r="Y42" s="38">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA42" s="39"/>
@@ -15418,7 +15399,7 @@
       <c r="W44" s="35"/>
       <c r="X44" s="37"/>
       <c r="Y44" s="38">
-        <f t="shared" ref="Y44:Y54" si="3">SUM(C44:W44)</f>
+        <f ref="Y44:Y54" si="3" t="shared">SUM(C44:W44)</f>
         <v>0</v>
       </c>
       <c r="AA44" s="39"/>
@@ -15455,7 +15436,7 @@
       <c r="W45" s="35"/>
       <c r="X45" s="37"/>
       <c r="Y45" s="38">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA45" s="39"/>
@@ -15492,7 +15473,7 @@
       <c r="W46" s="35"/>
       <c r="X46" s="37"/>
       <c r="Y46" s="38">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA46" s="39"/>
@@ -15529,7 +15510,7 @@
       <c r="W47" s="35"/>
       <c r="X47" s="37"/>
       <c r="Y47" s="38">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA47" s="39"/>
@@ -15566,7 +15547,7 @@
       <c r="W48" s="35"/>
       <c r="X48" s="37"/>
       <c r="Y48" s="38">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA48" s="39"/>
@@ -15603,7 +15584,7 @@
       <c r="W49" s="35"/>
       <c r="X49" s="37"/>
       <c r="Y49" s="38">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA49" s="39"/>
@@ -15640,7 +15621,7 @@
       <c r="W50" s="35"/>
       <c r="X50" s="37"/>
       <c r="Y50" s="38">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA50" s="39"/>
@@ -15677,7 +15658,7 @@
       <c r="W51" s="35"/>
       <c r="X51" s="37"/>
       <c r="Y51" s="38">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA51" s="39"/>
@@ -15714,7 +15695,7 @@
       <c r="W52" s="35"/>
       <c r="X52" s="37"/>
       <c r="Y52" s="38">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA52" s="39"/>
@@ -15749,7 +15730,7 @@
       <c r="W53" s="35"/>
       <c r="X53" s="37"/>
       <c r="Y53" s="38">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA53" s="39"/>
@@ -15784,14 +15765,14 @@
       <c r="W54" s="35"/>
       <c r="X54" s="37"/>
       <c r="Y54" s="38">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA54" s="39"/>
       <c r="AB54" s="31"/>
       <c r="AC54" s="40"/>
     </row>
-    <row r="55" spans="1:29" ht="22.7" x14ac:dyDescent="0.5">
+    <row ht="22.7" r="55" spans="1:29" x14ac:dyDescent="0.5">
       <c r="B55" s="66" t="s">
         <v>100</v>
       </c>
@@ -15920,25 +15901,25 @@
     <mergeCell ref="Y3:Y4"/>
   </mergeCells>
   <conditionalFormatting sqref="X8:X18">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThan">
+    <cfRule dxfId="3" operator="greaterThan" priority="9" type="cellIs">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X20:X30">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
+    <cfRule dxfId="2" operator="greaterThan" priority="8" type="cellIs">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X32:X42">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThan">
+    <cfRule dxfId="1" operator="greaterThan" priority="7" type="cellIs">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X44:X54">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
+    <cfRule dxfId="0" operator="greaterThan" priority="6" type="cellIs">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>